--- a/CPU in Excel MAIN.xlsx
+++ b/CPU in Excel MAIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100146766\Documents\CPU in Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE346AB-7570-45EC-ACF7-33B5D8CB57CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D96ECC-59FC-4693-BC77-DF58103B6D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1B66EC66-FDED-4F04-B5B9-1656D0B4CE5B}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>CLOCK</t>
   </si>
@@ -130,6 +130,39 @@
   <si>
     <t>REVERSE DOWN COUNTER BITS TO MAKE UP COUNTER</t>
   </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>CARRY</t>
+  </si>
+  <si>
+    <t>BITA</t>
+  </si>
+  <si>
+    <t>BITB</t>
+  </si>
+  <si>
+    <t>2-BIT ADDER</t>
+  </si>
+  <si>
+    <t>OUT 4-BIT</t>
+  </si>
+  <si>
+    <t>SUB/ADD</t>
+  </si>
+  <si>
+    <t>INDEX 2</t>
+  </si>
+  <si>
+    <t>INDEX 1</t>
+  </si>
+  <si>
+    <t>INDEX 3</t>
+  </si>
+  <si>
+    <t>INDEX 4</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -452,11 +485,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF339933"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF339933"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF339933"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF339933"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF339933"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF339933"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF339933"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF339933"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF339933"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF339933"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF339933"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF339933"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF339933"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF339933"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -489,15 +642,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
@@ -506,6 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -518,12 +663,1005 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="152">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1399,10 +2537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC4233A-7F14-4F83-A44E-FF3D0836BCB8}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:AG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,18 +2593,18 @@
       <c r="A4" s="2"/>
       <c r="G4" s="12"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="27"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="3">
         <f ca="1">IF(CLOCK = 0, J4, IF(AND(CLOCK = 1,INPUT = 1,RESET = 0), 0, IF(AND(CLOCK = 1,INPUT = 0,RESET = 1), 1, IF(AND(CLOCK = 1,INPUT = 0,RESET = 0), J4, IF(AND(CLOCK = 1,INPUT = 1,RESET = 1),IF(JK.1 = 1, 0, 1))))))</f>
         <v>0</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="29"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1478,37 +2616,37 @@
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="24"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="5">
         <f ca="1">IF(CLOCK = 0, J5, IF(AND(CLOCK = 1,JK.1 = 1,JK.1 = 0), 0, IF(AND(CLOCK = 1,JK.1 = 0,JK.1 = 1), 1, IF(AND(CLOCK = 1,JK.1 = 0, JK.1 = 0), J5, IF(AND(CLOCK = 1,JK.1 = 1,JK.1 = 1), IF(JK.2 = 1, 0, 1))))))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="24"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="18"/>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="33" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
-      <c r="Q5" s="30"/>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="5">
         <f ca="1">IF(AND(JK.1 = 1, JK.2 = 1), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L6" s="18"/>
-      <c r="M6" s="21"/>
+      <c r="M6" s="34"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
-      <c r="Q6" s="30"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1519,26 +2657,26 @@
         <v>2</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="5">
         <f ca="1">IF(CLOCK = 0, J7, IF(AND(CLOCK = 1,AND.1 = 1,AND.1 = 0), 0, IF(AND(CLOCK = 1,AND.1 = 0,AND.1 = 1), 1, IF(AND(CLOCK = 1,AND.1 = 0,AND.1 = 0), J7, IF(AND(CLOCK = 1,AND.1 = 1,AND.1 = 1), IF(JK.3 = 1, 0, 1))))))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="24"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="22"/>
+      <c r="M7" s="35"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
-      <c r="Q7" s="30"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="5" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">IF(AND(AND.1 = 1, JK.3 = 1), 1, 0)</f>
         <v>0</v>
@@ -1548,7 +2686,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
-      <c r="Q8" s="30"/>
+      <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1560,32 +2698,32 @@
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="24"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="5">
         <f ca="1">IF(CLOCK = 0, J9, IF(AND(CLOCK = 1,AND.2 = 1,AND.2 = 0), 0, IF(AND(CLOCK = 1,AND.2 = 0,AND.2 = 1), 1, IF(AND(CLOCK = 1,AND.2 = 0,AND.2 = 0), J9, IF(AND(CLOCK = 1,AND.2 = 1,AND.2 = 1), IF(JK.4 = 1, 0, 1))))))</f>
         <v>0</v>
       </c>
-      <c r="K9" s="24"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
-      <c r="Q9" s="30"/>
+      <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="G10" s="13"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
-      <c r="Q10" s="30"/>
+      <c r="Q10" s="27"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1600,12 +2738,12 @@
       <c r="I11" s="10"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="35"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="28"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -1613,35 +2751,35 @@
         <f ca="1">IF(JK.4 = 1, 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="21" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="5">
         <f ca="1">IF(JK.3 = 1, 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="21" t="s">
         <v>1</v>
       </c>
       <c r="K12" s="5">
         <f ca="1">IF(JK.2 = 1, 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="21" t="s">
         <v>1</v>
       </c>
       <c r="M12" s="5">
         <f ca="1">IF(JK.1 = 1, 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="32"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="30"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1659,9 +2797,9 @@
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="30"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -1669,33 +2807,33 @@
         <f ca="1">NOT.4</f>
         <v>1</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="23" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="8">
         <f ca="1">NOT.3</f>
         <v>1</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="23" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="8">
         <f ca="1">NOT.2</f>
         <v>1</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="23" t="s">
         <v>13</v>
       </c>
       <c r="M14" s="8">
         <f ca="1">NOT.1</f>
         <v>1</v>
       </c>
-      <c r="N14" s="26" t="s">
+      <c r="N14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="34"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1709,7 +2847,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f ca="1">IF(OR(AND(A3 = 1, C3 = 1), AND(A3 = 0, C3 = 0)), 1, 0)</f>
         <v>0</v>
@@ -1717,8 +2855,42 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="44"/>
+      <c r="N17" s="26"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="27"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f ca="1">IF(AND(A1 = 1, C1 = 1), 0, IF(AND(A1 = 1, C1 = 0), 1, IF(AND(A1 = 0, C1 = 1), 0, A19)))</f>
         <v>1</v>
@@ -1726,8 +2898,38 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="17"/>
+      <c r="N19" s="27"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="27"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f ca="1">IF(A1 = 0, A21, IF(AND(A1 = 1, C1 = 1, E1 = 0), 1, IF(AND(A1 = 1, C1 = 0, E1 = 1), 0, IF(AND(A1 = 1, C1 = 0, E1 = 0), A21, IF(AND(A1 = 1, C1 = 1, E1 = 1), IF(A21 = 1, 0, 1))))))</f>
         <v>1</v>
@@ -1735,157 +2937,1260 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="27"/>
+    </row>
+    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="5">
+        <f>IF(_xlfn.XOR(K17 = 1, K19 = 1), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="27"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="F23" s="16"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="27"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <f>K18</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <f>J22</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="27"/>
+    </row>
+    <row r="25" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="16"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="17"/>
+      <c r="N25" s="27"/>
+      <c r="AG25" s="2"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="F26" s="16"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="5">
+        <f>IF(_xlfn.XOR(I24 = 1, J24 = 1), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="F27" s="16"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="5">
+        <f>IF(AND(I24 = 1, J24 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <f>IF(AND(H24 = 1, J26 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="27"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="F28" s="16"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="5">
+        <f>IF(_xlfn.XOR(H24 = 1, J26 = 1), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="27"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="F29" s="16"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="5">
+        <f>IF(OR(H27 = 1, I27 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="27"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="F30" s="16"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="27"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="F31" s="16"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="8">
+        <f>I29</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="8">
+        <f>J28</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="37"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="27"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="5">
+        <f>IF(_xlfn.XOR(K17 = 1, J19 = 1), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="27"/>
+    </row>
+    <row r="33" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F33" s="16"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="25"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="27"/>
+    </row>
+    <row r="34" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F34" s="16"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="5">
+        <f>I31</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f>J18</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <f>J32</f>
+        <v>1</v>
+      </c>
+      <c r="K34" s="18"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="27"/>
+    </row>
+    <row r="35" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F35" s="16"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="17"/>
+      <c r="N35" s="27"/>
+    </row>
+    <row r="36" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F36" s="16"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="5">
+        <f>IF(_xlfn.XOR(I34 = 1, J34 = 1), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K36" s="18"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F37" s="16"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="5">
+        <f>IF(AND(I34 = 1, J34 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <f>IF(AND(H34 = 1, J36 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="21"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="27"/>
+    </row>
+    <row r="38" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F38" s="16"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="5">
+        <f>IF(_xlfn.XOR(H34 = 1, J36 = 1), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K38" s="18"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="27"/>
+    </row>
+    <row r="39" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F39" s="16"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="5">
+        <f>IF(OR(H37 = 1, I37 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="21"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="27"/>
+    </row>
+    <row r="40" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F40" s="16"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="27"/>
+    </row>
+    <row r="41" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F41" s="16"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="8">
+        <f>I39</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="8">
+        <f>J38</f>
+        <v>1</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="37"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="27"/>
+    </row>
+    <row r="42" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="5">
+        <f>IF(_xlfn.XOR(K17 = 1, I19 = 1), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="27"/>
+    </row>
+    <row r="43" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F43" s="16"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="27"/>
+    </row>
+    <row r="44" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F44" s="16"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="5">
+        <f>I41</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
+        <f>I18</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="18"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="27"/>
+    </row>
+    <row r="45" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F45" s="16"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="17"/>
+      <c r="N45" s="27"/>
+    </row>
+    <row r="46" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F46" s="16"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="5">
+        <f>IF(_xlfn.XOR(I44 = 1, J44 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="18"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F47" s="16"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="5">
+        <f>IF(AND(I44 = 1, J44 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <f>IF(AND(H44 = 1, J46 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="27"/>
+    </row>
+    <row r="48" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F48" s="16"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="5">
+        <f>IF(_xlfn.XOR(H44 = 1, J46 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="18"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="27"/>
+    </row>
+    <row r="49" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F49" s="16"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="5">
+        <f>IF(OR(H47 = 1, I47 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="21"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="27"/>
+    </row>
+    <row r="50" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F50" s="16"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="27"/>
+    </row>
+    <row r="51" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F51" s="16"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="8">
+        <f>I49</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
+        <f>J48</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="37"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="27"/>
+    </row>
+    <row r="52" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F52" s="16"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="5">
+        <f>IF(_xlfn.XOR(K17 = 1, H19 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="27"/>
+    </row>
+    <row r="53" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F53" s="16"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="25"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="27"/>
+    </row>
+    <row r="54" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F54" s="16"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="5">
+        <f>I51</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="5">
+        <f>H18</f>
+        <v>1</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="18"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="27"/>
+    </row>
+    <row r="55" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F55" s="16"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="17"/>
+      <c r="N55" s="27"/>
+    </row>
+    <row r="56" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F56" s="16"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="5">
+        <f>IF(_xlfn.XOR(I54 = 1, J54 = 1), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K56" s="18"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F57" s="16"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="5">
+        <f>IF(AND(I54 = 1, J54 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="5">
+        <f>IF(AND(H54 = 1, J56 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="21"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="27"/>
+    </row>
+    <row r="58" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F58" s="16"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="5">
+        <f>IF(_xlfn.XOR(H54 = 1, J56 = 1), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K58" s="18"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="27"/>
+    </row>
+    <row r="59" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F59" s="16"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="5">
+        <f>IF(OR(H57 = 1, I57 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="21"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="27"/>
+    </row>
+    <row r="60" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F60" s="16"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="27"/>
+    </row>
+    <row r="61" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F61" s="16"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="8">
+        <f>I59</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="8">
+        <f>J58</f>
+        <v>1</v>
+      </c>
+      <c r="K61" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="37"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="27"/>
+    </row>
+    <row r="62" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F62" s="16"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="27"/>
+    </row>
+    <row r="63" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="27"/>
+    </row>
+    <row r="64" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F64" s="16"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="27"/>
+    </row>
+    <row r="65" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F65" s="16"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="27"/>
+    </row>
+    <row r="66" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F66" s="16"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="27"/>
+    </row>
+    <row r="67" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F67" s="16"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="27"/>
+    </row>
+    <row r="68" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F68" s="7">
+        <f>I61</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="8">
+        <f>J61</f>
+        <v>1</v>
+      </c>
+      <c r="I68" s="8">
+        <f>J51</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="8">
+        <f>J41</f>
+        <v>1</v>
+      </c>
+      <c r="K68" s="8">
+        <f>J31</f>
+        <v>1</v>
+      </c>
+      <c r="L68" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M68" s="45"/>
+      <c r="N68" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="L55:L57"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="L25:L27"/>
     <mergeCell ref="O12:Q14"/>
     <mergeCell ref="M5:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="55" priority="121" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="209" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="53" priority="99" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="187" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="188" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="51" priority="97" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="185" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="49" priority="95" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="183" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="184" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="47" priority="93" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="181" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="45" priority="91" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="179" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="180" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="43" priority="89" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="177" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="41" priority="87" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="175" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="176" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="39" priority="85" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="173" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="37" priority="83" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="171" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="172" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="35" priority="73" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="161" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="33" priority="71" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="159" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="160" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="31" priority="53" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="141" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="29" priority="65" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="153" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="27" priority="61" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="149" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="25" priority="59" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="147" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="148" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="23" priority="57" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="145" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="21" priority="55" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="143" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="144" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
+    <cfRule type="cellIs" dxfId="115" priority="107" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="108" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="113" priority="105" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="106" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="cellIs" dxfId="111" priority="103" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="104" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="109" priority="101" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="102" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="cellIs" dxfId="107" priority="99" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="100" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="105" priority="97" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="103" priority="95" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="96" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="101" priority="93" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="94" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="99" priority="91" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="92" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="cellIs" dxfId="97" priority="89" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="cellIs" dxfId="95" priority="87" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="88" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="cellIs" dxfId="93" priority="85" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="86" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="91" priority="83" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="84" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="cellIs" dxfId="89" priority="81" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="82" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="cellIs" dxfId="87" priority="79" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="80" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="cellIs" dxfId="85" priority="77" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="78" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="cellIs" dxfId="83" priority="75" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="76" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:J44">
+    <cfRule type="cellIs" dxfId="81" priority="73" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="74" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="cellIs" dxfId="79" priority="71" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="72" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="cellIs" dxfId="77" priority="69" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="70" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="cellIs" dxfId="75" priority="67" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="68" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="cellIs" dxfId="73" priority="65" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="cellIs" dxfId="71" priority="63" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="64" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="cellIs" dxfId="69" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="cellIs" dxfId="67" priority="59" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="60" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:J34">
+    <cfRule type="cellIs" dxfId="65" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="cellIs" dxfId="63" priority="55" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="56" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="cellIs" dxfId="61" priority="53" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="54" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="59" priority="51" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="52" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="cellIs" dxfId="57" priority="49" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="cellIs" dxfId="55" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="cellIs" dxfId="53" priority="45" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:J24">
+    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J61">
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:J54">
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68">
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1893,15 +4198,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
+  <conditionalFormatting sqref="K17">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1909,7 +4206,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
+  <conditionalFormatting sqref="H18:K18">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1917,7 +4214,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
+  <conditionalFormatting sqref="H19:K19">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1925,7 +4222,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+  <conditionalFormatting sqref="J22">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1933,7 +4230,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+  <conditionalFormatting sqref="J32">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1941,7 +4238,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="J42">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1949,7 +4246,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
+  <conditionalFormatting sqref="J52">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1957,7 +4254,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12">
+  <conditionalFormatting sqref="F68">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/CPU in Excel MAIN.xlsx
+++ b/CPU in Excel MAIN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100146766\Documents\CPU in Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\ePU-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D96ECC-59FC-4693-BC77-DF58103B6D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86759006-5F11-488E-A68F-64B6C3D72E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1B66EC66-FDED-4F04-B5B9-1656D0B4CE5B}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="32">
   <si>
     <t>CLOCK</t>
   </si>
@@ -143,25 +143,31 @@
     <t>BITB</t>
   </si>
   <si>
-    <t>2-BIT ADDER</t>
-  </si>
-  <si>
     <t>OUT 4-BIT</t>
   </si>
   <si>
-    <t>SUB/ADD</t>
+    <t>FULL ADDER</t>
   </si>
   <si>
-    <t>INDEX 2</t>
+    <t>BORROW</t>
   </si>
   <si>
-    <t>INDEX 1</t>
+    <t>FULL SUBBER</t>
   </si>
   <si>
-    <t>INDEX 3</t>
+    <t>HALF SUBBER</t>
   </si>
   <si>
-    <t>INDEX 4</t>
+    <t>4-BIT SUBBER</t>
+  </si>
+  <si>
+    <t>CONTROL</t>
+  </si>
+  <si>
+    <t>4-BIT ADD/SUB</t>
+  </si>
+  <si>
+    <t>HALF ADDER</t>
   </si>
 </sst>
 </file>
@@ -197,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -515,26 +521,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF339933"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF339933"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF339933"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -605,21 +591,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF339933"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF339933"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF339933"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF339933"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF339933"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF339933"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -632,7 +700,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -643,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -651,7 +718,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -672,36 +753,2126 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="152">
+  <dxfs count="360">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2537,15 +4708,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC4233A-7F14-4F83-A44E-FF3D0836BCB8}">
-  <dimension ref="A1:AG68"/>
+  <dimension ref="A1:AG72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <f ca="1">IF(A1 = 1, 0, IF(A1 = 0, 1))</f>
         <v>1</v>
@@ -2566,11 +4737,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f ca="1">IF(A1=1, 1, 0)</f>
         <v>1</v>
@@ -2585,28 +4756,56 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="24"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="3">
         <f ca="1">IF(CLOCK = 0, J4, IF(AND(CLOCK = 1,INPUT = 1,RESET = 0), 0, IF(AND(CLOCK = 1,INPUT = 0,RESET = 1), 1, IF(AND(CLOCK = 1,INPUT = 0,RESET = 0), J4, IF(AND(CLOCK = 1,INPUT = 1,RESET = 1),IF(JK.1 = 1, 0, 1))))))</f>
         <v>0</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="26"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="22"/>
+      <c r="X4" s="23"/>
+      <c r="Z4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF4" s="23"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f ca="1">IF(A3 = 1, 0, 1)</f>
         <v>0</v>
@@ -2614,41 +4813,78 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="5">
+      <c r="G5" s="8"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="2">
         <f ca="1">IF(CLOCK = 0, J5, IF(AND(CLOCK = 1,JK.1 = 1,JK.1 = 0), 0, IF(AND(CLOCK = 1,JK.1 = 0,JK.1 = 1), 1, IF(AND(CLOCK = 1,JK.1 = 0, JK.1 = 0), J5, IF(AND(CLOCK = 1,JK.1 = 1,JK.1 = 1), IF(JK.2 = 1, 0, 1))))))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="33" t="s">
+      <c r="K5" s="18"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="27"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="24"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="15"/>
+      <c r="X5" s="24"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="24"/>
+    </row>
+    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="5">
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="2">
         <f ca="1">IF(AND(JK.1 = 1, JK.2 = 1), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L6" s="15"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="24"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="49">
+        <f>IF(_xlfn.XOR(AB4 = 1, AD4 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="24"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f ca="1">IF(AND(A3 = 1, C3 = 1), 1, 0)</f>
         <v>0</v>
@@ -2656,39 +4892,85 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="5">
+      <c r="G7" s="8"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="2">
         <f ca="1">IF(CLOCK = 0, J7, IF(AND(CLOCK = 1,AND.1 = 1,AND.1 = 0), 0, IF(AND(CLOCK = 1,AND.1 = 0,AND.1 = 1), 1, IF(AND(CLOCK = 1,AND.1 = 0,AND.1 = 0), J7, IF(AND(CLOCK = 1,AND.1 = 1,AND.1 = 1), IF(JK.3 = 1, 0, 1))))))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K7" s="18"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="24"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="2">
+        <f>IF(_xlfn.XOR(U5 = 1, V5 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="15"/>
+      <c r="X7" s="32"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="49">
+        <f>IF(AD4 = 1, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="49">
+        <f>IF(_xlfn.XOR(Z4 = 1, AC6 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="24"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="5" cm="1">
+      <c r="G8" s="12"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="2" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">IF(AND(AND.1 = 1, JK.3 = 1), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="27"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="24"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="2">
+        <f>IF(AND(U5 = 1, V5 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <f>IF(AND(T5 = 1, V7 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="18"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="33"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="49">
+        <f>IF(AC6 = 1, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f ca="1">IF(OR(A3 = 1, C3 =1), 1, 0)</f>
         <v>1</v>
@@ -2696,36 +4978,74 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="5">
+      <c r="G9" s="13"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="2">
         <f ca="1">IF(CLOCK = 0, J9, IF(AND(CLOCK = 1,AND.2 = 1,AND.2 = 0), 0, IF(AND(CLOCK = 1,AND.2 = 0,AND.2 = 1), 1, IF(AND(CLOCK = 1,AND.2 = 0,AND.2 = 0), J9, IF(AND(CLOCK = 1,AND.2 = 1,AND.2 = 1), IF(JK.4 = 1, 0, 1))))))</f>
         <v>0</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="27"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K9" s="18"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="24"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="2">
+        <f>IF(_xlfn.XOR(T5 = 1, V7 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="15"/>
+      <c r="X9" s="24"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="49">
+        <f>IF(AND(AB4 = 1, AA7 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="35"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="27"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G10" s="10"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="24"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="2">
+        <f>IF(OR(T8 = 1, U8 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="18"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="24"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="49">
+        <f>IF(AND(Z4 = 1, AC8 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="43"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f ca="1">IF(_xlfn.XOR(A3 = 1, C3 = 1), 1, 0)</f>
         <v>1</v>
@@ -2733,55 +5053,94 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="28"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="12"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="25"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="24"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="24"/>
+    </row>
+    <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <f ca="1">IF(JK.4 = 1, 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <f ca="1">IF(JK.3 = 1, 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="2">
         <f ca="1">IF(JK.2 = 1, 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="2">
         <f ca="1">IF(JK.1 = 1, 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="O12" s="29" t="s">
+      <c r="O12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="30"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="34"/>
+      <c r="Q12" s="35"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="6">
+        <f>U10</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="6">
+        <f>V9</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="X12" s="27"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="49">
+        <f>IF(OR(AA9 = 1, AB10 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="24"/>
+    </row>
+    <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f ca="1">IF(AND(A3 = 0, C3 =0), 1, 0)</f>
         <v>0</v>
@@ -2789,53 +5148,77 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="30"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G13" s="8"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="35"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="24"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <f ca="1">NOT.4</f>
         <v>1</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <f ca="1">NOT.3</f>
         <v>1</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="6">
         <f ca="1">NOT.2</f>
         <v>1</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="6">
         <f ca="1">NOT.1</f>
         <v>1</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="37"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="6">
+        <f>AA12</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC14" s="6">
+        <f>AD7</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="27"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f ca="1">IF(AND(A3 = 1, C3 = 1), 0, 1)</f>
         <v>1</v>
@@ -2844,10 +5227,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G16" s="28"/>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="23"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="V16" s="7"/>
+      <c r="W16" s="23"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="46"/>
+    </row>
+    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f ca="1">IF(OR(AND(A3 = 1, C3 = 1), AND(A3 = 0, C3 = 0)), 1, 0)</f>
         <v>0</v>
@@ -2855,40 +5289,74 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="3">
+      <c r="G17" s="13"/>
+      <c r="H17" s="49">
+        <v>0</v>
+      </c>
+      <c r="I17" s="49">
         <v>1</v>
       </c>
-      <c r="L17" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="44"/>
-      <c r="N17" s="26"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="5">
+      <c r="J17" s="49">
+        <v>0</v>
+      </c>
+      <c r="K17" s="49">
         <v>1</v>
       </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="27"/>
+      <c r="L17" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="24"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="24"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="48"/>
+    </row>
+    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="24"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="2">
+        <f>IF(_xlfn.XOR(R16 = 1, T16 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="18"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="49">
+        <f>IF(_xlfn.XOR(Z16 = 1, AB16 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="35" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -2898,36 +5366,74 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="5">
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="24"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="32"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="49">
+        <f>IF(Z16 = 1, 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4" t="s">
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="35"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G20" s="13"/>
+      <c r="H20" s="59">
+        <v>0</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="3">
+        <f>K17</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="17"/>
-      <c r="N19" s="27"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="27"/>
+      <c r="L20" s="3">
+        <f>K16</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="23"/>
+      <c r="O20" s="24"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="2">
+        <f>IF(AND(R16 = 1, T16 = 1), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="33"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="35"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -2937,908 +5443,2283 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="27"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="24"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="49">
+        <f>IF(AND(Z19 = 1, AB16 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="48"/>
     </row>
     <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="5">
-        <f>IF(_xlfn.XOR(K17 = 1, K19 = 1), 1, 0)</f>
+      <c r="G22" s="13"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="49">
+        <f>IF(_xlfn.XOR(J20 = 1, L20 = 1), 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="L22" s="50"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="24"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="48"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G23" s="13"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="49">
+        <f>IF(L20 = 1, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="49">
+        <f>IF(_xlfn.XOR(H20 = 1, K22 = 1), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="6">
+        <f>S20</f>
+        <v>1</v>
+      </c>
+      <c r="S23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="6">
+        <f>T18</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" s="53"/>
+      <c r="W23" s="27"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="6">
+        <f>Z21</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB23" s="6">
+        <f>AB18</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="52"/>
+    </row>
+    <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="13"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="49">
+        <f>IF(K22 = 1, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="50"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="24"/>
+    </row>
+    <row r="25" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="13"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="49">
+        <f>IF(AND(J20 = 1, I23 = 1), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="24"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y25" s="23"/>
+      <c r="AG25" s="2"/>
+    </row>
+    <row r="26" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="13"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="49">
+        <f>IF(AND(H20 = 1, K24 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="24"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="49">
+        <v>0</v>
+      </c>
+      <c r="S26" s="49">
+        <v>0</v>
+      </c>
+      <c r="T26" s="49">
+        <v>0</v>
+      </c>
+      <c r="U26" s="49">
+        <v>0</v>
+      </c>
+      <c r="V26" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="24"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G27" s="13"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="24"/>
+    </row>
+    <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="13"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="49">
+        <f>IF(OR(I25 = 1, J26 =1), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="2">
+        <f>IF(_xlfn.XOR(U26 = 1, W25 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="27"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F23" s="16"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="24" t="s">
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="T29" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="U29" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="27"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <f>K18</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="5">
-        <f>J22</f>
+      <c r="V29" s="22"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="35"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G30" s="13"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="6">
+        <f>I28</f>
         <v>1</v>
       </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="27"/>
-    </row>
-    <row r="25" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="16"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="27"/>
-      <c r="AG25" s="2"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F26" s="16"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="5">
-        <f>IF(_xlfn.XOR(I24 = 1, J24 = 1), 1, 0)</f>
+      <c r="J30" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="6">
+        <f>L23</f>
         <v>1</v>
       </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F27" s="16"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="5">
-        <f>IF(AND(I24 = 1, J24 = 1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <f>IF(AND(H24 = 1, J26 = 1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="27"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F28" s="16"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="5">
-        <f>IF(_xlfn.XOR(H24 = 1, J26 = 1), 1, 0)</f>
+      <c r="L30" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="30"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="24"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="2">
+        <f>W25</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
+        <f>U25</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <f>U28</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="15"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="43"/>
+    </row>
+    <row r="31" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="24"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="24"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G32" s="13"/>
+      <c r="H32" s="59">
+        <f>I30</f>
         <v>1</v>
       </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="27"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F29" s="16"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="5">
-        <f>IF(OR(H27 = 1, I27 =1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="27"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F30" s="16"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="27"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F31" s="16"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="8">
-        <f>I29</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="8">
-        <f>J28</f>
+      <c r="I32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="3">
+        <f>J17</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="3">
+        <f>J16</f>
         <v>1</v>
       </c>
-      <c r="K31" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="37"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="27"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="5">
-        <f>IF(_xlfn.XOR(K17 = 1, J19 = 1), 1, 0)</f>
+      <c r="M32" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="23"/>
+      <c r="O32" s="24"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="2">
+        <f>IF(_xlfn.XOR(T30 = 1, U30 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="15"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="24"/>
+    </row>
+    <row r="33" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="2">
+        <f>IF(AND(T30 = 1, U30 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <f>IF(AND(S30 = 1, U32 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="18"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="24"/>
+    </row>
+    <row r="34" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G34" s="13"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="49">
+        <f>IF(_xlfn.XOR(J32 = 1, L32 = 1), 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="27"/>
-    </row>
-    <row r="33" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F33" s="16"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="25"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="27"/>
-    </row>
-    <row r="34" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F34" s="16"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="5">
-        <f>I31</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <f>J18</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="5">
-        <f>J32</f>
-        <v>1</v>
-      </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="27"/>
-    </row>
-    <row r="35" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F35" s="16"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="2">
+        <f>IF(_xlfn.XOR(S30 = 1, U32 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="15"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="24"/>
+    </row>
+    <row r="35" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G35" s="13"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="17"/>
-      <c r="N35" s="27"/>
-    </row>
-    <row r="36" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F36" s="16"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="49">
+        <f>IF(L32 = 1, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="49">
+        <f>IF(_xlfn.XOR(H32 = 1, K34 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="14"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="2">
+        <f>IF(OR(S33 = 1, T33 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="18"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="24"/>
+    </row>
+    <row r="36" spans="7:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G36" s="13"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="5">
-        <f>IF(_xlfn.XOR(I34 = 1, J34 = 1), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="17"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="49">
+        <f>IF(K34 = 1, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="50"/>
+      <c r="M36" s="14"/>
       <c r="N36" s="42" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F37" s="16"/>
+      <c r="O36" s="24"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="24"/>
+    </row>
+    <row r="37" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G37" s="13"/>
-      <c r="H37" s="5">
-        <f>IF(AND(I34 = 1, J34 = 1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="5">
-        <f>IF(AND(H34 = 1, J36 = 1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="21"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="27"/>
-    </row>
-    <row r="38" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F38" s="16"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="49">
+        <f>IF(AND(J32 = 1, I35 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="24"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="6">
+        <f>T35</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="6">
+        <f>U34</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="W37" s="27"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="24"/>
+    </row>
+    <row r="38" spans="7:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G38" s="13"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="5">
-        <f>IF(_xlfn.XOR(H34 = 1, J36 = 1), 1, 0)</f>
+      <c r="H38" s="47"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="49">
+        <f>IF(AND(H32 = 1, K36 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="24"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="2">
+        <f>IF(_xlfn.XOR(T26 = 1, W25 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="24"/>
+    </row>
+    <row r="39" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G39" s="13"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U39" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="V39" s="22"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="24"/>
+    </row>
+    <row r="40" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G40" s="13"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="49">
+        <f>IF(OR(I37 = 1, J38 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="2">
+        <f>T37</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <f>T25</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="2">
+        <f>U38</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="15"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="24"/>
+    </row>
+    <row r="41" spans="7:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="24"/>
+    </row>
+    <row r="42" spans="7:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="13"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="6">
+        <f>I40</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="6">
+        <f>L35</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" s="30"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="24"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="2">
+        <f>IF(_xlfn.XOR(T40 = 1, U40 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="15"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="24"/>
+    </row>
+    <row r="43" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="24"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="2">
+        <f>IF(AND(T40 = 1, U40 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <f>IF(AND(S40 = 1, U42 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="18"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="24"/>
+    </row>
+    <row r="44" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G44" s="13"/>
+      <c r="H44" s="59">
+        <f>I42</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="3">
+        <f>I17</f>
         <v>1</v>
       </c>
-      <c r="K38" s="18"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="27"/>
-    </row>
-    <row r="39" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F39" s="16"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="5">
-        <f>IF(OR(H37 = 1, I37 =1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="21"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="27"/>
-    </row>
-    <row r="40" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F40" s="16"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="27"/>
-    </row>
-    <row r="41" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F41" s="16"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="23" t="s">
+      <c r="K44" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="3">
+        <f>I16</f>
+        <v>1</v>
+      </c>
+      <c r="M44" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="23"/>
+      <c r="O44" s="24"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="2">
+        <f>IF(_xlfn.XOR(S40 = 1, U42 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V44" s="15"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="24"/>
+    </row>
+    <row r="45" spans="7:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="2">
+        <f>IF(OR(S43 = 1, T43 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="18"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="24"/>
+    </row>
+    <row r="46" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G46" s="13"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="49">
+        <f>IF(_xlfn.XOR(J44 = 1, L44 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="50"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="24"/>
+    </row>
+    <row r="47" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G47" s="13"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="49">
+        <f>IF(L44 = 1, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="49">
+        <f>IF(_xlfn.XOR(H44 = 1, K46 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="14"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="8">
-        <f>I39</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="8">
-        <f>J38</f>
+      <c r="T47" s="6">
+        <f>T45</f>
+        <v>0</v>
+      </c>
+      <c r="U47" s="6">
+        <f>U44</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="W47" s="27"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="24"/>
+    </row>
+    <row r="48" spans="7:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="13"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="49">
+        <f>IF(K46 = 1, 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="L48" s="50"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="O48" s="24"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="2">
+        <f>IF(_xlfn.XOR(S26 = 1, W25 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V48" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="24"/>
+    </row>
+    <row r="49" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G49" s="13"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="49">
+        <f>IF(AND(J44 = 1, I47 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="24"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="T49" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U49" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="V49" s="22"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="24"/>
+    </row>
+    <row r="50" spans="7:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="13"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="49">
+        <f>IF(AND(H44 = 1, K48 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="24"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="2">
+        <f>T47</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="2">
+        <f>S25</f>
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
+        <f>U48</f>
+        <v>0</v>
+      </c>
+      <c r="V50" s="15"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="24"/>
+    </row>
+    <row r="51" spans="7:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="13"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="24"/>
+    </row>
+    <row r="52" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G52" s="13"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="49">
+        <f>IF(OR(I49 = 1, J50 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="2">
+        <f>IF(_xlfn.XOR(T50 = 1, U50 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V52" s="15"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="14"/>
+      <c r="Y52" s="24"/>
+    </row>
+    <row r="53" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="2">
+        <f>IF(AND(T50 = 1, U50 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T53" s="2">
+        <f>IF(AND(S50 = 1, U52 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U53" s="18"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="33"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="24"/>
+    </row>
+    <row r="54" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G54" s="13"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="6">
+        <f>I52</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="6">
+        <f>L47</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="37"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="27"/>
-    </row>
-    <row r="42" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="5">
-        <f>IF(_xlfn.XOR(K17 = 1, I19 = 1), 1, 0)</f>
+      <c r="M54" s="30"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="24"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="2">
+        <f>IF(_xlfn.XOR(S50 = 1, U52 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V54" s="15"/>
+      <c r="W54" s="24"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="24"/>
+    </row>
+    <row r="55" spans="7:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="13"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="24"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="2">
+        <f>IF(OR(S53 = 1, T53 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U55" s="18"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="24"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="24"/>
+    </row>
+    <row r="56" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G56" s="13"/>
+      <c r="H56" s="59">
+        <f>I54</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="3">
+        <f>H17</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" s="3">
+        <f>H16</f>
         <v>1</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="M56" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="23"/>
+      <c r="O56" s="24"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="24"/>
+      <c r="X56" s="14"/>
+      <c r="Y56" s="24"/>
+    </row>
+    <row r="57" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G57" s="13"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="T57" s="6">
+        <f>T55</f>
+        <v>0</v>
+      </c>
+      <c r="U57" s="6">
+        <f>U54</f>
+        <v>0</v>
+      </c>
+      <c r="V57" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="W57" s="27"/>
+      <c r="X57" s="14"/>
+      <c r="Y57" s="24"/>
+    </row>
+    <row r="58" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G58" s="13"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="49">
+        <f>IF(_xlfn.XOR(J56 = 1, L56 = 1), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L58" s="50"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="2">
+        <f>IF(_xlfn.XOR(R26 = 1, W25 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V58" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="27"/>
-    </row>
-    <row r="43" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F43" s="16"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="24" t="s">
+      <c r="W58" s="14"/>
+      <c r="X58" s="14"/>
+      <c r="Y58" s="24"/>
+    </row>
+    <row r="59" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G59" s="13"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="49">
+        <f>IF(L56 = 1, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="49">
+        <f>IF(_xlfn.XOR(H56 = 1, K58 = 1), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="M59" s="14"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="T59" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="24" t="s">
+      <c r="U59" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="25"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="27"/>
-    </row>
-    <row r="44" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F44" s="16"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="5">
-        <f>I41</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="5">
-        <f>I18</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="5">
-        <v>0</v>
-      </c>
-      <c r="K44" s="18"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="27"/>
-    </row>
-    <row r="45" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F45" s="16"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="38" t="s">
+      <c r="V59" s="22"/>
+      <c r="W59" s="23"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="24"/>
+    </row>
+    <row r="60" spans="7:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="13"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="49">
+        <f>IF(K58 = 1, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="50"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="O60" s="24"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="2">
+        <f>T57</f>
+        <v>0</v>
+      </c>
+      <c r="T60" s="2">
+        <f>R25</f>
+        <v>0</v>
+      </c>
+      <c r="U60" s="2">
+        <f>U58</f>
+        <v>0</v>
+      </c>
+      <c r="V60" s="15"/>
+      <c r="W60" s="24"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="24"/>
+    </row>
+    <row r="61" spans="7:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="13"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="49">
+        <f>IF(AND(J56 = 1, I59 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="24"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="24"/>
+    </row>
+    <row r="62" spans="7:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="13"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="49">
+        <f>IF(AND(H56 = 1, K60 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="50"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="24"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="2">
+        <f>IF(_xlfn.XOR(T60 = 1, U60 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V62" s="15"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="24"/>
+    </row>
+    <row r="63" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G63" s="13"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="2">
+        <f>IF(AND(T60 = 1, U60 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T63" s="2">
+        <f>IF(AND(S60 = 1, U62 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U63" s="18"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="33"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="24"/>
+    </row>
+    <row r="64" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G64" s="13"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="49">
+        <f>IF(OR(I61 = 1, J62 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="18"/>
+      <c r="U64" s="2">
+        <f>IF(_xlfn.XOR(S60 = 1, U62 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V64" s="15"/>
+      <c r="W64" s="24"/>
+      <c r="X64" s="14"/>
+      <c r="Y64" s="24"/>
+    </row>
+    <row r="65" spans="7:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="13"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="2">
+        <f>IF(OR(S63 = 1, T63 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U65" s="18"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="24"/>
+      <c r="X65" s="14"/>
+      <c r="Y65" s="24"/>
+    </row>
+    <row r="66" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G66" s="13"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="6">
+        <f>I64</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" s="6">
+        <f>L59</f>
+        <v>1</v>
+      </c>
+      <c r="L66" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M66" s="30"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="24"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="24"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="24"/>
+    </row>
+    <row r="67" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G67" s="13"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="24"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="26"/>
+      <c r="S67" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="T67" s="6">
+        <f>T65</f>
+        <v>0</v>
+      </c>
+      <c r="U67" s="6">
+        <f>U64</f>
+        <v>0</v>
+      </c>
+      <c r="V67" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="W67" s="27"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="24"/>
+    </row>
+    <row r="68" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G68" s="54"/>
+      <c r="H68" s="6">
+        <f>I66</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J68" s="6">
+        <f>K66</f>
+        <v>1</v>
+      </c>
+      <c r="K68" s="6">
+        <f>K54</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="6">
+        <f>K42</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="6">
+        <f>K30</f>
+        <v>1</v>
+      </c>
+      <c r="N68" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M45" s="17"/>
-      <c r="N45" s="27"/>
-    </row>
-    <row r="46" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F46" s="16"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="5">
-        <f>IF(_xlfn.XOR(I44 = 1, J44 = 1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="18"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F47" s="16"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="5">
-        <f>IF(AND(I44 = 1, J44 = 1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="5">
-        <f>IF(AND(H44 = 1, J46 = 1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="21"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="27"/>
-    </row>
-    <row r="48" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F48" s="16"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="5">
-        <f>IF(_xlfn.XOR(H44 = 1, J46 = 1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="18"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="27"/>
-    </row>
-    <row r="49" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F49" s="16"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="5">
-        <f>IF(OR(H47 = 1, I47 =1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="21"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="27"/>
-    </row>
-    <row r="50" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F50" s="16"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="27"/>
-    </row>
-    <row r="51" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F51" s="16"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="23" t="s">
+      <c r="O68" s="27"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="24"/>
+    </row>
+    <row r="69" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="Q69" s="13"/>
+      <c r="R69" s="2">
+        <f>IF(T67 = 1, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="14"/>
+      <c r="X69" s="14"/>
+      <c r="Y69" s="24"/>
+    </row>
+    <row r="70" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="Q70" s="13"/>
+      <c r="R70" s="2">
+        <f>IF(AND(R69 = 1, W25 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="14"/>
+      <c r="Y70" s="24"/>
+    </row>
+    <row r="71" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="Q71" s="13"/>
+      <c r="R71" s="49">
+        <f>R70</f>
+        <v>0</v>
+      </c>
+      <c r="S71" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="T71" s="14"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="14"/>
+      <c r="X71" s="14"/>
+      <c r="Y71" s="24"/>
+    </row>
+    <row r="72" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="Q72" s="54"/>
+      <c r="R72" s="6">
+        <f>T67</f>
+        <v>0</v>
+      </c>
+      <c r="S72" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="8">
-        <f>I49</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="8">
-        <f>J48</f>
-        <v>0</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L51" s="37"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="27"/>
-    </row>
-    <row r="52" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="5">
-        <f>IF(_xlfn.XOR(K17 = 1, H19 = 1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="27"/>
-    </row>
-    <row r="53" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F53" s="16"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" s="25"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="27"/>
-    </row>
-    <row r="54" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F54" s="16"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="5">
-        <f>I51</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="5">
-        <f>H18</f>
-        <v>1</v>
-      </c>
-      <c r="J54" s="5">
-        <v>0</v>
-      </c>
-      <c r="K54" s="18"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="27"/>
-    </row>
-    <row r="55" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F55" s="16"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="38" t="s">
+      <c r="T72" s="6">
+        <f>U67</f>
+        <v>0</v>
+      </c>
+      <c r="U72" s="6">
+        <f>U57</f>
+        <v>0</v>
+      </c>
+      <c r="V72" s="6">
+        <f>U47</f>
+        <v>0</v>
+      </c>
+      <c r="W72" s="6">
+        <f>U37</f>
+        <v>0</v>
+      </c>
+      <c r="X72" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M55" s="17"/>
-      <c r="N55" s="27"/>
-    </row>
-    <row r="56" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F56" s="16"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="5">
-        <f>IF(_xlfn.XOR(I54 = 1, J54 = 1), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="K56" s="18"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F57" s="16"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="5">
-        <f>IF(AND(I54 = 1, J54 = 1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="5">
-        <f>IF(AND(H54 = 1, J56 = 1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="21"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="27"/>
-    </row>
-    <row r="58" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F58" s="16"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="5">
-        <f>IF(_xlfn.XOR(H54 = 1, J56 = 1), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="K58" s="18"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="27"/>
-    </row>
-    <row r="59" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F59" s="16"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="5">
-        <f>IF(OR(H57 = 1, I57 =1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="21"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="27"/>
-    </row>
-    <row r="60" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F60" s="16"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="27"/>
-    </row>
-    <row r="61" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F61" s="16"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="8">
-        <f>I59</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="8">
-        <f>J58</f>
-        <v>1</v>
-      </c>
-      <c r="K61" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L61" s="37"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="27"/>
-    </row>
-    <row r="62" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="27"/>
-    </row>
-    <row r="63" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F63" s="16"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="27"/>
-    </row>
-    <row r="64" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F64" s="16"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="27"/>
-    </row>
-    <row r="65" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F65" s="16"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="27"/>
-    </row>
-    <row r="66" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F66" s="16"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="27"/>
-    </row>
-    <row r="67" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F67" s="16"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="27"/>
-    </row>
-    <row r="68" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F68" s="7">
-        <f>I61</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="8">
-        <f>J61</f>
-        <v>1</v>
-      </c>
-      <c r="I68" s="8">
-        <f>J51</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="8">
-        <f>J41</f>
-        <v>1</v>
-      </c>
-      <c r="K68" s="8">
-        <f>J31</f>
-        <v>1</v>
-      </c>
-      <c r="L68" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M68" s="45"/>
-      <c r="N68" s="37"/>
+      <c r="Y72" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L55:L57"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="L25:L27"/>
+  <mergeCells count="16">
+    <mergeCell ref="W61:W63"/>
+    <mergeCell ref="N60:N62"/>
+    <mergeCell ref="N48:N50"/>
+    <mergeCell ref="N36:N38"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="Y28:Y30"/>
+    <mergeCell ref="AE18:AE20"/>
+    <mergeCell ref="M5:M7"/>
     <mergeCell ref="O12:Q14"/>
-    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W31:W33"/>
+    <mergeCell ref="W41:W43"/>
+    <mergeCell ref="W51:W53"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1 V12">
+    <cfRule type="cellIs" dxfId="359" priority="423" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="424" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="cellIs" dxfId="357" priority="421" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="356" priority="422" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="355" priority="419" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="420" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="353" priority="417" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="418" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="351" priority="415" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="350" priority="416" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="cellIs" dxfId="349" priority="413" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="414" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="347" priority="411" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="412" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="cellIs" dxfId="345" priority="409" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="344" priority="410" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="343" priority="407" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="408" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="cellIs" dxfId="341" priority="397" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="398" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="cellIs" dxfId="339" priority="379" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="380" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="337" priority="395" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="396" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="151" priority="209" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="210" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="149" priority="187" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="188" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="147" priority="185" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="186" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="145" priority="183" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="184" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="143" priority="181" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="182" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="141" priority="179" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="180" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="139" priority="177" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="178" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="137" priority="175" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="176" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="135" priority="173" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="174" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="133" priority="171" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="172" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="131" priority="161" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="162" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="129" priority="159" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="445" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="446" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="127" priority="141" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="377" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="378" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="329" priority="329" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="330" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="125" priority="153" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="389" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="390" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8:U8">
+    <cfRule type="cellIs" dxfId="325" priority="287" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="288" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:V5">
+    <cfRule type="cellIs" dxfId="317" priority="277" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="278" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="305" priority="331" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="332" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="123" priority="149" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="385" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="386" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U10">
+    <cfRule type="cellIs" dxfId="301" priority="281" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="282" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12">
+    <cfRule type="cellIs" dxfId="299" priority="279" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="280" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J5">
+    <cfRule type="cellIs" dxfId="285" priority="341" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="342" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="cellIs" dxfId="283" priority="339" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="340" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="281" priority="337" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="338" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V7">
+    <cfRule type="cellIs" dxfId="277" priority="291" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="292" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V9">
+    <cfRule type="cellIs" dxfId="275" priority="285" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="286" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="cellIs" dxfId="257" priority="335" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="336" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="255" priority="333" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="334" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="253" priority="327" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="328" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="121" priority="147" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="383" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="384" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="cellIs" dxfId="247" priority="325" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="326" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="119" priority="145" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="146" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="117" priority="143" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="144" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="115" priority="107" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="108" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="245" priority="381" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="382" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z16">
+    <cfRule type="cellIs" dxfId="243" priority="235" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="236" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB16">
+    <cfRule type="cellIs" dxfId="241" priority="233" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="234" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z19">
+    <cfRule type="cellIs" dxfId="239" priority="231" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="232" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21">
+    <cfRule type="cellIs" dxfId="237" priority="229" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="230" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z23">
+    <cfRule type="cellIs" dxfId="235" priority="227" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="228" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB18">
+    <cfRule type="cellIs" dxfId="233" priority="225" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="226" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB23">
+    <cfRule type="cellIs" dxfId="231" priority="223" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="224" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="cellIs" dxfId="229" priority="221" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="222" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="cellIs" dxfId="227" priority="219" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="220" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="cellIs" dxfId="225" priority="217" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="218" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="cellIs" dxfId="223" priority="215" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="216" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="cellIs" dxfId="221" priority="213" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="214" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="219" priority="211" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="212" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="cellIs" dxfId="217" priority="209" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="210" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="cellIs" dxfId="215" priority="207" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="208" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="cellIs" dxfId="213" priority="205" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="206" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="cellIs" dxfId="211" priority="203" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="204" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="cellIs" dxfId="209" priority="201" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="202" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="cellIs" dxfId="207" priority="199" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="200" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="cellIs" dxfId="205" priority="197" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="198" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
+    <cfRule type="cellIs" dxfId="203" priority="195" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="196" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="cellIs" dxfId="201" priority="193" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="194" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="cellIs" dxfId="199" priority="191" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="192" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="cellIs" dxfId="197" priority="189" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="190" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="195" priority="187" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="188" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="cellIs" dxfId="193" priority="185" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="186" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32">
+    <cfRule type="cellIs" dxfId="191" priority="183" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="184" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="cellIs" dxfId="189" priority="181" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="182" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35">
+    <cfRule type="cellIs" dxfId="187" priority="179" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="180" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
+    <cfRule type="cellIs" dxfId="185" priority="177" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="178" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="cellIs" dxfId="183" priority="175" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="176" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="cellIs" dxfId="181" priority="173" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="174" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
+    <cfRule type="cellIs" dxfId="179" priority="171" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="172" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="cellIs" dxfId="177" priority="169" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="170" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="cellIs" dxfId="175" priority="167" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="168" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="cellIs" dxfId="173" priority="165" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="166" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="cellIs" dxfId="171" priority="163" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="164" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
+    <cfRule type="cellIs" dxfId="169" priority="161" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="162" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44">
+    <cfRule type="cellIs" dxfId="167" priority="159" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="160" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="cellIs" dxfId="165" priority="157" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="158" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47">
+    <cfRule type="cellIs" dxfId="163" priority="155" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="156" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54">
+    <cfRule type="cellIs" dxfId="161" priority="153" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="154" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="cellIs" dxfId="159" priority="151" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="152" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="cellIs" dxfId="157" priority="149" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="cellIs" dxfId="155" priority="147" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="148" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="cellIs" dxfId="153" priority="145" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="146" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J62">
+    <cfRule type="cellIs" dxfId="151" priority="143" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="144" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="cellIs" dxfId="149" priority="141" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="147" priority="139" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="140" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="cellIs" dxfId="145" priority="137" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="138" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L56">
+    <cfRule type="cellIs" dxfId="143" priority="135" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="136" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="cellIs" dxfId="141" priority="133" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="134" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L59">
+    <cfRule type="cellIs" dxfId="139" priority="131" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="132" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66">
+    <cfRule type="cellIs" dxfId="137" priority="129" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="130" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="cellIs" dxfId="135" priority="127" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="128" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:K17">
+    <cfRule type="cellIs" dxfId="133" priority="125" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="126" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="131" priority="121" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="122" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68:M68">
+    <cfRule type="cellIs" dxfId="129" priority="123" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="124" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U37">
+    <cfRule type="cellIs" dxfId="127" priority="119" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="120" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S33:T33">
+    <cfRule type="cellIs" dxfId="125" priority="115" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="116" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30:U30">
+    <cfRule type="cellIs" dxfId="123" priority="107" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="108" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T35">
+    <cfRule type="cellIs" dxfId="121" priority="111" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="112" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T37">
+    <cfRule type="cellIs" dxfId="119" priority="109" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="110" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U32">
+    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="118" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U34">
+    <cfRule type="cellIs" dxfId="115" priority="113" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="114" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U47">
     <cfRule type="cellIs" dxfId="113" priority="105" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3846,55 +7727,55 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="111" priority="103" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="104" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="109" priority="101" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="102" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="107" priority="99" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="100" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="105" priority="97" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="98" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="103" priority="95" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="96" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="101" priority="93" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="94" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
+  <conditionalFormatting sqref="S43:T43">
+    <cfRule type="cellIs" dxfId="111" priority="101" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="102" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S40:U40">
+    <cfRule type="cellIs" dxfId="109" priority="93" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="94" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T45">
+    <cfRule type="cellIs" dxfId="107" priority="97" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T47">
+    <cfRule type="cellIs" dxfId="105" priority="95" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="96" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U42">
+    <cfRule type="cellIs" dxfId="103" priority="103" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="104" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U44">
+    <cfRule type="cellIs" dxfId="101" priority="99" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="100" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U57">
     <cfRule type="cellIs" dxfId="99" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3902,55 +7783,55 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="97" priority="89" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="90" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="cellIs" dxfId="95" priority="87" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="88" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="93" priority="85" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="86" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="91" priority="83" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="84" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="cellIs" dxfId="89" priority="81" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="82" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="cellIs" dxfId="87" priority="79" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="80" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
+  <conditionalFormatting sqref="S53:T53">
+    <cfRule type="cellIs" dxfId="97" priority="87" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="88" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S50:U50">
+    <cfRule type="cellIs" dxfId="95" priority="79" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="80" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T55">
+    <cfRule type="cellIs" dxfId="93" priority="83" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="84" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T57">
+    <cfRule type="cellIs" dxfId="91" priority="81" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="82" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U52">
+    <cfRule type="cellIs" dxfId="89" priority="89" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U54">
+    <cfRule type="cellIs" dxfId="87" priority="85" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U67">
     <cfRule type="cellIs" dxfId="85" priority="77" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3958,223 +7839,183 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="83" priority="75" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="76" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44:J44">
-    <cfRule type="cellIs" dxfId="81" priority="73" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="74" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
-    <cfRule type="cellIs" dxfId="79" priority="71" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="72" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="77" priority="69" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="70" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="75" priority="67" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="68" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="73" priority="65" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="66" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="cellIs" dxfId="71" priority="63" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="64" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="69" priority="61" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="62" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" dxfId="67" priority="59" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="60" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:J34">
-    <cfRule type="cellIs" dxfId="65" priority="57" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="58" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="63" priority="55" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="56" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="61" priority="53" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="54" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="59" priority="51" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="52" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="57" priority="49" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="50" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="55" priority="47" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="48" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" dxfId="53" priority="45" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:J24">
-    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="42" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
-    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
-    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54:J54">
-    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K68">
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="S63:T63">
+    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S60:U60">
+    <cfRule type="cellIs" dxfId="81" priority="65" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T65">
+    <cfRule type="cellIs" dxfId="79" priority="69" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="70" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T67">
+    <cfRule type="cellIs" dxfId="77" priority="67" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U62">
+    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U64">
+    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25:U26">
+    <cfRule type="cellIs" dxfId="67" priority="63" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="64" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W25">
+    <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R71:R72">
+    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T72:W72">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U28">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U38">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U48">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U58">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R70">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R69">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA7">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC6">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC8">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB10">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA9">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB4">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4182,7 +8023,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68">
+  <conditionalFormatting sqref="AD4">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4190,7 +8031,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J68">
+  <conditionalFormatting sqref="AA12">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4198,7 +8039,15 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
+  <conditionalFormatting sqref="AD7">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC14">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4206,7 +8055,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:K18">
+  <conditionalFormatting sqref="AA14">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4214,7 +8063,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:K19">
+  <conditionalFormatting sqref="R23">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4222,7 +8071,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="T23">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4230,7 +8079,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+  <conditionalFormatting sqref="S20">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4238,7 +8087,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
+  <conditionalFormatting sqref="T18">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4246,7 +8095,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
+  <conditionalFormatting sqref="T16">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4254,7 +8103,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
+  <conditionalFormatting sqref="R16">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/CPU in Excel MAIN.xlsx
+++ b/CPU in Excel MAIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100146766\ePU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC55285A-8D12-4B81-8CB9-D660DD05B09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E802606-5803-496B-A388-D867BED88DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,8 +49,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="63">
   <si>
     <t>CLOCK</t>
   </si>
@@ -160,25 +182,85 @@
     <t>2-1 MUX</t>
   </si>
   <si>
-    <t>2-BIT OR</t>
-  </si>
-  <si>
-    <t>BITB1</t>
-  </si>
-  <si>
-    <t>BITB2</t>
-  </si>
-  <si>
-    <t>BITA1</t>
-  </si>
-  <si>
-    <t>BITA2</t>
-  </si>
-  <si>
     <t>4-BIT OR</t>
   </si>
   <si>
     <t>4-BIT AND</t>
+  </si>
+  <si>
+    <t>4-4 AND</t>
+  </si>
+  <si>
+    <t>4-4 OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP1 </t>
+  </si>
+  <si>
+    <t>OP2</t>
+  </si>
+  <si>
+    <t>4BITB</t>
+  </si>
+  <si>
+    <t>4BITA</t>
+  </si>
+  <si>
+    <t>MUX</t>
+  </si>
+  <si>
+    <t>ALU</t>
+  </si>
+  <si>
+    <t>ADD/SUB</t>
+  </si>
+  <si>
+    <t>4BIT OUT</t>
+  </si>
+  <si>
+    <t>4-1 OR</t>
+  </si>
+  <si>
+    <t>ZERO</t>
+  </si>
+  <si>
+    <t>NEG</t>
+  </si>
+  <si>
+    <t>SET DELAY</t>
+  </si>
+  <si>
+    <t>DELAY TIMER</t>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>BITS</t>
+  </si>
+  <si>
+    <t>POINTER</t>
+  </si>
+  <si>
+    <t>ROW REFERENCE</t>
+  </si>
+  <si>
+    <t>COLUMN REFERENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ARRAY POINTER</t>
+  </si>
+  <si>
+    <t>CELL POINTER</t>
+  </si>
+  <si>
+    <t>POINTER INDEX</t>
+  </si>
+  <si>
+    <t>ARRAY BITS</t>
   </si>
 </sst>
 </file>
@@ -245,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -940,11 +1022,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1009,11 +1153,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1022,8 +1174,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1043,264 +1206,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="406">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="382">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5141,10 +5066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH72"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="AE56" activeCellId="1" sqref="E29 AE56"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="T100" sqref="T100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -5152,7 +5077,7 @@
     <row r="1" spans="1:32" ht="15" customHeight="1">
       <c r="A1" s="1">
         <f ca="1">IF(A1 = 1, 0, IF(A1 = 0, 1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5177,7 +5102,7 @@
     <row r="3" spans="1:32" ht="15" customHeight="1">
       <c r="A3" s="1">
         <f ca="1">IF(A1=1, 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -5197,7 +5122,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="7">
         <f ca="1">IF(CLOCK = 0, J4, IF(AND(CLOCK = 1,INPUT = 1,RESET = 0), 0, IF(AND(CLOCK = 1,INPUT = 0,RESET = 1), 1, IF(AND(CLOCK = 1,INPUT = 0,RESET = 0), J4, IF(AND(CLOCK = 1,INPUT = 1,RESET = 1),IF(JK.1 = 1, 0, 1))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="8"/>
@@ -5241,7 +5166,7 @@
     <row r="5" spans="1:32" ht="15" customHeight="1">
       <c r="A5" s="1">
         <f ca="1">IF(A3 = 1, 0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -5251,11 +5176,11 @@
       <c r="I5" s="13"/>
       <c r="J5" s="1">
         <f ca="1">IF(CLOCK = 0, J5, IF(AND(CLOCK = 1,JK.1 = 1,JK.1 = 0), 0, IF(AND(CLOCK = 1,JK.1 = 0,JK.1 = 1), 1, IF(AND(CLOCK = 1,JK.1 = 0, JK.1 = 0), J5, IF(AND(CLOCK = 1,JK.1 = 1,JK.1 = 1), IF(JK.2 = 1, 0, 1))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="63" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="14"/>
@@ -5290,10 +5215,10 @@
       <c r="J6" s="13"/>
       <c r="K6" s="1">
         <f ca="1">IF(AND(JK.1 = 1, JK.2 = 1), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="14"/>
-      <c r="M6" s="49"/>
+      <c r="M6" s="64"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -5303,7 +5228,7 @@
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
-      <c r="X6" s="51" t="s">
+      <c r="X6" s="55" t="s">
         <v>10</v>
       </c>
       <c r="Z6" s="19"/>
@@ -5320,7 +5245,7 @@
     <row r="7" spans="1:32" ht="15" customHeight="1">
       <c r="A7" s="1">
         <f ca="1">IF(AND(A3 = 1, C3 = 1), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -5334,7 +5259,7 @@
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="50"/>
+      <c r="M7" s="65"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -5347,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="14"/>
-      <c r="X7" s="52"/>
+      <c r="X7" s="56"/>
       <c r="Z7" s="19"/>
       <c r="AA7" s="1">
         <f>IF(AD4 = 1, 0, 1)</f>
@@ -5370,7 +5295,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="1">
         <f t="array" aca="1" ref="K8" ca="1">IF(AND(AND.1 = 1, JK.3 = 1), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -5389,7 +5314,7 @@
       </c>
       <c r="V8" s="13"/>
       <c r="W8" s="14"/>
-      <c r="X8" s="53"/>
+      <c r="X8" s="57"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
@@ -5399,7 +5324,7 @@
       </c>
       <c r="AD8" s="13"/>
       <c r="AE8" s="18"/>
-      <c r="AF8" s="54" t="s">
+      <c r="AF8" s="58" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5416,7 +5341,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="1">
         <f ca="1">IF(CLOCK = 0, J9, IF(AND(CLOCK = 1,AND.2 = 1,AND.2 = 0), 0, IF(AND(CLOCK = 1,AND.2 = 0,AND.2 = 1), 1, IF(AND(CLOCK = 1,AND.2 = 0,AND.2 = 0), J9, IF(AND(CLOCK = 1,AND.2 = 1,AND.2 = 1), IF(JK.4 = 1, 0, 1))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="14"/>
@@ -5443,7 +5368,7 @@
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="18"/>
-      <c r="AF9" s="55"/>
+      <c r="AF9" s="51"/>
     </row>
     <row r="10" spans="1:32" ht="15" customHeight="1">
       <c r="A10" s="1"/>
@@ -5476,12 +5401,12 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="18"/>
-      <c r="AF10" s="56"/>
+      <c r="AF10" s="54"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1">
       <c r="A11" s="1">
         <f ca="1">IF(_xlfn.XOR(A3 = 1, C3 = 1), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -5515,7 +5440,7 @@
       <c r="A12" s="1"/>
       <c r="G12" s="26">
         <f ca="1">IF(JK.4 = 1, 0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>8</v>
@@ -5529,23 +5454,23 @@
       </c>
       <c r="K12" s="1">
         <f ca="1">IF(JK.2 = 1, 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="1">
         <f ca="1">IF(JK.1 = 1, 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="57" t="s">
+      <c r="O12" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="59"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="68"/>
       <c r="S12" s="27"/>
       <c r="T12" s="28" t="s">
         <v>4</v>
@@ -5589,9 +5514,9 @@
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
       <c r="N13" s="23"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="62"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
       <c r="Z13" s="17"/>
       <c r="AA13" s="18"/>
       <c r="AB13" s="18"/>
@@ -5604,7 +5529,7 @@
       <c r="A14" s="1"/>
       <c r="G14" s="31">
         <f ca="1">NOT.4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="28" t="s">
         <v>18</v>
@@ -5618,21 +5543,21 @@
       </c>
       <c r="K14" s="29">
         <f ca="1">NOT.2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="28" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="29">
         <f ca="1">NOT.1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="63"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="65"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="74"/>
       <c r="Z14" s="32"/>
       <c r="AA14" s="29">
         <f>AA12</f>
@@ -5654,7 +5579,7 @@
     <row r="15" spans="1:32" ht="15" customHeight="1">
       <c r="A15" s="1">
         <f ca="1">IF(AND(A3 = 1, C3 = 1), 0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
@@ -5679,7 +5604,7 @@
         <v>5</v>
       </c>
       <c r="M16" s="36"/>
-      <c r="N16" s="66" t="s">
+      <c r="N16" s="75" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="9"/>
@@ -5717,7 +5642,7 @@
     <row r="17" spans="1:34" ht="15" customHeight="1">
       <c r="A17" s="1">
         <f ca="1">IF(OR(AND(A3 = 1, C3 = 1), AND(A3 = 0, C3 = 0)), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -5739,7 +5664,7 @@
         <v>6</v>
       </c>
       <c r="M17" s="18"/>
-      <c r="N17" s="67"/>
+      <c r="N17" s="76"/>
       <c r="O17" s="15"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="14"/>
@@ -5764,7 +5689,7 @@
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="68"/>
+      <c r="N18" s="77"/>
       <c r="O18" s="15"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="13"/>
@@ -5775,7 +5700,7 @@
       </c>
       <c r="U18" s="13"/>
       <c r="V18" s="23"/>
-      <c r="W18" s="51" t="s">
+      <c r="W18" s="55" t="s">
         <v>25</v>
       </c>
       <c r="Y18" s="19"/>
@@ -5787,7 +5712,7 @@
       </c>
       <c r="AC18" s="13"/>
       <c r="AD18" s="23"/>
-      <c r="AE18" s="69" t="s">
+      <c r="AE18" s="78" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5814,7 +5739,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
       <c r="V19" s="23"/>
-      <c r="W19" s="52"/>
+      <c r="W19" s="56"/>
       <c r="Y19" s="19"/>
       <c r="Z19" s="1">
         <f>IF(Z16 = 1, 0, 1)</f>
@@ -5824,7 +5749,7 @@
       <c r="AB19" s="13"/>
       <c r="AC19" s="13"/>
       <c r="AD19" s="23"/>
-      <c r="AE19" s="55"/>
+      <c r="AE19" s="51"/>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1">
       <c r="G20" s="17"/>
@@ -5859,19 +5784,19 @@
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
       <c r="V20" s="23"/>
-      <c r="W20" s="53"/>
+      <c r="W20" s="57"/>
       <c r="Y20" s="19"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
       <c r="AB20" s="13"/>
       <c r="AC20" s="13"/>
       <c r="AD20" s="23"/>
-      <c r="AE20" s="70"/>
+      <c r="AE20" s="52"/>
     </row>
     <row r="21" spans="1:34" ht="15" customHeight="1">
       <c r="A21" s="1">
         <f ca="1">IF(A1 = 0, A21, IF(AND(A1 = 1, C1 = 1, E1 = 0), 1, IF(AND(A1 = 1, C1 = 0, E1 = 1), 0, IF(AND(A1 = 1, C1 = 0, E1 = 0), A21, IF(AND(A1 = 1, C1 = 1, E1 = 1), IF(A21 = 1, 0, 1))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
@@ -5993,7 +5918,7 @@
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="18"/>
-      <c r="N24" s="54" t="s">
+      <c r="N24" s="58" t="s">
         <v>12</v>
       </c>
       <c r="O24" s="15"/>
@@ -6009,7 +5934,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="18"/>
-      <c r="N25" s="55"/>
+      <c r="N25" s="51"/>
       <c r="O25" s="15"/>
       <c r="Q25" s="34"/>
       <c r="R25" s="35">
@@ -6066,7 +5991,7 @@
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="18"/>
-      <c r="N26" s="56"/>
+      <c r="N26" s="54"/>
       <c r="O26" s="15"/>
       <c r="Q26" s="17"/>
       <c r="R26" s="3">
@@ -6125,7 +6050,7 @@
       <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
       <c r="AG27" s="23"/>
-      <c r="AH27" s="76" t="s">
+      <c r="AH27" s="50" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6155,7 +6080,7 @@
       </c>
       <c r="W28" s="18"/>
       <c r="X28" s="18"/>
-      <c r="Y28" s="75" t="s">
+      <c r="Y28" s="53" t="s">
         <v>30</v>
       </c>
       <c r="AA28" s="19"/>
@@ -6171,7 +6096,7 @@
       </c>
       <c r="AF28" s="13"/>
       <c r="AG28" s="23"/>
-      <c r="AH28" s="55"/>
+      <c r="AH28" s="51"/>
     </row>
     <row r="29" spans="1:34" ht="15" customHeight="1">
       <c r="G29" s="17"/>
@@ -6197,7 +6122,7 @@
       <c r="V29" s="8"/>
       <c r="W29" s="9"/>
       <c r="X29" s="18"/>
-      <c r="Y29" s="55"/>
+      <c r="Y29" s="51"/>
       <c r="AA29" s="19"/>
       <c r="AB29" s="23"/>
       <c r="AC29" s="3">
@@ -6208,7 +6133,7 @@
       <c r="AE29" s="13"/>
       <c r="AF29" s="13"/>
       <c r="AG29" s="23"/>
-      <c r="AH29" s="70"/>
+      <c r="AH29" s="52"/>
     </row>
     <row r="30" spans="1:34" ht="15" customHeight="1">
       <c r="G30" s="17"/>
@@ -6247,7 +6172,7 @@
       <c r="V30" s="14"/>
       <c r="W30" s="15"/>
       <c r="X30" s="18"/>
-      <c r="Y30" s="56"/>
+      <c r="Y30" s="54"/>
       <c r="AA30" s="19"/>
       <c r="AB30" s="23"/>
       <c r="AC30" s="23"/>
@@ -6273,14 +6198,14 @@
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
-      <c r="W31" s="51" t="s">
+      <c r="W31" s="55" t="s">
         <v>10</v>
       </c>
       <c r="X31" s="18"/>
       <c r="Y31" s="15"/>
       <c r="AA31" s="42"/>
       <c r="AB31" s="41"/>
-      <c r="AC31" s="77">
+      <c r="AC31" s="48">
         <f>AC29</f>
         <v>0</v>
       </c>
@@ -6326,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="14"/>
-      <c r="W32" s="52"/>
+      <c r="W32" s="56"/>
       <c r="X32" s="18"/>
       <c r="Y32" s="15"/>
     </row>
@@ -6352,23 +6277,26 @@
       </c>
       <c r="U33" s="13"/>
       <c r="V33" s="14"/>
-      <c r="W33" s="53"/>
+      <c r="W33" s="57"/>
       <c r="X33" s="18"/>
       <c r="Y33" s="15"/>
       <c r="AA33" s="37"/>
-      <c r="AB33" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC33" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD33" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE33" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF33" s="38"/>
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG33" s="38"/>
     </row>
     <row r="34" spans="7:33" ht="15" customHeight="1">
       <c r="G34" s="17"/>
@@ -6397,7 +6325,7 @@
       <c r="Y34" s="15"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="3">
         <v>0</v>
@@ -6408,7 +6336,10 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-      <c r="AF34" s="39"/>
+      <c r="AF34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG34" s="39"/>
     </row>
     <row r="35" spans="7:33" ht="15" customHeight="1">
       <c r="G35" s="17"/>
@@ -6443,7 +6374,8 @@
       <c r="AC35" s="23"/>
       <c r="AD35" s="23"/>
       <c r="AE35" s="23"/>
-      <c r="AF35" s="76" t="s">
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="79" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6458,7 +6390,7 @@
       </c>
       <c r="L36" s="13"/>
       <c r="M36" s="18"/>
-      <c r="N36" s="54" t="s">
+      <c r="N36" s="58" t="s">
         <v>12</v>
       </c>
       <c r="O36" s="15"/>
@@ -6473,16 +6405,23 @@
       <c r="Y36" s="15"/>
       <c r="AA36" s="19"/>
       <c r="AB36" s="3">
-        <f>IF(OR(AB34 = 1, AD34 =1), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="AC36" s="13"/>
+        <f>IF(OR(AB33 = 1, AB34 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="3">
+        <f>IF(OR(AC33 = 1, AC34 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="AD36" s="3">
-        <f>IF(OR(AC34 = 1, AE34 =1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="23"/>
-      <c r="AF36" s="55"/>
+        <f>IF(OR(AD33 = 1, AD34 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="3">
+        <f>IF(OR(AE33 = 1, AE34 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="79"/>
     </row>
     <row r="37" spans="7:33" ht="15" customHeight="1">
       <c r="G37" s="17"/>
@@ -6495,7 +6434,7 @@
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="18"/>
-      <c r="N37" s="55"/>
+      <c r="N37" s="51"/>
       <c r="O37" s="15"/>
       <c r="Q37" s="17"/>
       <c r="R37" s="27"/>
@@ -6517,14 +6456,12 @@
       <c r="X37" s="18"/>
       <c r="Y37" s="15"/>
       <c r="AA37" s="19"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="3">
-        <f>IF(OR(AB36 = 1, AD36 =1), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="AD37" s="13"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
       <c r="AE37" s="23"/>
-      <c r="AF37" s="70"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="79"/>
     </row>
     <row r="38" spans="7:33" ht="15" customHeight="1">
       <c r="G38" s="17"/>
@@ -6537,7 +6474,7 @@
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="18"/>
-      <c r="N38" s="56"/>
+      <c r="N38" s="54"/>
       <c r="O38" s="15"/>
       <c r="Q38" s="17"/>
       <c r="R38" s="18"/>
@@ -6553,12 +6490,27 @@
       <c r="W38" s="18"/>
       <c r="X38" s="18"/>
       <c r="Y38" s="15"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="23"/>
-      <c r="AC38" s="23"/>
-      <c r="AD38" s="23"/>
-      <c r="AE38" s="23"/>
-      <c r="AF38" s="39"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="48">
+        <f>AB36</f>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="48">
+        <f>AC36</f>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="48">
+        <f>AD36</f>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="48">
+        <f>AE36</f>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG38" s="43"/>
     </row>
     <row r="39" spans="7:33" ht="15" customHeight="1">
       <c r="G39" s="17"/>
@@ -6585,17 +6537,6 @@
       <c r="W39" s="9"/>
       <c r="X39" s="18"/>
       <c r="Y39" s="15"/>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="77">
-        <f>AC37</f>
-        <v>1</v>
-      </c>
-      <c r="AD39" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE39" s="41"/>
-      <c r="AF39" s="43"/>
     </row>
     <row r="40" spans="7:33" ht="15" customHeight="1">
       <c r="G40" s="17"/>
@@ -6628,6 +6569,23 @@
       <c r="W40" s="15"/>
       <c r="X40" s="18"/>
       <c r="Y40" s="15"/>
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG40" s="38"/>
     </row>
     <row r="41" spans="7:33" ht="15" customHeight="1">
       <c r="G41" s="17"/>
@@ -6645,12 +6603,12 @@
       <c r="T41" s="14"/>
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
-      <c r="W41" s="51" t="s">
+      <c r="W41" s="55" t="s">
         <v>10</v>
       </c>
       <c r="X41" s="18"/>
       <c r="Y41" s="15"/>
-      <c r="AA41" s="37"/>
+      <c r="AA41" s="19"/>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
@@ -6663,10 +6621,10 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-      <c r="AF41" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG41" s="38"/>
+      <c r="AF41" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG41" s="39"/>
     </row>
     <row r="42" spans="7:33" ht="15" customHeight="1">
       <c r="G42" s="17"/>
@@ -6697,26 +6655,18 @@
         <v>0</v>
       </c>
       <c r="V42" s="14"/>
-      <c r="W42" s="52"/>
+      <c r="W42" s="56"/>
       <c r="X42" s="18"/>
       <c r="Y42" s="15"/>
       <c r="AA42" s="19"/>
-      <c r="AB42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG42" s="39"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="23"/>
+      <c r="AD42" s="23"/>
+      <c r="AE42" s="23"/>
+      <c r="AF42" s="23"/>
+      <c r="AG42" s="80" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="43" spans="7:33" ht="15" customHeight="1">
       <c r="G43" s="17"/>
@@ -6740,18 +6690,28 @@
       </c>
       <c r="U43" s="13"/>
       <c r="V43" s="14"/>
-      <c r="W43" s="53"/>
+      <c r="W43" s="57"/>
       <c r="X43" s="18"/>
       <c r="Y43" s="15"/>
       <c r="AA43" s="19"/>
-      <c r="AB43" s="23"/>
-      <c r="AC43" s="23"/>
-      <c r="AD43" s="23"/>
-      <c r="AE43" s="23"/>
+      <c r="AB43" s="3">
+        <f>IF(AND(AB40 = 1, AB41 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <f>IF(AND(AC40 = 1, AC41 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <f>IF(AND(AD40 = 1, AD41 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <f>IF(AND(AE40 = 1, AE41 = 1), 1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="AF43" s="23"/>
-      <c r="AG43" s="80" t="s">
-        <v>41</v>
-      </c>
+      <c r="AG43" s="80"/>
     </row>
     <row r="44" spans="7:33" ht="15" customHeight="1">
       <c r="G44" s="17"/>
@@ -6791,22 +6751,10 @@
       <c r="X44" s="18"/>
       <c r="Y44" s="15"/>
       <c r="AA44" s="19"/>
-      <c r="AB44" s="3">
-        <f>IF(OR(AB41 = 1, AB42 =1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC44" s="3">
-        <f>IF(OR(AC41 = 1, AC42 =1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD44" s="3">
-        <f>IF(OR(AD41 = 1, AD42 =1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE44" s="3">
-        <f>IF(OR(AE41 = 1, AE42 =1), 1, 0)</f>
-        <v>0</v>
-      </c>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="23"/>
+      <c r="AD44" s="23"/>
+      <c r="AE44" s="23"/>
       <c r="AF44" s="23"/>
       <c r="AG44" s="80"/>
     </row>
@@ -6832,13 +6780,27 @@
       <c r="W45" s="15"/>
       <c r="X45" s="18"/>
       <c r="Y45" s="15"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="23"/>
-      <c r="AC45" s="23"/>
-      <c r="AD45" s="23"/>
-      <c r="AE45" s="23"/>
-      <c r="AF45" s="23"/>
-      <c r="AG45" s="80"/>
+      <c r="AA45" s="42"/>
+      <c r="AB45" s="48">
+        <f>AB43</f>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="48">
+        <f>AC43</f>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="48">
+        <f>AD43</f>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="48">
+        <f>AE43</f>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG45" s="43"/>
     </row>
     <row r="46" spans="7:33" ht="15" customHeight="1">
       <c r="G46" s="17"/>
@@ -6862,27 +6824,6 @@
       <c r="W46" s="15"/>
       <c r="X46" s="18"/>
       <c r="Y46" s="15"/>
-      <c r="AA46" s="42"/>
-      <c r="AB46" s="77">
-        <f>AB44</f>
-        <v>0</v>
-      </c>
-      <c r="AC46" s="77">
-        <f>AC44</f>
-        <v>0</v>
-      </c>
-      <c r="AD46" s="77">
-        <f>AD44</f>
-        <v>0</v>
-      </c>
-      <c r="AE46" s="77">
-        <f>AE44</f>
-        <v>0</v>
-      </c>
-      <c r="AF46" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG46" s="43"/>
     </row>
     <row r="47" spans="7:33" ht="15" customHeight="1">
       <c r="G47" s="17"/>
@@ -6931,7 +6872,7 @@
       </c>
       <c r="L48" s="13"/>
       <c r="M48" s="18"/>
-      <c r="N48" s="54" t="s">
+      <c r="N48" s="58" t="s">
         <v>12</v>
       </c>
       <c r="O48" s="15"/>
@@ -6949,25 +6890,8 @@
       <c r="W48" s="18"/>
       <c r="X48" s="18"/>
       <c r="Y48" s="15"/>
-      <c r="AA48" s="37"/>
-      <c r="AB48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG48" s="38"/>
-    </row>
-    <row r="49" spans="7:33" ht="15" customHeight="1">
+    </row>
+    <row r="49" spans="7:25" ht="15" customHeight="1">
       <c r="G49" s="17"/>
       <c r="H49" s="19"/>
       <c r="I49" s="1">
@@ -6978,7 +6902,7 @@
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="18"/>
-      <c r="N49" s="55"/>
+      <c r="N49" s="51"/>
       <c r="O49" s="15"/>
       <c r="Q49" s="17"/>
       <c r="R49" s="4"/>
@@ -6995,25 +6919,8 @@
       <c r="W49" s="9"/>
       <c r="X49" s="18"/>
       <c r="Y49" s="15"/>
-      <c r="AA49" s="19"/>
-      <c r="AB49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG49" s="39"/>
-    </row>
-    <row r="50" spans="7:33" ht="15" customHeight="1">
+    </row>
+    <row r="50" spans="7:25" ht="15" customHeight="1">
       <c r="G50" s="17"/>
       <c r="H50" s="19"/>
       <c r="I50" s="13"/>
@@ -7024,7 +6931,7 @@
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="18"/>
-      <c r="N50" s="56"/>
+      <c r="N50" s="54"/>
       <c r="O50" s="15"/>
       <c r="Q50" s="17"/>
       <c r="R50" s="16"/>
@@ -7044,17 +6951,8 @@
       <c r="W50" s="15"/>
       <c r="X50" s="18"/>
       <c r="Y50" s="15"/>
-      <c r="AA50" s="19"/>
-      <c r="AB50" s="23"/>
-      <c r="AC50" s="23"/>
-      <c r="AD50" s="23"/>
-      <c r="AE50" s="23"/>
-      <c r="AF50" s="23"/>
-      <c r="AG50" s="79" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="7:33" ht="15" customHeight="1">
+    </row>
+    <row r="51" spans="7:25" ht="15" customHeight="1">
       <c r="G51" s="17"/>
       <c r="H51" s="19"/>
       <c r="I51" s="13"/>
@@ -7070,32 +6968,13 @@
       <c r="T51" s="14"/>
       <c r="U51" s="14"/>
       <c r="V51" s="14"/>
-      <c r="W51" s="51" t="s">
+      <c r="W51" s="55" t="s">
         <v>10</v>
       </c>
       <c r="X51" s="18"/>
       <c r="Y51" s="15"/>
-      <c r="AA51" s="19"/>
-      <c r="AB51" s="3">
-        <f>IF(AND(AB48 = 1, AB49 = 1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC51" s="3">
-        <f>IF(AND(AC48 = 1, AC49 = 1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD51" s="3">
-        <f>IF(AND(AD48 = 1, AD49 = 1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE51" s="3">
-        <f>IF(AND(AE48 = 1, AE49 = 1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF51" s="23"/>
-      <c r="AG51" s="79"/>
-    </row>
-    <row r="52" spans="7:33" ht="15" customHeight="1">
+    </row>
+    <row r="52" spans="7:25" ht="15" customHeight="1">
       <c r="G52" s="17"/>
       <c r="H52" s="19"/>
       <c r="I52" s="1">
@@ -7117,18 +6996,11 @@
         <v>0</v>
       </c>
       <c r="V52" s="14"/>
-      <c r="W52" s="52"/>
+      <c r="W52" s="56"/>
       <c r="X52" s="18"/>
       <c r="Y52" s="15"/>
-      <c r="AA52" s="19"/>
-      <c r="AB52" s="23"/>
-      <c r="AC52" s="23"/>
-      <c r="AD52" s="23"/>
-      <c r="AE52" s="23"/>
-      <c r="AF52" s="23"/>
-      <c r="AG52" s="79"/>
-    </row>
-    <row r="53" spans="7:33" ht="15" customHeight="1">
+    </row>
+    <row r="53" spans="7:25" ht="15" customHeight="1">
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="18"/>
@@ -7150,32 +7022,11 @@
       </c>
       <c r="U53" s="13"/>
       <c r="V53" s="14"/>
-      <c r="W53" s="53"/>
+      <c r="W53" s="57"/>
       <c r="X53" s="18"/>
       <c r="Y53" s="15"/>
-      <c r="AA53" s="42"/>
-      <c r="AB53" s="77">
-        <f>AB51</f>
-        <v>0</v>
-      </c>
-      <c r="AC53" s="77">
-        <f>AC51</f>
-        <v>0</v>
-      </c>
-      <c r="AD53" s="77">
-        <f>AD51</f>
-        <v>0</v>
-      </c>
-      <c r="AE53" s="77">
-        <f>AE51</f>
-        <v>0</v>
-      </c>
-      <c r="AF53" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG53" s="43"/>
-    </row>
-    <row r="54" spans="7:33" ht="15" customHeight="1">
+    </row>
+    <row r="54" spans="7:25" ht="15" customHeight="1">
       <c r="G54" s="17"/>
       <c r="H54" s="32"/>
       <c r="I54" s="29">
@@ -7208,7 +7059,7 @@
       <c r="X54" s="18"/>
       <c r="Y54" s="15"/>
     </row>
-    <row r="55" spans="7:33" ht="15" customHeight="1">
+    <row r="55" spans="7:25" ht="15" customHeight="1">
       <c r="G55" s="17"/>
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
@@ -7231,7 +7082,7 @@
       <c r="X55" s="18"/>
       <c r="Y55" s="15"/>
     </row>
-    <row r="56" spans="7:33" ht="15" customHeight="1">
+    <row r="56" spans="7:25" ht="15" customHeight="1">
       <c r="G56" s="17"/>
       <c r="H56" s="10">
         <f>I54</f>
@@ -7266,7 +7117,7 @@
       <c r="X56" s="18"/>
       <c r="Y56" s="15"/>
     </row>
-    <row r="57" spans="7:33" ht="15" customHeight="1">
+    <row r="57" spans="7:25" ht="15" customHeight="1">
       <c r="G57" s="17"/>
       <c r="H57" s="45"/>
       <c r="I57" s="18"/>
@@ -7296,7 +7147,7 @@
       <c r="X57" s="18"/>
       <c r="Y57" s="15"/>
     </row>
-    <row r="58" spans="7:33" ht="15" customHeight="1">
+    <row r="58" spans="7:25" ht="15" customHeight="1">
       <c r="G58" s="17"/>
       <c r="H58" s="19"/>
       <c r="I58" s="13"/>
@@ -7324,7 +7175,7 @@
       <c r="X58" s="18"/>
       <c r="Y58" s="15"/>
     </row>
-    <row r="59" spans="7:33" ht="15" customHeight="1">
+    <row r="59" spans="7:25" ht="15" customHeight="1">
       <c r="G59" s="17"/>
       <c r="H59" s="19"/>
       <c r="I59" s="1">
@@ -7356,7 +7207,7 @@
       <c r="X59" s="18"/>
       <c r="Y59" s="15"/>
     </row>
-    <row r="60" spans="7:33" ht="15" customHeight="1">
+    <row r="60" spans="7:25" ht="15" customHeight="1">
       <c r="G60" s="17"/>
       <c r="H60" s="19"/>
       <c r="I60" s="13"/>
@@ -7367,7 +7218,7 @@
       </c>
       <c r="L60" s="13"/>
       <c r="M60" s="18"/>
-      <c r="N60" s="54" t="s">
+      <c r="N60" s="58" t="s">
         <v>12</v>
       </c>
       <c r="O60" s="15"/>
@@ -7390,7 +7241,7 @@
       <c r="X60" s="18"/>
       <c r="Y60" s="15"/>
     </row>
-    <row r="61" spans="7:33" ht="15" customHeight="1">
+    <row r="61" spans="7:25" ht="15" customHeight="1">
       <c r="G61" s="17"/>
       <c r="H61" s="19"/>
       <c r="I61" s="1">
@@ -7401,7 +7252,7 @@
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="18"/>
-      <c r="N61" s="55"/>
+      <c r="N61" s="51"/>
       <c r="O61" s="15"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="16"/>
@@ -7409,13 +7260,13 @@
       <c r="T61" s="14"/>
       <c r="U61" s="14"/>
       <c r="V61" s="14"/>
-      <c r="W61" s="51" t="s">
+      <c r="W61" s="55" t="s">
         <v>10</v>
       </c>
       <c r="X61" s="18"/>
       <c r="Y61" s="15"/>
     </row>
-    <row r="62" spans="7:33" ht="15" customHeight="1">
+    <row r="62" spans="7:25" ht="15" customHeight="1">
       <c r="G62" s="17"/>
       <c r="H62" s="19"/>
       <c r="I62" s="13"/>
@@ -7426,7 +7277,7 @@
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
       <c r="M62" s="18"/>
-      <c r="N62" s="56"/>
+      <c r="N62" s="54"/>
       <c r="O62" s="15"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="16"/>
@@ -7437,11 +7288,11 @@
         <v>0</v>
       </c>
       <c r="V62" s="14"/>
-      <c r="W62" s="52"/>
+      <c r="W62" s="56"/>
       <c r="X62" s="18"/>
       <c r="Y62" s="15"/>
     </row>
-    <row r="63" spans="7:33" ht="15" customHeight="1">
+    <row r="63" spans="7:25" ht="15" customHeight="1">
       <c r="G63" s="17"/>
       <c r="H63" s="19"/>
       <c r="I63" s="13"/>
@@ -7463,11 +7314,11 @@
       </c>
       <c r="U63" s="13"/>
       <c r="V63" s="14"/>
-      <c r="W63" s="53"/>
+      <c r="W63" s="57"/>
       <c r="X63" s="18"/>
       <c r="Y63" s="15"/>
     </row>
-    <row r="64" spans="7:33" ht="15" customHeight="1">
+    <row r="64" spans="7:25" ht="15" customHeight="1">
       <c r="G64" s="17"/>
       <c r="H64" s="19"/>
       <c r="I64" s="1">
@@ -7493,7 +7344,7 @@
       <c r="X64" s="18"/>
       <c r="Y64" s="15"/>
     </row>
-    <row r="65" spans="7:25" ht="15" customHeight="1">
+    <row r="65" spans="4:25" ht="15" customHeight="1">
       <c r="G65" s="17"/>
       <c r="H65" s="46"/>
       <c r="I65" s="18"/>
@@ -7516,7 +7367,7 @@
       <c r="X65" s="18"/>
       <c r="Y65" s="15"/>
     </row>
-    <row r="66" spans="7:25" ht="15" customHeight="1">
+    <row r="66" spans="4:25" ht="15" customHeight="1">
       <c r="G66" s="17"/>
       <c r="H66" s="32"/>
       <c r="I66" s="29">
@@ -7546,7 +7397,7 @@
       <c r="X66" s="18"/>
       <c r="Y66" s="15"/>
     </row>
-    <row r="67" spans="7:25" ht="15" customHeight="1">
+    <row r="67" spans="4:25" ht="15" customHeight="1">
       <c r="G67" s="17"/>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
@@ -7576,7 +7427,7 @@
       <c r="X67" s="18"/>
       <c r="Y67" s="15"/>
     </row>
-    <row r="68" spans="7:25" ht="15" customHeight="1">
+    <row r="68" spans="4:25" ht="15" customHeight="1">
       <c r="G68" s="32"/>
       <c r="H68" s="29">
         <f>I66</f>
@@ -7615,7 +7466,7 @@
       <c r="X68" s="18"/>
       <c r="Y68" s="15"/>
     </row>
-    <row r="69" spans="7:25" ht="15" customHeight="1">
+    <row r="69" spans="4:25" ht="15" customHeight="1">
       <c r="Q69" s="17"/>
       <c r="R69" s="18"/>
       <c r="S69" s="18"/>
@@ -7626,7 +7477,7 @@
       <c r="X69" s="18"/>
       <c r="Y69" s="15"/>
     </row>
-    <row r="70" spans="7:25" ht="15" customHeight="1">
+    <row r="70" spans="4:25" ht="15" customHeight="1">
       <c r="Q70" s="17"/>
       <c r="R70" s="18"/>
       <c r="S70" s="18"/>
@@ -7637,32 +7488,32 @@
       <c r="X70" s="18"/>
       <c r="Y70" s="15"/>
     </row>
-    <row r="71" spans="7:25" ht="15" customHeight="1">
+    <row r="71" spans="4:25" ht="15" customHeight="1">
       <c r="Q71" s="17"/>
       <c r="R71" s="1">
         <f>IF(_xlfn.XOR(T67 = 1, T57 = 1), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="71" t="s">
+      <c r="S71" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="T71" s="72"/>
+      <c r="T71" s="60"/>
       <c r="U71" s="18"/>
       <c r="V71" s="18"/>
       <c r="W71" s="18"/>
       <c r="X71" s="18"/>
       <c r="Y71" s="15"/>
     </row>
-    <row r="72" spans="7:25" ht="15" customHeight="1">
+    <row r="72" spans="4:25" ht="15" customHeight="1">
       <c r="Q72" s="32"/>
       <c r="R72" s="29">
         <f>T67</f>
         <v>0</v>
       </c>
-      <c r="S72" s="73" t="s">
+      <c r="S72" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="T72" s="74"/>
+      <c r="T72" s="62"/>
       <c r="U72" s="29">
         <f>U67</f>
         <v>0</v>
@@ -7683,23 +7534,374 @@
         <v>31</v>
       </c>
     </row>
+    <row r="79" spans="4:25" ht="15" customHeight="1">
+      <c r="D79" t="s">
+        <v>45</v>
+      </c>
+      <c r="N79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="4:25" ht="15" customHeight="1">
+      <c r="D80" s="81"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="82"/>
+      <c r="H80" s="82"/>
+      <c r="I80" s="82"/>
+      <c r="J80" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="K80" s="82"/>
+      <c r="L80" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="N80" s="81"/>
+      <c r="O80" s="82"/>
+      <c r="P80" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q80" s="82"/>
+      <c r="R80" s="82"/>
+      <c r="S80" s="82"/>
+      <c r="T80" s="82"/>
+      <c r="U80" s="82"/>
+      <c r="V80" s="82"/>
+      <c r="W80" s="82"/>
+      <c r="X80" s="83"/>
+    </row>
+    <row r="81" spans="4:24" ht="15" customHeight="1">
+      <c r="D81" s="84"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="85"/>
+      <c r="J81" s="85"/>
+      <c r="K81" s="85"/>
+      <c r="L81" s="86"/>
+      <c r="N81" s="84"/>
+      <c r="O81" s="85"/>
+      <c r="P81" s="85">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="85">
+        <v>0</v>
+      </c>
+      <c r="R81" s="85">
+        <v>1</v>
+      </c>
+      <c r="S81" s="85">
+        <v>1</v>
+      </c>
+      <c r="T81" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="U81" s="85"/>
+      <c r="V81" s="85" cm="1">
+        <f t="array" aca="1" ref="V81" ca="1">INDIRECT(ADDRESS(U84, U83 + R85))</f>
+        <v>1</v>
+      </c>
+      <c r="W81" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="X81" s="86"/>
+    </row>
+    <row r="82" spans="4:24" ht="15" customHeight="1">
+      <c r="D82" s="84"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="86"/>
+      <c r="N82" s="84"/>
+      <c r="O82" s="85"/>
+      <c r="P82" s="85"/>
+      <c r="Q82" s="85"/>
+      <c r="R82" s="85"/>
+      <c r="S82" s="85"/>
+      <c r="T82" s="85"/>
+      <c r="U82" s="85"/>
+      <c r="V82" s="85"/>
+      <c r="W82" s="85"/>
+      <c r="X82" s="86"/>
+    </row>
+    <row r="83" spans="4:24" ht="15" customHeight="1">
+      <c r="D83" s="84"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" s="85"/>
+      <c r="I83" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="J83" s="85"/>
+      <c r="K83" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="L83" s="86"/>
+      <c r="N83" s="84"/>
+      <c r="O83" s="85"/>
+      <c r="P83" s="85">
+        <v>1010</v>
+      </c>
+      <c r="Q83" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="R83" s="85"/>
+      <c r="S83" s="85"/>
+      <c r="T83" s="85"/>
+      <c r="U83" s="85">
+        <v>15</v>
+      </c>
+      <c r="V83" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="W83" s="85"/>
+      <c r="X83" s="86"/>
+    </row>
+    <row r="84" spans="4:24" ht="15" customHeight="1">
+      <c r="D84" s="84"/>
+      <c r="E84" s="85"/>
+      <c r="F84" s="85"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="85"/>
+      <c r="I84" s="85"/>
+      <c r="J84" s="85"/>
+      <c r="K84" s="85"/>
+      <c r="L84" s="86"/>
+      <c r="N84" s="84"/>
+      <c r="O84" s="85"/>
+      <c r="P84" s="85"/>
+      <c r="Q84" s="85"/>
+      <c r="R84" s="85"/>
+      <c r="S84" s="85"/>
+      <c r="T84" s="85"/>
+      <c r="U84" s="85">
+        <v>81</v>
+      </c>
+      <c r="V84" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="W84" s="85"/>
+      <c r="X84" s="86"/>
+    </row>
+    <row r="85" spans="4:24" ht="15" customHeight="1">
+      <c r="D85" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="E85" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="85"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="85"/>
+      <c r="I85" s="85"/>
+      <c r="J85" s="85"/>
+      <c r="K85" s="85"/>
+      <c r="L85" s="86"/>
+      <c r="N85" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="O85" s="85"/>
+      <c r="P85" s="85" t="str">
+        <f ca="1">MID(P83, R85, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="85"/>
+      <c r="R85" s="85">
+        <f ca="1">IF(CLOCK = 1, IF(R85 = (LEN(P83) + 1), 1, R85 + 1),  R85)</f>
+        <v>5</v>
+      </c>
+      <c r="S85" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="T85" s="85"/>
+      <c r="U85" s="85"/>
+      <c r="V85" s="85"/>
+      <c r="W85" s="85"/>
+      <c r="X85" s="86"/>
+    </row>
+    <row r="86" spans="4:24" ht="15" customHeight="1">
+      <c r="D86" s="84"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" s="85"/>
+      <c r="H86" s="85"/>
+      <c r="I86" s="85"/>
+      <c r="J86" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="K86" s="85"/>
+      <c r="L86" s="86"/>
+      <c r="N86" s="84"/>
+      <c r="O86" s="85"/>
+      <c r="P86" s="85"/>
+      <c r="Q86" s="85"/>
+      <c r="R86" s="85"/>
+      <c r="S86" s="85"/>
+      <c r="T86" s="85"/>
+      <c r="U86" s="85"/>
+      <c r="V86" s="85"/>
+      <c r="W86" s="85"/>
+      <c r="X86" s="86"/>
+    </row>
+    <row r="87" spans="4:24" ht="15" customHeight="1">
+      <c r="D87" s="84"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" s="85"/>
+      <c r="H87" s="85"/>
+      <c r="I87" s="85"/>
+      <c r="J87" s="85"/>
+      <c r="K87" s="85"/>
+      <c r="L87" s="86"/>
+      <c r="N87" s="84"/>
+      <c r="O87" s="85"/>
+      <c r="P87" s="85">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="R87" s="85"/>
+      <c r="S87" s="85"/>
+      <c r="T87" s="85"/>
+      <c r="U87" s="85"/>
+      <c r="V87" s="85"/>
+      <c r="W87" s="85"/>
+      <c r="X87" s="86"/>
+    </row>
+    <row r="88" spans="4:24" ht="15" customHeight="1">
+      <c r="D88" s="84"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="85"/>
+      <c r="L88" s="86"/>
+      <c r="N88" s="84"/>
+      <c r="O88" s="85"/>
+      <c r="P88" s="85"/>
+      <c r="Q88" s="85"/>
+      <c r="R88" s="85"/>
+      <c r="S88" s="85"/>
+      <c r="T88" s="85"/>
+      <c r="U88" s="85"/>
+      <c r="V88" s="85"/>
+      <c r="W88" s="85"/>
+      <c r="X88" s="86"/>
+    </row>
+    <row r="89" spans="4:24" ht="15" customHeight="1">
+      <c r="D89" s="84"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="86"/>
+      <c r="N89" s="84"/>
+      <c r="O89" s="85"/>
+      <c r="P89" s="85">
+        <f ca="1">IF(CLOCK = 1, IF(P89 &gt;= P87, 0, P89 + 1), P89)</f>
+        <v>1</v>
+      </c>
+      <c r="Q89" s="85"/>
+      <c r="R89" s="85" t="str">
+        <f ca="1">IF(P89 = P87, IF(LEN(R89) = LEN(P83), "", R89 &amp; P85), R89)</f>
+        <v>1010</v>
+      </c>
+      <c r="S89" s="85"/>
+      <c r="T89" s="85"/>
+      <c r="U89" s="85"/>
+      <c r="V89" s="85"/>
+      <c r="W89" s="85"/>
+      <c r="X89" s="86"/>
+    </row>
+    <row r="90" spans="4:24" ht="15" customHeight="1">
+      <c r="D90" s="84"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
+      <c r="K90" s="85"/>
+      <c r="L90" s="86"/>
+      <c r="N90" s="87"/>
+      <c r="O90" s="88"/>
+      <c r="P90" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q90" s="88"/>
+      <c r="R90" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="S90" s="88"/>
+      <c r="T90" s="88"/>
+      <c r="U90" s="88"/>
+      <c r="V90" s="88"/>
+      <c r="W90" s="88"/>
+      <c r="X90" s="89"/>
+    </row>
+    <row r="91" spans="4:24" ht="15" customHeight="1">
+      <c r="D91" s="84"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="I91" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="J91" s="85"/>
+      <c r="K91" s="85"/>
+      <c r="L91" s="86"/>
+    </row>
+    <row r="92" spans="4:24" ht="15" customHeight="1">
+      <c r="D92" s="84"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="85"/>
+      <c r="L92" s="86"/>
+    </row>
+    <row r="93" spans="4:24" ht="15" customHeight="1">
+      <c r="D93" s="87"/>
+      <c r="E93" s="88"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="H93" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="I93" s="88"/>
+      <c r="J93" s="88"/>
+      <c r="K93" s="88"/>
+      <c r="L93" s="89"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="AG50:AG52"/>
-    <mergeCell ref="AG43:AG45"/>
-    <mergeCell ref="AH27:AH29"/>
-    <mergeCell ref="AF35:AF37"/>
-    <mergeCell ref="Y28:Y30"/>
-    <mergeCell ref="W31:W33"/>
-    <mergeCell ref="N36:N38"/>
-    <mergeCell ref="W41:W43"/>
-    <mergeCell ref="N48:N50"/>
-    <mergeCell ref="N24:N26"/>
-    <mergeCell ref="W51:W53"/>
-    <mergeCell ref="W61:W63"/>
-    <mergeCell ref="S71:T71"/>
-    <mergeCell ref="S72:T72"/>
-    <mergeCell ref="N60:N62"/>
+  <mergeCells count="21">
     <mergeCell ref="M5:M7"/>
     <mergeCell ref="X6:X8"/>
     <mergeCell ref="AF8:AF10"/>
@@ -7707,1913 +7909,1847 @@
     <mergeCell ref="N16:N18"/>
     <mergeCell ref="AE18:AE20"/>
     <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W51:W53"/>
+    <mergeCell ref="W61:W63"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="N60:N62"/>
+    <mergeCell ref="W31:W33"/>
+    <mergeCell ref="N36:N38"/>
+    <mergeCell ref="W41:W43"/>
+    <mergeCell ref="N48:N50"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="AG42:AG44"/>
+    <mergeCell ref="AH27:AH29"/>
+    <mergeCell ref="Y28:Y30"/>
+    <mergeCell ref="AG35:AG37"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 V12">
-    <cfRule type="cellIs" dxfId="405" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="161" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 V12">
-    <cfRule type="cellIs" dxfId="404" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="403" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="402" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="164" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="401" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="165" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="400" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="399" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="167" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="398" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="168" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="397" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="396" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11 R71">
-    <cfRule type="cellIs" dxfId="395" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="171" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11 R71">
-    <cfRule type="cellIs" dxfId="394" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="172" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="393" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="173" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="392" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="391" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="175" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="390" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="176" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="389" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="177" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="388" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="387" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="179" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="386" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="180" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="385" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="181" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="384" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="383" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="183" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="382" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="184" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="381" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="185" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="380" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="379" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="187" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="378" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="188" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="377" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="189" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="376" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="375" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="191" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="374" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="192" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:U8">
-    <cfRule type="cellIs" dxfId="373" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="193" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:U8">
-    <cfRule type="cellIs" dxfId="372" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="194" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="cellIs" dxfId="371" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="195" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="cellIs" dxfId="370" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="196" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="369" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="197" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="368" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="367" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="199" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="366" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="200" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="365" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="201" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="364" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="cellIs" dxfId="363" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="203" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="cellIs" dxfId="362" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="204" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J5">
-    <cfRule type="cellIs" dxfId="361" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="205" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J5">
-    <cfRule type="cellIs" dxfId="360" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="206" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="359" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="207" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="358" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="208" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="357" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="209" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="356" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" dxfId="355" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="211" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" dxfId="354" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="212" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" dxfId="353" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="213" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" dxfId="352" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="351" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="215" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="350" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="216" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="349" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="217" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="348" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="218" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="347" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="219" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="346" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="220" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="345" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="221" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="344" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="222" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="343" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="223" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="342" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="224" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="341" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="225" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="340" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="226" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z16">
-    <cfRule type="cellIs" dxfId="339" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="227" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z16">
-    <cfRule type="cellIs" dxfId="338" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="228" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16">
-    <cfRule type="cellIs" dxfId="337" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="229" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16">
-    <cfRule type="cellIs" dxfId="336" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="230" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z19">
-    <cfRule type="cellIs" dxfId="335" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="231" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z19">
-    <cfRule type="cellIs" dxfId="334" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="232" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z21">
-    <cfRule type="cellIs" dxfId="333" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="233" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z21">
-    <cfRule type="cellIs" dxfId="332" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="234" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="cellIs" dxfId="331" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="235" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="cellIs" dxfId="330" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="236" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18">
-    <cfRule type="cellIs" dxfId="329" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="237" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18">
-    <cfRule type="cellIs" dxfId="328" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="238" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB23">
-    <cfRule type="cellIs" dxfId="327" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="239" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB23">
-    <cfRule type="cellIs" dxfId="326" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="240" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="325" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="241" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="324" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="242" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="cellIs" dxfId="323" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="243" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="cellIs" dxfId="322" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="244" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="cellIs" dxfId="321" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="245" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="cellIs" dxfId="320" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="246" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="319" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="247" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="318" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="248" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="317" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="249" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="316" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="250" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="315" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="251" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="314" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="252" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="313" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="253" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="312" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="254" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="311" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="255" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="310" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="256" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="309" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="257" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="308" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="258" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="307" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="259" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="306" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="260" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="305" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="261" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="304" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="262" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="303" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="263" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="302" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="264" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="301" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="265" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="300" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="266" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="299" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="267" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="298" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="268" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="cellIs" dxfId="297" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="269" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="cellIs" dxfId="296" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="270" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="295" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="271" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="294" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="272" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="293" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="273" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="292" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="274" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="291" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="275" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="290" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="276" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="289" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="277" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="288" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="278" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="287" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="279" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="286" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="280" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="285" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="281" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="284" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="282" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="cellIs" dxfId="283" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="283" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="cellIs" dxfId="282" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="284" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="281" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="285" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="280" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="279" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="287" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="278" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="288" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="277" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="289" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="276" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="290" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="cellIs" dxfId="275" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="291" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="cellIs" dxfId="274" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="292" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48">
-    <cfRule type="cellIs" dxfId="273" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="293" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48">
-    <cfRule type="cellIs" dxfId="272" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="294" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="271" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="295" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="270" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="296" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="269" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="297" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="268" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="298" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="267" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="299" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="266" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="300" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="265" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="301" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="264" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="302" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44">
-    <cfRule type="cellIs" dxfId="263" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="303" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44">
-    <cfRule type="cellIs" dxfId="262" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="304" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="261" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="305" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="260" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="306" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47">
-    <cfRule type="cellIs" dxfId="259" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="307" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47">
-    <cfRule type="cellIs" dxfId="258" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="308" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="cellIs" dxfId="257" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="309" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="cellIs" dxfId="256" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="310" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="255" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="311" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="254" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="312" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="253" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="313" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="252" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="cellIs" dxfId="251" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="315" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="cellIs" dxfId="250" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="316" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
-    <cfRule type="cellIs" dxfId="249" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="317" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
-    <cfRule type="cellIs" dxfId="248" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="318" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62">
-    <cfRule type="cellIs" dxfId="247" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="319" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62">
-    <cfRule type="cellIs" dxfId="246" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="320" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="245" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="321" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="244" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="322" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="243" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="323" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="242" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="324" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56">
-    <cfRule type="cellIs" dxfId="241" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="325" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56">
-    <cfRule type="cellIs" dxfId="240" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="326" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56">
-    <cfRule type="cellIs" dxfId="239" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="327" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56">
-    <cfRule type="cellIs" dxfId="238" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="328" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="237" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="329" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="236" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="330" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59">
-    <cfRule type="cellIs" dxfId="235" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="331" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59">
-    <cfRule type="cellIs" dxfId="234" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="332" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66">
-    <cfRule type="cellIs" dxfId="233" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="333" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66">
-    <cfRule type="cellIs" dxfId="232" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="334" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="231" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="335" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="230" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="336" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:K17">
-    <cfRule type="cellIs" dxfId="229" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="337" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:K17">
-    <cfRule type="cellIs" dxfId="228" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="338" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="227" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="339" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="226" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="340" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:M68">
-    <cfRule type="cellIs" dxfId="225" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="341" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:M68">
-    <cfRule type="cellIs" dxfId="224" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="342" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U37">
-    <cfRule type="cellIs" dxfId="223" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="343" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U37">
-    <cfRule type="cellIs" dxfId="222" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="344" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:T33">
-    <cfRule type="cellIs" dxfId="221" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="345" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:T33">
-    <cfRule type="cellIs" dxfId="220" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:U30">
-    <cfRule type="cellIs" dxfId="219" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="347" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:U30">
-    <cfRule type="cellIs" dxfId="218" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="348" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35">
-    <cfRule type="cellIs" dxfId="217" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="349" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35">
-    <cfRule type="cellIs" dxfId="216" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="350" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T37">
-    <cfRule type="cellIs" dxfId="215" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="351" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T37">
-    <cfRule type="cellIs" dxfId="214" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="352" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32">
-    <cfRule type="cellIs" dxfId="213" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="353" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32">
-    <cfRule type="cellIs" dxfId="212" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="354" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34">
-    <cfRule type="cellIs" dxfId="211" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="355" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34">
-    <cfRule type="cellIs" dxfId="210" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="356" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47">
-    <cfRule type="cellIs" dxfId="209" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="357" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47">
-    <cfRule type="cellIs" dxfId="208" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="358" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:T43">
-    <cfRule type="cellIs" dxfId="207" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="359" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:T43">
-    <cfRule type="cellIs" dxfId="206" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="360" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40:U40">
-    <cfRule type="cellIs" dxfId="205" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="361" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40:U40">
-    <cfRule type="cellIs" dxfId="204" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="362" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T45">
-    <cfRule type="cellIs" dxfId="203" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="363" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T45">
-    <cfRule type="cellIs" dxfId="202" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="364" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T47">
-    <cfRule type="cellIs" dxfId="201" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="365" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T47">
-    <cfRule type="cellIs" dxfId="200" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="366" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42">
-    <cfRule type="cellIs" dxfId="199" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="367" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42">
-    <cfRule type="cellIs" dxfId="198" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="368" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U44">
-    <cfRule type="cellIs" dxfId="197" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="369" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U44">
-    <cfRule type="cellIs" dxfId="196" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="370" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U57">
-    <cfRule type="cellIs" dxfId="195" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="371" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U57">
-    <cfRule type="cellIs" dxfId="194" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="372" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S53:T53">
-    <cfRule type="cellIs" dxfId="193" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="373" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S53:T53">
-    <cfRule type="cellIs" dxfId="192" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S50:U50">
-    <cfRule type="cellIs" dxfId="191" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="375" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S50:U50">
-    <cfRule type="cellIs" dxfId="190" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="376" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="cellIs" dxfId="189" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="377" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="cellIs" dxfId="188" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="378" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T57">
-    <cfRule type="cellIs" dxfId="187" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="379" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T57">
-    <cfRule type="cellIs" dxfId="186" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="380" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U52">
-    <cfRule type="cellIs" dxfId="185" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="381" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U52">
-    <cfRule type="cellIs" dxfId="184" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="382" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54">
-    <cfRule type="cellIs" dxfId="183" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="383" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54">
-    <cfRule type="cellIs" dxfId="182" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="384" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U67">
-    <cfRule type="cellIs" dxfId="181" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="385" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U67">
-    <cfRule type="cellIs" dxfId="180" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="386" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S63:T63">
-    <cfRule type="cellIs" dxfId="179" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="387" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S63:T63">
-    <cfRule type="cellIs" dxfId="178" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="388" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S60:U60">
-    <cfRule type="cellIs" dxfId="177" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="389" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S60:U60">
-    <cfRule type="cellIs" dxfId="176" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="390" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T65">
-    <cfRule type="cellIs" dxfId="175" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="391" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T65">
-    <cfRule type="cellIs" dxfId="174" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="392" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T67">
-    <cfRule type="cellIs" dxfId="173" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="393" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T67">
-    <cfRule type="cellIs" dxfId="172" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="394" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U62">
-    <cfRule type="cellIs" dxfId="171" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="395" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U62">
-    <cfRule type="cellIs" dxfId="170" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="396" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U64">
-    <cfRule type="cellIs" dxfId="169" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="397" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U64">
-    <cfRule type="cellIs" dxfId="168" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="398" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:U26">
-    <cfRule type="cellIs" dxfId="167" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="399" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:U26">
-    <cfRule type="cellIs" dxfId="166" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="400" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="cellIs" dxfId="165" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="401" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="cellIs" dxfId="164" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="402" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R71:R72">
-    <cfRule type="cellIs" dxfId="163" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="403" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R71:R72">
-    <cfRule type="cellIs" dxfId="162" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="404" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U72:X72">
-    <cfRule type="cellIs" dxfId="161" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="405" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U72:X72">
-    <cfRule type="cellIs" dxfId="160" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="406" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="159" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="407" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="158" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="408" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U38">
-    <cfRule type="cellIs" dxfId="157" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="409" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U38">
-    <cfRule type="cellIs" dxfId="156" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="410" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U48">
-    <cfRule type="cellIs" dxfId="155" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="411" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U48">
-    <cfRule type="cellIs" dxfId="154" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="412" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U58">
-    <cfRule type="cellIs" dxfId="153" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="413" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U58">
-    <cfRule type="cellIs" dxfId="152" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="414" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7">
-    <cfRule type="cellIs" dxfId="151" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="415" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7">
-    <cfRule type="cellIs" dxfId="150" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="416" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6">
-    <cfRule type="cellIs" dxfId="149" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="417" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6">
-    <cfRule type="cellIs" dxfId="148" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="418" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8">
-    <cfRule type="cellIs" dxfId="147" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="419" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8">
-    <cfRule type="cellIs" dxfId="146" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="420" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="cellIs" dxfId="145" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="421" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="cellIs" dxfId="144" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="422" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9">
-    <cfRule type="cellIs" dxfId="143" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="423" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9">
-    <cfRule type="cellIs" dxfId="142" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="424" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
-    <cfRule type="cellIs" dxfId="141" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="425" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
-    <cfRule type="cellIs" dxfId="140" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="426" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4">
-    <cfRule type="cellIs" dxfId="139" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="427" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4">
-    <cfRule type="cellIs" dxfId="138" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="428" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4">
-    <cfRule type="cellIs" dxfId="137" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="429" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4">
-    <cfRule type="cellIs" dxfId="136" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="430" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12">
-    <cfRule type="cellIs" dxfId="135" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="431" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12">
-    <cfRule type="cellIs" dxfId="134" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="432" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7">
-    <cfRule type="cellIs" dxfId="133" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="433" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7">
-    <cfRule type="cellIs" dxfId="132" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="434" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC14">
-    <cfRule type="cellIs" dxfId="131" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="435" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC14">
-    <cfRule type="cellIs" dxfId="130" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="436" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14">
-    <cfRule type="cellIs" dxfId="129" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="437" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14">
-    <cfRule type="cellIs" dxfId="128" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="438" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="127" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="439" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="126" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="440" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="125" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="441" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="124" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="442" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="cellIs" dxfId="123" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="443" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="cellIs" dxfId="122" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="444" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="121" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="445" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="120" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="446" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB25">
-    <cfRule type="cellIs" dxfId="119" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="159" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB25">
-    <cfRule type="cellIs" dxfId="118" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="160" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25">
-    <cfRule type="cellIs" dxfId="117" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="157" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25">
-    <cfRule type="cellIs" dxfId="116" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF25">
-    <cfRule type="cellIs" dxfId="115" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="155" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF25">
-    <cfRule type="cellIs" dxfId="114" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="156" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC27">
-    <cfRule type="cellIs" dxfId="113" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="153" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC27">
-    <cfRule type="cellIs" dxfId="112" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD28">
-    <cfRule type="cellIs" dxfId="111" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="151" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD28">
-    <cfRule type="cellIs" dxfId="110" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="152" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE28">
-    <cfRule type="cellIs" dxfId="109" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="149" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE28">
-    <cfRule type="cellIs" dxfId="108" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC29">
-    <cfRule type="cellIs" dxfId="107" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="147" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC29">
-    <cfRule type="cellIs" dxfId="106" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="148" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC31">
-    <cfRule type="cellIs" dxfId="105" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC31">
-    <cfRule type="cellIs" dxfId="104" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="103" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="143" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="102" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="144" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="cellIs" dxfId="101" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="141" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="cellIs" dxfId="100" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD33">
+    <cfRule type="cellIs" dxfId="59" priority="73" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD33">
+    <cfRule type="cellIs" dxfId="58" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34">
-    <cfRule type="cellIs" dxfId="99" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34">
-    <cfRule type="cellIs" dxfId="98" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC34">
-    <cfRule type="cellIs" dxfId="97" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC34">
-    <cfRule type="cellIs" dxfId="96" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="84" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD34">
+    <cfRule type="cellIs" dxfId="53" priority="81" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD34">
+    <cfRule type="cellIs" dxfId="52" priority="82" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE34">
+    <cfRule type="cellIs" dxfId="51" priority="79" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE34">
+    <cfRule type="cellIs" dxfId="50" priority="80" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB33">
+    <cfRule type="cellIs" dxfId="49" priority="77" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB33">
+    <cfRule type="cellIs" dxfId="48" priority="78" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC33">
+    <cfRule type="cellIs" dxfId="47" priority="75" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC33">
+    <cfRule type="cellIs" dxfId="46" priority="76" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD40">
+    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD40">
+    <cfRule type="cellIs" dxfId="44" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE33">
+    <cfRule type="cellIs" dxfId="43" priority="71" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE33">
+    <cfRule type="cellIs" dxfId="42" priority="72" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE40">
+    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE40">
+    <cfRule type="cellIs" dxfId="40" priority="56" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB41">
+    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB41">
+    <cfRule type="cellIs" dxfId="38" priority="70" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC41">
+    <cfRule type="cellIs" dxfId="37" priority="67" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC41">
+    <cfRule type="cellIs" dxfId="36" priority="68" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD41">
+    <cfRule type="cellIs" dxfId="35" priority="65" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD41">
+    <cfRule type="cellIs" dxfId="34" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE41">
+    <cfRule type="cellIs" dxfId="33" priority="63" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE41">
+    <cfRule type="cellIs" dxfId="32" priority="64" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB40">
+    <cfRule type="cellIs" dxfId="31" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB40">
+    <cfRule type="cellIs" dxfId="30" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC40">
+    <cfRule type="cellIs" dxfId="29" priority="59" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC40">
+    <cfRule type="cellIs" dxfId="28" priority="60" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE45">
+    <cfRule type="cellIs" dxfId="27" priority="51" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE45">
+    <cfRule type="cellIs" dxfId="26" priority="52" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC45:AD45">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC45:AD45">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB45">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB45">
+    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE43">
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE43">
+    <cfRule type="cellIs" dxfId="20" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD43">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD43">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB43">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB43">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC43">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC43">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE38">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE38">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC38:AD38">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC38:AD38">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB38">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB38">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE36">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE36">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD36">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD36">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC36">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC36">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB36">
-    <cfRule type="cellIs" dxfId="95" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB36">
-    <cfRule type="cellIs" dxfId="94" priority="136" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD36">
-    <cfRule type="cellIs" dxfId="93" priority="133" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD36">
-    <cfRule type="cellIs" dxfId="92" priority="134" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD34">
-    <cfRule type="cellIs" dxfId="91" priority="131" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD34">
-    <cfRule type="cellIs" dxfId="90" priority="132" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
-    <cfRule type="cellIs" dxfId="89" priority="129" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
-    <cfRule type="cellIs" dxfId="88" priority="130" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC37">
-    <cfRule type="cellIs" dxfId="87" priority="127" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC37">
-    <cfRule type="cellIs" dxfId="86" priority="128" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC39">
-    <cfRule type="cellIs" dxfId="85" priority="123" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC39">
-    <cfRule type="cellIs" dxfId="84" priority="124" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD41">
-    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD41">
-    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB42">
-    <cfRule type="cellIs" dxfId="81" priority="85" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB42">
-    <cfRule type="cellIs" dxfId="80" priority="86" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC42">
-    <cfRule type="cellIs" dxfId="79" priority="83" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC42">
-    <cfRule type="cellIs" dxfId="78" priority="84" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD42">
-    <cfRule type="cellIs" dxfId="77" priority="81" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD42">
-    <cfRule type="cellIs" dxfId="76" priority="82" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE42">
-    <cfRule type="cellIs" dxfId="75" priority="79" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE42">
-    <cfRule type="cellIs" dxfId="74" priority="80" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB41">
-    <cfRule type="cellIs" dxfId="73" priority="77" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB41">
-    <cfRule type="cellIs" dxfId="72" priority="78" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC41">
-    <cfRule type="cellIs" dxfId="71" priority="75" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC41">
-    <cfRule type="cellIs" dxfId="70" priority="76" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD48">
-    <cfRule type="cellIs" dxfId="69" priority="57" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD48">
-    <cfRule type="cellIs" dxfId="68" priority="58" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE41">
-    <cfRule type="cellIs" dxfId="67" priority="71" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE41">
-    <cfRule type="cellIs" dxfId="66" priority="72" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE48">
-    <cfRule type="cellIs" dxfId="65" priority="55" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE48">
-    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB49">
-    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB49">
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC49">
-    <cfRule type="cellIs" dxfId="61" priority="67" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC49">
-    <cfRule type="cellIs" dxfId="60" priority="68" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD49">
-    <cfRule type="cellIs" dxfId="59" priority="65" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD49">
-    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE49">
-    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE49">
-    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB48">
-    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB48">
-    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC48">
-    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC48">
-    <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE53">
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE53">
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC53:AD53">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC53:AD53">
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB53">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB53">
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE51">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE51">
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD51">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD51">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB51">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB51">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC51">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC51">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE46">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE46">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC46:AD46">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC46:AD46">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB46">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB46">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE44">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE44">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD44">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD44">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC44">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC44">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB44">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB44">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/CPU in Excel MAIN.xlsx
+++ b/CPU in Excel MAIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100146766\ePU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E802606-5803-496B-A388-D867BED88DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288E642B-75CE-4CB7-93A6-42C35C5A4BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1157,6 +1157,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1166,6 +1178,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1206,178 +1221,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="382">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="366">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5069,7 +4917,7 @@
   <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="T100" sqref="T100"/>
+      <selection activeCell="AB90" sqref="AB90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -5077,7 +4925,7 @@
     <row r="1" spans="1:32" ht="15" customHeight="1">
       <c r="A1" s="1">
         <f ca="1">IF(A1 = 1, 0, IF(A1 = 0, 1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5102,7 +4950,7 @@
     <row r="3" spans="1:32" ht="15" customHeight="1">
       <c r="A3" s="1">
         <f ca="1">IF(A1=1, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -5122,7 +4970,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="7">
         <f ca="1">IF(CLOCK = 0, J4, IF(AND(CLOCK = 1,INPUT = 1,RESET = 0), 0, IF(AND(CLOCK = 1,INPUT = 0,RESET = 1), 1, IF(AND(CLOCK = 1,INPUT = 0,RESET = 0), J4, IF(AND(CLOCK = 1,INPUT = 1,RESET = 1),IF(JK.1 = 1, 0, 1))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="8"/>
@@ -5166,7 +5014,7 @@
     <row r="5" spans="1:32" ht="15" customHeight="1">
       <c r="A5" s="1">
         <f ca="1">IF(A3 = 1, 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -5176,11 +5024,11 @@
       <c r="I5" s="13"/>
       <c r="J5" s="1">
         <f ca="1">IF(CLOCK = 0, J5, IF(AND(CLOCK = 1,JK.1 = 1,JK.1 = 0), 0, IF(AND(CLOCK = 1,JK.1 = 0,JK.1 = 1), 1, IF(AND(CLOCK = 1,JK.1 = 0, JK.1 = 0), J5, IF(AND(CLOCK = 1,JK.1 = 1,JK.1 = 1), IF(JK.2 = 1, 0, 1))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="74" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="14"/>
@@ -5215,10 +5063,10 @@
       <c r="J6" s="13"/>
       <c r="K6" s="1">
         <f ca="1">IF(AND(JK.1 = 1, JK.2 = 1), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="14"/>
-      <c r="M6" s="64"/>
+      <c r="M6" s="75"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -5228,7 +5076,7 @@
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
-      <c r="X6" s="55" t="s">
+      <c r="X6" s="66" t="s">
         <v>10</v>
       </c>
       <c r="Z6" s="19"/>
@@ -5245,7 +5093,7 @@
     <row r="7" spans="1:32" ht="15" customHeight="1">
       <c r="A7" s="1">
         <f ca="1">IF(AND(A3 = 1, C3 = 1), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -5259,7 +5107,7 @@
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="65"/>
+      <c r="M7" s="76"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -5272,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="14"/>
-      <c r="X7" s="56"/>
+      <c r="X7" s="67"/>
       <c r="Z7" s="19"/>
       <c r="AA7" s="1">
         <f>IF(AD4 = 1, 0, 1)</f>
@@ -5295,7 +5143,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="1">
         <f t="array" aca="1" ref="K8" ca="1">IF(AND(AND.1 = 1, JK.3 = 1), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -5314,7 +5162,7 @@
       </c>
       <c r="V8" s="13"/>
       <c r="W8" s="14"/>
-      <c r="X8" s="57"/>
+      <c r="X8" s="68"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
@@ -5324,7 +5172,7 @@
       </c>
       <c r="AD8" s="13"/>
       <c r="AE8" s="18"/>
-      <c r="AF8" s="58" t="s">
+      <c r="AF8" s="69" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5368,7 +5216,7 @@
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="18"/>
-      <c r="AF9" s="51"/>
+      <c r="AF9" s="61"/>
     </row>
     <row r="10" spans="1:32" ht="15" customHeight="1">
       <c r="A10" s="1"/>
@@ -5401,12 +5249,12 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="18"/>
-      <c r="AF10" s="54"/>
+      <c r="AF10" s="64"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1">
       <c r="A11" s="1">
         <f ca="1">IF(_xlfn.XOR(A3 = 1, C3 = 1), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -5454,23 +5302,23 @@
       </c>
       <c r="K12" s="1">
         <f ca="1">IF(JK.2 = 1, 0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="1">
         <f ca="1">IF(JK.1 = 1, 0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="66" t="s">
+      <c r="O12" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="68"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="79"/>
       <c r="S12" s="27"/>
       <c r="T12" s="28" t="s">
         <v>4</v>
@@ -5514,9 +5362,9 @@
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
       <c r="N13" s="23"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="82"/>
       <c r="Z13" s="17"/>
       <c r="AA13" s="18"/>
       <c r="AB13" s="18"/>
@@ -5543,21 +5391,21 @@
       </c>
       <c r="K14" s="29">
         <f ca="1">NOT.2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="28" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="29">
         <f ca="1">NOT.1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="72"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="74"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="85"/>
       <c r="Z14" s="32"/>
       <c r="AA14" s="29">
         <f>AA12</f>
@@ -5579,7 +5427,7 @@
     <row r="15" spans="1:32" ht="15" customHeight="1">
       <c r="A15" s="1">
         <f ca="1">IF(AND(A3 = 1, C3 = 1), 0, 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
@@ -5604,7 +5452,7 @@
         <v>5</v>
       </c>
       <c r="M16" s="36"/>
-      <c r="N16" s="75" t="s">
+      <c r="N16" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="9"/>
@@ -5642,7 +5490,7 @@
     <row r="17" spans="1:34" ht="15" customHeight="1">
       <c r="A17" s="1">
         <f ca="1">IF(OR(AND(A3 = 1, C3 = 1), AND(A3 = 0, C3 = 0)), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -5664,7 +5512,7 @@
         <v>6</v>
       </c>
       <c r="M17" s="18"/>
-      <c r="N17" s="76"/>
+      <c r="N17" s="87"/>
       <c r="O17" s="15"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="14"/>
@@ -5689,7 +5537,7 @@
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="77"/>
+      <c r="N18" s="88"/>
       <c r="O18" s="15"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="13"/>
@@ -5700,7 +5548,7 @@
       </c>
       <c r="U18" s="13"/>
       <c r="V18" s="23"/>
-      <c r="W18" s="55" t="s">
+      <c r="W18" s="66" t="s">
         <v>25</v>
       </c>
       <c r="Y18" s="19"/>
@@ -5712,7 +5560,7 @@
       </c>
       <c r="AC18" s="13"/>
       <c r="AD18" s="23"/>
-      <c r="AE18" s="78" t="s">
+      <c r="AE18" s="89" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5739,7 +5587,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
       <c r="V19" s="23"/>
-      <c r="W19" s="56"/>
+      <c r="W19" s="67"/>
       <c r="Y19" s="19"/>
       <c r="Z19" s="1">
         <f>IF(Z16 = 1, 0, 1)</f>
@@ -5749,7 +5597,7 @@
       <c r="AB19" s="13"/>
       <c r="AC19" s="13"/>
       <c r="AD19" s="23"/>
-      <c r="AE19" s="51"/>
+      <c r="AE19" s="61"/>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1">
       <c r="G20" s="17"/>
@@ -5784,19 +5632,19 @@
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
       <c r="V20" s="23"/>
-      <c r="W20" s="57"/>
+      <c r="W20" s="68"/>
       <c r="Y20" s="19"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
       <c r="AB20" s="13"/>
       <c r="AC20" s="13"/>
       <c r="AD20" s="23"/>
-      <c r="AE20" s="52"/>
+      <c r="AE20" s="62"/>
     </row>
     <row r="21" spans="1:34" ht="15" customHeight="1">
       <c r="A21" s="1">
         <f ca="1">IF(A1 = 0, A21, IF(AND(A1 = 1, C1 = 1, E1 = 0), 1, IF(AND(A1 = 1, C1 = 0, E1 = 1), 0, IF(AND(A1 = 1, C1 = 0, E1 = 0), A21, IF(AND(A1 = 1, C1 = 1, E1 = 1), IF(A21 = 1, 0, 1))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
@@ -5918,7 +5766,7 @@
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="18"/>
-      <c r="N24" s="58" t="s">
+      <c r="N24" s="69" t="s">
         <v>12</v>
       </c>
       <c r="O24" s="15"/>
@@ -5934,7 +5782,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="18"/>
-      <c r="N25" s="51"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="15"/>
       <c r="Q25" s="34"/>
       <c r="R25" s="35">
@@ -5991,7 +5839,7 @@
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="18"/>
-      <c r="N26" s="54"/>
+      <c r="N26" s="64"/>
       <c r="O26" s="15"/>
       <c r="Q26" s="17"/>
       <c r="R26" s="3">
@@ -6050,7 +5898,7 @@
       <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
       <c r="AG27" s="23"/>
-      <c r="AH27" s="50" t="s">
+      <c r="AH27" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6080,7 +5928,7 @@
       </c>
       <c r="W28" s="18"/>
       <c r="X28" s="18"/>
-      <c r="Y28" s="53" t="s">
+      <c r="Y28" s="63" t="s">
         <v>30</v>
       </c>
       <c r="AA28" s="19"/>
@@ -6096,7 +5944,7 @@
       </c>
       <c r="AF28" s="13"/>
       <c r="AG28" s="23"/>
-      <c r="AH28" s="51"/>
+      <c r="AH28" s="61"/>
     </row>
     <row r="29" spans="1:34" ht="15" customHeight="1">
       <c r="G29" s="17"/>
@@ -6122,7 +5970,7 @@
       <c r="V29" s="8"/>
       <c r="W29" s="9"/>
       <c r="X29" s="18"/>
-      <c r="Y29" s="51"/>
+      <c r="Y29" s="61"/>
       <c r="AA29" s="19"/>
       <c r="AB29" s="23"/>
       <c r="AC29" s="3">
@@ -6133,7 +5981,7 @@
       <c r="AE29" s="13"/>
       <c r="AF29" s="13"/>
       <c r="AG29" s="23"/>
-      <c r="AH29" s="52"/>
+      <c r="AH29" s="62"/>
     </row>
     <row r="30" spans="1:34" ht="15" customHeight="1">
       <c r="G30" s="17"/>
@@ -6172,7 +6020,7 @@
       <c r="V30" s="14"/>
       <c r="W30" s="15"/>
       <c r="X30" s="18"/>
-      <c r="Y30" s="54"/>
+      <c r="Y30" s="64"/>
       <c r="AA30" s="19"/>
       <c r="AB30" s="23"/>
       <c r="AC30" s="23"/>
@@ -6198,7 +6046,7 @@
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
-      <c r="W31" s="55" t="s">
+      <c r="W31" s="66" t="s">
         <v>10</v>
       </c>
       <c r="X31" s="18"/>
@@ -6251,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="14"/>
-      <c r="W32" s="56"/>
+      <c r="W32" s="67"/>
       <c r="X32" s="18"/>
       <c r="Y32" s="15"/>
     </row>
@@ -6277,7 +6125,7 @@
       </c>
       <c r="U33" s="13"/>
       <c r="V33" s="14"/>
-      <c r="W33" s="57"/>
+      <c r="W33" s="68"/>
       <c r="X33" s="18"/>
       <c r="Y33" s="15"/>
       <c r="AA33" s="37"/>
@@ -6375,7 +6223,7 @@
       <c r="AD35" s="23"/>
       <c r="AE35" s="23"/>
       <c r="AF35" s="23"/>
-      <c r="AG35" s="79" t="s">
+      <c r="AG35" s="65" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6390,7 +6238,7 @@
       </c>
       <c r="L36" s="13"/>
       <c r="M36" s="18"/>
-      <c r="N36" s="58" t="s">
+      <c r="N36" s="69" t="s">
         <v>12</v>
       </c>
       <c r="O36" s="15"/>
@@ -6421,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="AF36" s="23"/>
-      <c r="AG36" s="79"/>
+      <c r="AG36" s="65"/>
     </row>
     <row r="37" spans="7:33" ht="15" customHeight="1">
       <c r="G37" s="17"/>
@@ -6434,7 +6282,7 @@
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="18"/>
-      <c r="N37" s="51"/>
+      <c r="N37" s="61"/>
       <c r="O37" s="15"/>
       <c r="Q37" s="17"/>
       <c r="R37" s="27"/>
@@ -6461,7 +6309,7 @@
       <c r="AD37" s="23"/>
       <c r="AE37" s="23"/>
       <c r="AF37" s="23"/>
-      <c r="AG37" s="79"/>
+      <c r="AG37" s="65"/>
     </row>
     <row r="38" spans="7:33" ht="15" customHeight="1">
       <c r="G38" s="17"/>
@@ -6474,7 +6322,7 @@
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="18"/>
-      <c r="N38" s="54"/>
+      <c r="N38" s="64"/>
       <c r="O38" s="15"/>
       <c r="Q38" s="17"/>
       <c r="R38" s="18"/>
@@ -6603,7 +6451,7 @@
       <c r="T41" s="14"/>
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
-      <c r="W41" s="55" t="s">
+      <c r="W41" s="66" t="s">
         <v>10</v>
       </c>
       <c r="X41" s="18"/>
@@ -6655,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="14"/>
-      <c r="W42" s="56"/>
+      <c r="W42" s="67"/>
       <c r="X42" s="18"/>
       <c r="Y42" s="15"/>
       <c r="AA42" s="19"/>
@@ -6664,7 +6512,7 @@
       <c r="AD42" s="23"/>
       <c r="AE42" s="23"/>
       <c r="AF42" s="23"/>
-      <c r="AG42" s="80" t="s">
+      <c r="AG42" s="59" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6690,7 +6538,7 @@
       </c>
       <c r="U43" s="13"/>
       <c r="V43" s="14"/>
-      <c r="W43" s="57"/>
+      <c r="W43" s="68"/>
       <c r="X43" s="18"/>
       <c r="Y43" s="15"/>
       <c r="AA43" s="19"/>
@@ -6711,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="AF43" s="23"/>
-      <c r="AG43" s="80"/>
+      <c r="AG43" s="59"/>
     </row>
     <row r="44" spans="7:33" ht="15" customHeight="1">
       <c r="G44" s="17"/>
@@ -6756,7 +6604,7 @@
       <c r="AD44" s="23"/>
       <c r="AE44" s="23"/>
       <c r="AF44" s="23"/>
-      <c r="AG44" s="80"/>
+      <c r="AG44" s="59"/>
     </row>
     <row r="45" spans="7:33" ht="15" customHeight="1">
       <c r="G45" s="17"/>
@@ -6872,7 +6720,7 @@
       </c>
       <c r="L48" s="13"/>
       <c r="M48" s="18"/>
-      <c r="N48" s="58" t="s">
+      <c r="N48" s="69" t="s">
         <v>12</v>
       </c>
       <c r="O48" s="15"/>
@@ -6902,7 +6750,7 @@
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="18"/>
-      <c r="N49" s="51"/>
+      <c r="N49" s="61"/>
       <c r="O49" s="15"/>
       <c r="Q49" s="17"/>
       <c r="R49" s="4"/>
@@ -6931,7 +6779,7 @@
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="18"/>
-      <c r="N50" s="54"/>
+      <c r="N50" s="64"/>
       <c r="O50" s="15"/>
       <c r="Q50" s="17"/>
       <c r="R50" s="16"/>
@@ -6968,7 +6816,7 @@
       <c r="T51" s="14"/>
       <c r="U51" s="14"/>
       <c r="V51" s="14"/>
-      <c r="W51" s="55" t="s">
+      <c r="W51" s="66" t="s">
         <v>10</v>
       </c>
       <c r="X51" s="18"/>
@@ -6996,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="14"/>
-      <c r="W52" s="56"/>
+      <c r="W52" s="67"/>
       <c r="X52" s="18"/>
       <c r="Y52" s="15"/>
     </row>
@@ -7022,7 +6870,7 @@
       </c>
       <c r="U53" s="13"/>
       <c r="V53" s="14"/>
-      <c r="W53" s="57"/>
+      <c r="W53" s="68"/>
       <c r="X53" s="18"/>
       <c r="Y53" s="15"/>
     </row>
@@ -7218,7 +7066,7 @@
       </c>
       <c r="L60" s="13"/>
       <c r="M60" s="18"/>
-      <c r="N60" s="58" t="s">
+      <c r="N60" s="69" t="s">
         <v>12</v>
       </c>
       <c r="O60" s="15"/>
@@ -7252,7 +7100,7 @@
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="18"/>
-      <c r="N61" s="51"/>
+      <c r="N61" s="61"/>
       <c r="O61" s="15"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="16"/>
@@ -7260,7 +7108,7 @@
       <c r="T61" s="14"/>
       <c r="U61" s="14"/>
       <c r="V61" s="14"/>
-      <c r="W61" s="55" t="s">
+      <c r="W61" s="66" t="s">
         <v>10</v>
       </c>
       <c r="X61" s="18"/>
@@ -7277,7 +7125,7 @@
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
       <c r="M62" s="18"/>
-      <c r="N62" s="54"/>
+      <c r="N62" s="64"/>
       <c r="O62" s="15"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="16"/>
@@ -7288,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="14"/>
-      <c r="W62" s="56"/>
+      <c r="W62" s="67"/>
       <c r="X62" s="18"/>
       <c r="Y62" s="15"/>
     </row>
@@ -7314,7 +7162,7 @@
       </c>
       <c r="U63" s="13"/>
       <c r="V63" s="14"/>
-      <c r="W63" s="57"/>
+      <c r="W63" s="68"/>
       <c r="X63" s="18"/>
       <c r="Y63" s="15"/>
     </row>
@@ -7494,10 +7342,10 @@
         <f>IF(_xlfn.XOR(T67 = 1, T57 = 1), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="59" t="s">
+      <c r="S71" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="T71" s="60"/>
+      <c r="T71" s="71"/>
       <c r="U71" s="18"/>
       <c r="V71" s="18"/>
       <c r="W71" s="18"/>
@@ -7510,10 +7358,10 @@
         <f>T67</f>
         <v>0</v>
       </c>
-      <c r="S72" s="61" t="s">
+      <c r="S72" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="T72" s="62"/>
+      <c r="T72" s="73"/>
       <c r="U72" s="29">
         <f>U67</f>
         <v>0</v>
@@ -7543,1914 +7391,1914 @@
       </c>
     </row>
     <row r="80" spans="4:25" ht="15" customHeight="1">
-      <c r="D80" s="81"/>
-      <c r="E80" s="82"/>
-      <c r="F80" s="82"/>
-      <c r="G80" s="82"/>
-      <c r="H80" s="82"/>
-      <c r="I80" s="82"/>
-      <c r="J80" s="82" t="s">
+      <c r="D80" s="50"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="K80" s="82"/>
-      <c r="L80" s="83" t="s">
+      <c r="K80" s="51"/>
+      <c r="L80" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="N80" s="81"/>
-      <c r="O80" s="82"/>
-      <c r="P80" s="82" t="s">
+      <c r="N80" s="50"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="Q80" s="82"/>
-      <c r="R80" s="82"/>
-      <c r="S80" s="82"/>
-      <c r="T80" s="82"/>
-      <c r="U80" s="82"/>
-      <c r="V80" s="82"/>
-      <c r="W80" s="82"/>
-      <c r="X80" s="83"/>
+      <c r="Q80" s="51"/>
+      <c r="R80" s="51"/>
+      <c r="S80" s="51"/>
+      <c r="T80" s="51"/>
+      <c r="U80" s="51"/>
+      <c r="V80" s="51"/>
+      <c r="W80" s="51"/>
+      <c r="X80" s="52"/>
     </row>
     <row r="81" spans="4:24" ht="15" customHeight="1">
-      <c r="D81" s="84"/>
-      <c r="E81" s="85"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="85"/>
-      <c r="H81" s="85"/>
-      <c r="I81" s="85"/>
-      <c r="J81" s="85"/>
-      <c r="K81" s="85"/>
-      <c r="L81" s="86"/>
-      <c r="N81" s="84"/>
-      <c r="O81" s="85"/>
-      <c r="P81" s="85">
+      <c r="D81" s="53"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="54"/>
+      <c r="L81" s="55"/>
+      <c r="N81" s="53"/>
+      <c r="O81" s="54"/>
+      <c r="P81" s="54">
         <v>1</v>
       </c>
-      <c r="Q81" s="85">
-        <v>0</v>
-      </c>
-      <c r="R81" s="85">
+      <c r="Q81" s="54">
+        <v>0</v>
+      </c>
+      <c r="R81" s="54">
         <v>1</v>
       </c>
-      <c r="S81" s="85">
-        <v>1</v>
-      </c>
-      <c r="T81" s="85" t="s">
+      <c r="S81" s="54">
+        <v>0</v>
+      </c>
+      <c r="T81" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="U81" s="85"/>
-      <c r="V81" s="85" cm="1">
+      <c r="U81" s="54"/>
+      <c r="V81" s="54" cm="1">
         <f t="array" aca="1" ref="V81" ca="1">INDIRECT(ADDRESS(U84, U83 + R85))</f>
         <v>1</v>
       </c>
-      <c r="W81" s="85" t="s">
+      <c r="W81" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="X81" s="86"/>
+      <c r="X81" s="55"/>
     </row>
     <row r="82" spans="4:24" ht="15" customHeight="1">
-      <c r="D82" s="84"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="85"/>
-      <c r="K82" s="85"/>
-      <c r="L82" s="86"/>
-      <c r="N82" s="84"/>
-      <c r="O82" s="85"/>
-      <c r="P82" s="85"/>
-      <c r="Q82" s="85"/>
-      <c r="R82" s="85"/>
-      <c r="S82" s="85"/>
-      <c r="T82" s="85"/>
-      <c r="U82" s="85"/>
-      <c r="V82" s="85"/>
-      <c r="W82" s="85"/>
-      <c r="X82" s="86"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="54"/>
+      <c r="K82" s="54"/>
+      <c r="L82" s="55"/>
+      <c r="N82" s="53"/>
+      <c r="O82" s="54"/>
+      <c r="P82" s="54"/>
+      <c r="Q82" s="54"/>
+      <c r="R82" s="54"/>
+      <c r="S82" s="54"/>
+      <c r="T82" s="54"/>
+      <c r="U82" s="54"/>
+      <c r="V82" s="54"/>
+      <c r="W82" s="54"/>
+      <c r="X82" s="55"/>
     </row>
     <row r="83" spans="4:24" ht="15" customHeight="1">
-      <c r="D83" s="84"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="85"/>
-      <c r="G83" s="85" t="s">
+      <c r="D83" s="53"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="H83" s="85"/>
-      <c r="I83" s="85" t="s">
+      <c r="H83" s="54"/>
+      <c r="I83" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="J83" s="85"/>
-      <c r="K83" s="85" t="s">
+      <c r="J83" s="54"/>
+      <c r="K83" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="L83" s="86"/>
-      <c r="N83" s="84"/>
-      <c r="O83" s="85"/>
-      <c r="P83" s="85">
+      <c r="L83" s="55"/>
+      <c r="N83" s="53"/>
+      <c r="O83" s="54"/>
+      <c r="P83" s="54">
         <v>1010</v>
       </c>
-      <c r="Q83" s="85" t="s">
+      <c r="Q83" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="R83" s="85"/>
-      <c r="S83" s="85"/>
-      <c r="T83" s="85"/>
-      <c r="U83" s="85">
+      <c r="R83" s="54"/>
+      <c r="S83" s="54"/>
+      <c r="T83" s="54"/>
+      <c r="U83" s="54">
         <v>15</v>
       </c>
-      <c r="V83" s="85" t="s">
+      <c r="V83" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="W83" s="85"/>
-      <c r="X83" s="86"/>
+      <c r="W83" s="54"/>
+      <c r="X83" s="55"/>
     </row>
     <row r="84" spans="4:24" ht="15" customHeight="1">
-      <c r="D84" s="84"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="85"/>
-      <c r="G84" s="85"/>
-      <c r="H84" s="85"/>
-      <c r="I84" s="85"/>
-      <c r="J84" s="85"/>
-      <c r="K84" s="85"/>
-      <c r="L84" s="86"/>
-      <c r="N84" s="84"/>
-      <c r="O84" s="85"/>
-      <c r="P84" s="85"/>
-      <c r="Q84" s="85"/>
-      <c r="R84" s="85"/>
-      <c r="S84" s="85"/>
-      <c r="T84" s="85"/>
-      <c r="U84" s="85">
+      <c r="D84" s="53"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="54"/>
+      <c r="K84" s="54"/>
+      <c r="L84" s="55"/>
+      <c r="N84" s="53"/>
+      <c r="O84" s="54"/>
+      <c r="P84" s="54"/>
+      <c r="Q84" s="54"/>
+      <c r="R84" s="54"/>
+      <c r="S84" s="54"/>
+      <c r="T84" s="54"/>
+      <c r="U84" s="54">
         <v>81</v>
       </c>
-      <c r="V84" s="85" t="s">
+      <c r="V84" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="W84" s="85"/>
-      <c r="X84" s="86"/>
+      <c r="W84" s="54"/>
+      <c r="X84" s="55"/>
     </row>
     <row r="85" spans="4:24" ht="15" customHeight="1">
-      <c r="D85" s="84" t="s">
+      <c r="D85" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E85" s="85" t="s">
+      <c r="E85" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="F85" s="85"/>
-      <c r="G85" s="85"/>
-      <c r="H85" s="85"/>
-      <c r="I85" s="85"/>
-      <c r="J85" s="85"/>
-      <c r="K85" s="85"/>
-      <c r="L85" s="86"/>
-      <c r="N85" s="84" t="s">
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="55"/>
+      <c r="N85" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="O85" s="85"/>
-      <c r="P85" s="85" t="str">
+      <c r="O85" s="54"/>
+      <c r="P85" s="54" t="str">
         <f ca="1">MID(P83, R85, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q85" s="85"/>
-      <c r="R85" s="85">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="54"/>
+      <c r="R85" s="54">
         <f ca="1">IF(CLOCK = 1, IF(R85 = (LEN(P83) + 1), 1, R85 + 1),  R85)</f>
-        <v>5</v>
-      </c>
-      <c r="S85" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="S85" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="T85" s="85"/>
-      <c r="U85" s="85"/>
-      <c r="V85" s="85"/>
-      <c r="W85" s="85"/>
-      <c r="X85" s="86"/>
+      <c r="T85" s="54"/>
+      <c r="U85" s="54"/>
+      <c r="V85" s="54"/>
+      <c r="W85" s="54"/>
+      <c r="X85" s="55"/>
     </row>
     <row r="86" spans="4:24" ht="15" customHeight="1">
-      <c r="D86" s="84"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85" t="s">
+      <c r="D86" s="53"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G86" s="85"/>
-      <c r="H86" s="85"/>
-      <c r="I86" s="85"/>
-      <c r="J86" s="85" t="s">
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="K86" s="85"/>
-      <c r="L86" s="86"/>
-      <c r="N86" s="84"/>
-      <c r="O86" s="85"/>
-      <c r="P86" s="85"/>
-      <c r="Q86" s="85"/>
-      <c r="R86" s="85"/>
-      <c r="S86" s="85"/>
-      <c r="T86" s="85"/>
-      <c r="U86" s="85"/>
-      <c r="V86" s="85"/>
-      <c r="W86" s="85"/>
-      <c r="X86" s="86"/>
+      <c r="K86" s="54"/>
+      <c r="L86" s="55"/>
+      <c r="N86" s="53"/>
+      <c r="O86" s="54"/>
+      <c r="P86" s="54"/>
+      <c r="Q86" s="54"/>
+      <c r="R86" s="54"/>
+      <c r="S86" s="54"/>
+      <c r="T86" s="54"/>
+      <c r="U86" s="54"/>
+      <c r="V86" s="54"/>
+      <c r="W86" s="54"/>
+      <c r="X86" s="55"/>
     </row>
     <row r="87" spans="4:24" ht="15" customHeight="1">
-      <c r="D87" s="84"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85" t="s">
+      <c r="D87" s="53"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="G87" s="85"/>
-      <c r="H87" s="85"/>
-      <c r="I87" s="85"/>
-      <c r="J87" s="85"/>
-      <c r="K87" s="85"/>
-      <c r="L87" s="86"/>
-      <c r="N87" s="84"/>
-      <c r="O87" s="85"/>
-      <c r="P87" s="85">
+      <c r="G87" s="54"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="54"/>
+      <c r="K87" s="54"/>
+      <c r="L87" s="55"/>
+      <c r="N87" s="53"/>
+      <c r="O87" s="54"/>
+      <c r="P87" s="54">
         <v>1</v>
       </c>
-      <c r="Q87" s="85" t="s">
+      <c r="Q87" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="R87" s="85"/>
-      <c r="S87" s="85"/>
-      <c r="T87" s="85"/>
-      <c r="U87" s="85"/>
-      <c r="V87" s="85"/>
-      <c r="W87" s="85"/>
-      <c r="X87" s="86"/>
+      <c r="R87" s="54"/>
+      <c r="S87" s="54"/>
+      <c r="T87" s="54"/>
+      <c r="U87" s="54"/>
+      <c r="V87" s="54"/>
+      <c r="W87" s="54"/>
+      <c r="X87" s="55"/>
     </row>
     <row r="88" spans="4:24" ht="15" customHeight="1">
-      <c r="D88" s="84"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="85" t="s">
+      <c r="D88" s="53"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="I88" s="85"/>
-      <c r="J88" s="85"/>
-      <c r="K88" s="85"/>
-      <c r="L88" s="86"/>
-      <c r="N88" s="84"/>
-      <c r="O88" s="85"/>
-      <c r="P88" s="85"/>
-      <c r="Q88" s="85"/>
-      <c r="R88" s="85"/>
-      <c r="S88" s="85"/>
-      <c r="T88" s="85"/>
-      <c r="U88" s="85"/>
-      <c r="V88" s="85"/>
-      <c r="W88" s="85"/>
-      <c r="X88" s="86"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="54"/>
+      <c r="K88" s="54"/>
+      <c r="L88" s="55"/>
+      <c r="N88" s="53"/>
+      <c r="O88" s="54"/>
+      <c r="P88" s="54"/>
+      <c r="Q88" s="54"/>
+      <c r="R88" s="54"/>
+      <c r="S88" s="54"/>
+      <c r="T88" s="54"/>
+      <c r="U88" s="54"/>
+      <c r="V88" s="54"/>
+      <c r="W88" s="54"/>
+      <c r="X88" s="55"/>
     </row>
     <row r="89" spans="4:24" ht="15" customHeight="1">
-      <c r="D89" s="84"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="85"/>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
-      <c r="K89" s="85"/>
-      <c r="L89" s="86"/>
-      <c r="N89" s="84"/>
-      <c r="O89" s="85"/>
-      <c r="P89" s="85">
+      <c r="D89" s="53"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="54"/>
+      <c r="L89" s="55"/>
+      <c r="N89" s="53"/>
+      <c r="O89" s="54"/>
+      <c r="P89" s="54">
         <f ca="1">IF(CLOCK = 1, IF(P89 &gt;= P87, 0, P89 + 1), P89)</f>
-        <v>1</v>
-      </c>
-      <c r="Q89" s="85"/>
-      <c r="R89" s="85" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="54"/>
+      <c r="R89" s="54" t="str">
         <f ca="1">IF(P89 = P87, IF(LEN(R89) = LEN(P83), "", R89 &amp; P85), R89)</f>
-        <v>1010</v>
-      </c>
-      <c r="S89" s="85"/>
-      <c r="T89" s="85"/>
-      <c r="U89" s="85"/>
-      <c r="V89" s="85"/>
-      <c r="W89" s="85"/>
-      <c r="X89" s="86"/>
+        <v/>
+      </c>
+      <c r="S89" s="54"/>
+      <c r="T89" s="54"/>
+      <c r="U89" s="54"/>
+      <c r="V89" s="54"/>
+      <c r="W89" s="54"/>
+      <c r="X89" s="55"/>
     </row>
     <row r="90" spans="4:24" ht="15" customHeight="1">
-      <c r="D90" s="84"/>
-      <c r="E90" s="85"/>
-      <c r="F90" s="85"/>
-      <c r="G90" s="85"/>
-      <c r="H90" s="85"/>
-      <c r="I90" s="85"/>
-      <c r="J90" s="85"/>
-      <c r="K90" s="85"/>
-      <c r="L90" s="86"/>
-      <c r="N90" s="87"/>
-      <c r="O90" s="88"/>
-      <c r="P90" s="88" t="s">
+      <c r="D90" s="53"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="54"/>
+      <c r="L90" s="55"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="57"/>
+      <c r="P90" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="Q90" s="88"/>
-      <c r="R90" s="88" t="s">
+      <c r="Q90" s="57"/>
+      <c r="R90" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S90" s="88"/>
-      <c r="T90" s="88"/>
-      <c r="U90" s="88"/>
-      <c r="V90" s="88"/>
-      <c r="W90" s="88"/>
-      <c r="X90" s="89"/>
+      <c r="S90" s="57"/>
+      <c r="T90" s="57"/>
+      <c r="U90" s="57"/>
+      <c r="V90" s="57"/>
+      <c r="W90" s="57"/>
+      <c r="X90" s="58"/>
     </row>
     <row r="91" spans="4:24" ht="15" customHeight="1">
-      <c r="D91" s="84"/>
-      <c r="E91" s="85"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="85"/>
-      <c r="H91" s="85" t="s">
+      <c r="D91" s="53"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I91" s="85" t="s">
+      <c r="I91" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="J91" s="85"/>
-      <c r="K91" s="85"/>
-      <c r="L91" s="86"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="54"/>
+      <c r="L91" s="55"/>
     </row>
     <row r="92" spans="4:24" ht="15" customHeight="1">
-      <c r="D92" s="84"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="85"/>
-      <c r="I92" s="85"/>
-      <c r="J92" s="85"/>
-      <c r="K92" s="85"/>
-      <c r="L92" s="86"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="54"/>
+      <c r="L92" s="55"/>
     </row>
     <row r="93" spans="4:24" ht="15" customHeight="1">
-      <c r="D93" s="87"/>
-      <c r="E93" s="88"/>
-      <c r="F93" s="88"/>
-      <c r="G93" s="88" t="s">
+      <c r="D93" s="56"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H93" s="88" t="s">
+      <c r="H93" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="I93" s="88"/>
-      <c r="J93" s="88"/>
-      <c r="K93" s="88"/>
-      <c r="L93" s="89"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="57"/>
+      <c r="L93" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M5:M7"/>
     <mergeCell ref="X6:X8"/>
     <mergeCell ref="AF8:AF10"/>
     <mergeCell ref="O12:Q14"/>
     <mergeCell ref="N16:N18"/>
     <mergeCell ref="AE18:AE20"/>
     <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W51:W53"/>
     <mergeCell ref="W61:W63"/>
     <mergeCell ref="S71:T71"/>
     <mergeCell ref="S72:T72"/>
     <mergeCell ref="N60:N62"/>
-    <mergeCell ref="W31:W33"/>
+    <mergeCell ref="M5:M7"/>
     <mergeCell ref="N36:N38"/>
     <mergeCell ref="W41:W43"/>
     <mergeCell ref="N48:N50"/>
     <mergeCell ref="N24:N26"/>
+    <mergeCell ref="W51:W53"/>
     <mergeCell ref="AG42:AG44"/>
     <mergeCell ref="AH27:AH29"/>
     <mergeCell ref="Y28:Y30"/>
     <mergeCell ref="AG35:AG37"/>
+    <mergeCell ref="W31:W33"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 V12">
-    <cfRule type="cellIs" dxfId="381" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="161" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 V12">
-    <cfRule type="cellIs" dxfId="380" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="379" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="378" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="164" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="377" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="165" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="376" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="375" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="167" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="374" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="168" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="373" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="372" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11 R71">
-    <cfRule type="cellIs" dxfId="371" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="171" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11 R71">
-    <cfRule type="cellIs" dxfId="370" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="172" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="369" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="173" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="368" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="367" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="175" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="366" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="176" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="365" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="177" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="364" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="363" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="179" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="362" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="180" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="361" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="181" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="360" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="359" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="183" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="358" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="184" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="357" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="185" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="356" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="355" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="187" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="354" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="188" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="353" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="189" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="352" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="351" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="191" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="350" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="192" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:U8">
-    <cfRule type="cellIs" dxfId="349" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="193" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:U8">
-    <cfRule type="cellIs" dxfId="348" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="194" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="cellIs" dxfId="347" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="195" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="cellIs" dxfId="346" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="196" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="345" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="197" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="344" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="343" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="199" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="342" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="200" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="341" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="201" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="340" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="cellIs" dxfId="339" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="203" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="cellIs" dxfId="338" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="204" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J5">
-    <cfRule type="cellIs" dxfId="337" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="205" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J5">
-    <cfRule type="cellIs" dxfId="336" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="206" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="335" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="207" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="334" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="208" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="333" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="209" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="332" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" dxfId="331" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="211" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" dxfId="330" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="212" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" dxfId="329" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="213" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" dxfId="328" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="327" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="215" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="326" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="216" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="325" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="217" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="324" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="218" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="323" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="219" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="322" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="220" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="321" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="221" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="320" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="222" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="319" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="223" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="318" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="224" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="317" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="225" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="316" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="226" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z16">
-    <cfRule type="cellIs" dxfId="315" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="227" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z16">
-    <cfRule type="cellIs" dxfId="314" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="228" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16">
-    <cfRule type="cellIs" dxfId="313" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="229" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16">
-    <cfRule type="cellIs" dxfId="312" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="230" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z19">
-    <cfRule type="cellIs" dxfId="311" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="231" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z19">
-    <cfRule type="cellIs" dxfId="310" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="232" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z21">
-    <cfRule type="cellIs" dxfId="309" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="233" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z21">
-    <cfRule type="cellIs" dxfId="308" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="234" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="cellIs" dxfId="307" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="235" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="cellIs" dxfId="306" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="236" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18">
-    <cfRule type="cellIs" dxfId="305" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="237" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18">
-    <cfRule type="cellIs" dxfId="304" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="238" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB23">
-    <cfRule type="cellIs" dxfId="303" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="239" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB23">
-    <cfRule type="cellIs" dxfId="302" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="240" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="301" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="241" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="300" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="242" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="cellIs" dxfId="299" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="243" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="cellIs" dxfId="298" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="244" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="cellIs" dxfId="297" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="245" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="cellIs" dxfId="296" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="246" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="295" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="247" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="294" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="248" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="293" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="249" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="292" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="250" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="291" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="251" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="290" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="252" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="289" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="253" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="288" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="254" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="287" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="255" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="286" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="256" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="285" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="257" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="284" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="258" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="283" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="259" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="282" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="260" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="281" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="261" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="280" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="262" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="279" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="263" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="278" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="264" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="277" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="265" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="276" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="266" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="275" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="267" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="274" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="268" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="cellIs" dxfId="273" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="269" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="cellIs" dxfId="272" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="270" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="271" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="271" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="270" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="272" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="269" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="273" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="268" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="274" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="267" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="275" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="266" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="276" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="265" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="277" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="264" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="278" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="263" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="279" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="262" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="280" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="261" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="281" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="260" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="282" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="cellIs" dxfId="259" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="283" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="cellIs" dxfId="258" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="284" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="257" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="285" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="256" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="255" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="287" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="254" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="288" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="253" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="289" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="252" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="290" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="cellIs" dxfId="251" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="291" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="cellIs" dxfId="250" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="292" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48">
-    <cfRule type="cellIs" dxfId="249" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="293" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48">
-    <cfRule type="cellIs" dxfId="248" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="294" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="247" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="295" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="246" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="296" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="245" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="297" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="244" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="298" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="243" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="299" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="242" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="300" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="241" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="301" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="240" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="302" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44">
-    <cfRule type="cellIs" dxfId="239" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="303" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44">
-    <cfRule type="cellIs" dxfId="238" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="304" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="237" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="305" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="236" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="306" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47">
-    <cfRule type="cellIs" dxfId="235" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="307" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47">
-    <cfRule type="cellIs" dxfId="234" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="308" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="cellIs" dxfId="233" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="309" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="cellIs" dxfId="232" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="310" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="231" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="311" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="230" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="312" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="229" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="313" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="228" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="cellIs" dxfId="227" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="315" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="cellIs" dxfId="226" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="316" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
-    <cfRule type="cellIs" dxfId="225" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="317" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
-    <cfRule type="cellIs" dxfId="224" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="318" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62">
-    <cfRule type="cellIs" dxfId="223" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="319" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62">
-    <cfRule type="cellIs" dxfId="222" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="320" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="221" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="321" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="220" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="322" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="219" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="323" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="218" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="324" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56">
-    <cfRule type="cellIs" dxfId="217" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="325" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56">
-    <cfRule type="cellIs" dxfId="216" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="326" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56">
-    <cfRule type="cellIs" dxfId="215" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="327" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56">
-    <cfRule type="cellIs" dxfId="214" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="328" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="213" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="329" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="212" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="330" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59">
-    <cfRule type="cellIs" dxfId="211" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="331" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59">
-    <cfRule type="cellIs" dxfId="210" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="332" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66">
-    <cfRule type="cellIs" dxfId="209" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="333" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66">
-    <cfRule type="cellIs" dxfId="208" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="334" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="207" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="335" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="206" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="336" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:K17">
-    <cfRule type="cellIs" dxfId="205" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="337" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:K17">
-    <cfRule type="cellIs" dxfId="204" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="338" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="203" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="339" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="202" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="340" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:M68">
-    <cfRule type="cellIs" dxfId="201" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="341" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:M68">
-    <cfRule type="cellIs" dxfId="200" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="342" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U37">
-    <cfRule type="cellIs" dxfId="199" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="343" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U37">
-    <cfRule type="cellIs" dxfId="198" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="344" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:T33">
-    <cfRule type="cellIs" dxfId="197" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="345" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:T33">
-    <cfRule type="cellIs" dxfId="196" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:U30">
-    <cfRule type="cellIs" dxfId="195" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="347" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:U30">
-    <cfRule type="cellIs" dxfId="194" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="348" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35">
-    <cfRule type="cellIs" dxfId="193" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="349" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35">
-    <cfRule type="cellIs" dxfId="192" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="350" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T37">
-    <cfRule type="cellIs" dxfId="191" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="351" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T37">
-    <cfRule type="cellIs" dxfId="190" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="352" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32">
-    <cfRule type="cellIs" dxfId="189" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="353" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32">
-    <cfRule type="cellIs" dxfId="188" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="354" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34">
-    <cfRule type="cellIs" dxfId="187" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="355" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34">
-    <cfRule type="cellIs" dxfId="186" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="356" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47">
-    <cfRule type="cellIs" dxfId="185" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="357" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47">
-    <cfRule type="cellIs" dxfId="184" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="358" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:T43">
-    <cfRule type="cellIs" dxfId="183" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="359" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:T43">
-    <cfRule type="cellIs" dxfId="182" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="360" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40:U40">
-    <cfRule type="cellIs" dxfId="181" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="361" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40:U40">
-    <cfRule type="cellIs" dxfId="180" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="362" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T45">
-    <cfRule type="cellIs" dxfId="179" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="363" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T45">
-    <cfRule type="cellIs" dxfId="178" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="364" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T47">
-    <cfRule type="cellIs" dxfId="177" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="365" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T47">
-    <cfRule type="cellIs" dxfId="176" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="366" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42">
-    <cfRule type="cellIs" dxfId="175" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="367" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42">
-    <cfRule type="cellIs" dxfId="174" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="368" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U44">
-    <cfRule type="cellIs" dxfId="173" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="369" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U44">
-    <cfRule type="cellIs" dxfId="172" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="370" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U57">
-    <cfRule type="cellIs" dxfId="171" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="371" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U57">
-    <cfRule type="cellIs" dxfId="170" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="372" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S53:T53">
-    <cfRule type="cellIs" dxfId="169" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="373" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S53:T53">
-    <cfRule type="cellIs" dxfId="168" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S50:U50">
-    <cfRule type="cellIs" dxfId="167" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="375" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S50:U50">
-    <cfRule type="cellIs" dxfId="166" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="376" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="cellIs" dxfId="165" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="377" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="cellIs" dxfId="164" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="378" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T57">
-    <cfRule type="cellIs" dxfId="163" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="379" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T57">
-    <cfRule type="cellIs" dxfId="162" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="380" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U52">
-    <cfRule type="cellIs" dxfId="161" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="381" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U52">
-    <cfRule type="cellIs" dxfId="160" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="382" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54">
-    <cfRule type="cellIs" dxfId="159" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="383" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54">
-    <cfRule type="cellIs" dxfId="158" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="384" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U67">
-    <cfRule type="cellIs" dxfId="157" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="385" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U67">
-    <cfRule type="cellIs" dxfId="156" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="386" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S63:T63">
-    <cfRule type="cellIs" dxfId="155" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="387" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S63:T63">
-    <cfRule type="cellIs" dxfId="154" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="388" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S60:U60">
-    <cfRule type="cellIs" dxfId="153" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="389" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S60:U60">
-    <cfRule type="cellIs" dxfId="152" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="390" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T65">
-    <cfRule type="cellIs" dxfId="151" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="391" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T65">
-    <cfRule type="cellIs" dxfId="150" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="392" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T67">
-    <cfRule type="cellIs" dxfId="149" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="393" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T67">
-    <cfRule type="cellIs" dxfId="148" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="394" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U62">
-    <cfRule type="cellIs" dxfId="147" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="395" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U62">
-    <cfRule type="cellIs" dxfId="146" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="396" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U64">
-    <cfRule type="cellIs" dxfId="145" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="397" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U64">
-    <cfRule type="cellIs" dxfId="144" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="398" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:U26">
-    <cfRule type="cellIs" dxfId="143" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="399" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:U26">
-    <cfRule type="cellIs" dxfId="142" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="400" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="cellIs" dxfId="141" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="401" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="cellIs" dxfId="140" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="402" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R71:R72">
-    <cfRule type="cellIs" dxfId="139" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="403" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R71:R72">
-    <cfRule type="cellIs" dxfId="138" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="404" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U72:X72">
-    <cfRule type="cellIs" dxfId="137" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="405" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U72:X72">
-    <cfRule type="cellIs" dxfId="136" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="406" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="135" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="407" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="134" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="408" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U38">
-    <cfRule type="cellIs" dxfId="133" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="409" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U38">
-    <cfRule type="cellIs" dxfId="132" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="410" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U48">
-    <cfRule type="cellIs" dxfId="131" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="411" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U48">
-    <cfRule type="cellIs" dxfId="130" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="412" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U58">
-    <cfRule type="cellIs" dxfId="129" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="413" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U58">
-    <cfRule type="cellIs" dxfId="128" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="414" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7">
-    <cfRule type="cellIs" dxfId="127" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="415" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7">
-    <cfRule type="cellIs" dxfId="126" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="416" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6">
-    <cfRule type="cellIs" dxfId="125" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="417" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6">
-    <cfRule type="cellIs" dxfId="124" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="418" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8">
-    <cfRule type="cellIs" dxfId="123" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="419" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8">
-    <cfRule type="cellIs" dxfId="122" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="420" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="cellIs" dxfId="121" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="421" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="cellIs" dxfId="120" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="422" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9">
-    <cfRule type="cellIs" dxfId="119" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="423" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9">
-    <cfRule type="cellIs" dxfId="118" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="424" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
-    <cfRule type="cellIs" dxfId="117" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="425" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
-    <cfRule type="cellIs" dxfId="116" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="426" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4">
-    <cfRule type="cellIs" dxfId="115" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="427" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4">
-    <cfRule type="cellIs" dxfId="114" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="428" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4">
-    <cfRule type="cellIs" dxfId="113" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="429" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4">
-    <cfRule type="cellIs" dxfId="112" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="430" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12">
-    <cfRule type="cellIs" dxfId="111" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="431" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12">
-    <cfRule type="cellIs" dxfId="110" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="432" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7">
-    <cfRule type="cellIs" dxfId="109" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="433" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7">
-    <cfRule type="cellIs" dxfId="108" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="434" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC14">
-    <cfRule type="cellIs" dxfId="107" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="435" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC14">
-    <cfRule type="cellIs" dxfId="106" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="436" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14">
-    <cfRule type="cellIs" dxfId="105" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="437" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14">
-    <cfRule type="cellIs" dxfId="104" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="438" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="103" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="439" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="102" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="440" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="101" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="441" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="100" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="442" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="cellIs" dxfId="99" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="443" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="cellIs" dxfId="98" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="444" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="97" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="445" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="96" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="446" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB25">
-    <cfRule type="cellIs" dxfId="95" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="159" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB25">
-    <cfRule type="cellIs" dxfId="94" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="160" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25">
-    <cfRule type="cellIs" dxfId="93" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="157" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25">
-    <cfRule type="cellIs" dxfId="92" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF25">
-    <cfRule type="cellIs" dxfId="91" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="155" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF25">
-    <cfRule type="cellIs" dxfId="90" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="156" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC27">
-    <cfRule type="cellIs" dxfId="89" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="153" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC27">
-    <cfRule type="cellIs" dxfId="88" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD28">
-    <cfRule type="cellIs" dxfId="87" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="151" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD28">
-    <cfRule type="cellIs" dxfId="86" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="152" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE28">
-    <cfRule type="cellIs" dxfId="85" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="149" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE28">
-    <cfRule type="cellIs" dxfId="84" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC29">
-    <cfRule type="cellIs" dxfId="83" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="147" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC29">
-    <cfRule type="cellIs" dxfId="82" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="148" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC31">
-    <cfRule type="cellIs" dxfId="81" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC31">
-    <cfRule type="cellIs" dxfId="80" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="79" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="143" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="78" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="144" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="cellIs" dxfId="77" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="141" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="cellIs" dxfId="76" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CPU in Excel MAIN.xlsx
+++ b/CPU in Excel MAIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\ePU-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF1570B-15F3-4855-BD4A-79567CE36E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7E9546-2675-4F83-90F5-1E998878C84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="56">
   <si>
     <t>CLOCK</t>
   </si>
@@ -185,43 +185,7 @@
     <t>4-BIT AND</t>
   </si>
   <si>
-    <t>4-4 AND</t>
-  </si>
-  <si>
-    <t>4-4 OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP1 </t>
-  </si>
-  <si>
-    <t>OP2</t>
-  </si>
-  <si>
-    <t>4BITB</t>
-  </si>
-  <si>
-    <t>4BITA</t>
-  </si>
-  <si>
-    <t>MUX</t>
-  </si>
-  <si>
-    <t>ALU</t>
-  </si>
-  <si>
-    <t>ADD/SUB</t>
-  </si>
-  <si>
-    <t>4BIT OUT</t>
-  </si>
-  <si>
-    <t>4-1 OR</t>
-  </si>
-  <si>
     <t>ZERO</t>
-  </si>
-  <si>
-    <t>NEG</t>
   </si>
   <si>
     <t>SET DELAY</t>
@@ -266,24 +230,34 @@
     <t>2(1bit)-1 MUX</t>
   </si>
   <si>
-    <t>OP1</t>
+    <t>NEGATIVE</t>
   </si>
   <si>
-    <t>FIX THE INPUTS FOR THIS</t>
+    <t>4-BIT ALU</t>
   </si>
   <si>
-    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+    <t>MATH/LOGIC</t>
+  </si>
+  <si>
+    <t>ADD/SUB AND/OR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,6 +292,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -339,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -1153,73 +1133,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF339933"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF339933"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
@@ -1229,115 +1220,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="484">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE7E6E6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3F3F3F"/>
-          <bgColor rgb="FF3F3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="482">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -6128,13 +6120,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI144"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="AB142" sqref="AB142"/>
+    <sheetView tabSelected="1" topLeftCell="D133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P158" sqref="P158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="11" width="8.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -6238,11 +6233,11 @@
       <c r="I5" s="12"/>
       <c r="J5" s="1">
         <f ca="1">IF(CLOCK = 0, J5, IF(AND(CLOCK = 1,JK.1 = 1,JK.1 = 0), 0, IF(AND(CLOCK = 1,JK.1 = 0,JK.1 = 1), 1, IF(AND(CLOCK = 1,JK.1 = 0, JK.1 = 0), J5, IF(AND(CLOCK = 1,JK.1 = 1,JK.1 = 1), IF(JK.2 = 1, 0, 1))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="13"/>
-      <c r="M5" s="72" t="s">
+      <c r="M5" s="99" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="13"/>
@@ -6280,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="13"/>
-      <c r="M6" s="73"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -6290,7 +6285,7 @@
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
       <c r="W6" s="13"/>
-      <c r="X6" s="64" t="s">
+      <c r="X6" s="72" t="s">
         <v>10</v>
       </c>
       <c r="Z6" s="18"/>
@@ -6317,11 +6312,11 @@
       <c r="I7" s="12"/>
       <c r="J7" s="1">
         <f ca="1">IF(CLOCK = 0, J7, IF(AND(CLOCK = 1,AND.1 = 1,AND.1 = 0), 0, IF(AND(CLOCK = 1,AND.1 = 0,AND.1 = 1), 1, IF(AND(CLOCK = 1,AND.1 = 0,AND.1 = 0), J7, IF(AND(CLOCK = 1,AND.1 = 1,AND.1 = 1), IF(JK.3 = 1, 0, 1))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="74"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
@@ -6334,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="13"/>
-      <c r="X7" s="65"/>
+      <c r="X7" s="73"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="1">
         <f>IF(AD4 = 1, 0, 1)</f>
@@ -6376,7 +6371,7 @@
       </c>
       <c r="V8" s="12"/>
       <c r="W8" s="13"/>
-      <c r="X8" s="66"/>
+      <c r="X8" s="74"/>
       <c r="Z8" s="18"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
@@ -6386,7 +6381,7 @@
       </c>
       <c r="AD8" s="12"/>
       <c r="AE8" s="17"/>
-      <c r="AF8" s="71" t="s">
+      <c r="AF8" s="85" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6430,7 +6425,7 @@
       <c r="AC9" s="12"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="17"/>
-      <c r="AF9" s="59"/>
+      <c r="AF9" s="70"/>
     </row>
     <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -6463,7 +6458,7 @@
       <c r="AC10" s="12"/>
       <c r="AD10" s="12"/>
       <c r="AE10" s="17"/>
-      <c r="AF10" s="62"/>
+      <c r="AF10" s="80"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -6509,14 +6504,14 @@
       </c>
       <c r="I12" s="1">
         <f ca="1">IF(JK.3 = 1, 0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="1">
         <f ca="1">IF(JK.2 = 1, 0, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>8</v>
@@ -6528,11 +6523,11 @@
       <c r="N12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="75" t="s">
+      <c r="O12" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="77"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="88"/>
       <c r="S12" s="26"/>
       <c r="T12" s="27" t="s">
         <v>4</v>
@@ -6576,9 +6571,9 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
       <c r="N13" s="22"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="80"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="91"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="17"/>
       <c r="AB13" s="17"/>
@@ -6598,14 +6593,14 @@
       </c>
       <c r="I14" s="28">
         <f ca="1">NOT.3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="27" t="s">
         <v>19</v>
       </c>
       <c r="K14" s="28">
         <f ca="1">NOT.2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="27" t="s">
         <v>20</v>
@@ -6617,9 +6612,9 @@
       <c r="N14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="81"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="83"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
       <c r="Z14" s="31"/>
       <c r="AA14" s="28">
         <f>AA12</f>
@@ -6666,7 +6661,7 @@
         <v>5</v>
       </c>
       <c r="M16" s="34"/>
-      <c r="N16" s="84" t="s">
+      <c r="N16" s="95" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="8"/>
@@ -6726,7 +6721,7 @@
         <v>6</v>
       </c>
       <c r="M17" s="17"/>
-      <c r="N17" s="85"/>
+      <c r="N17" s="96"/>
       <c r="O17" s="14"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="13"/>
@@ -6751,7 +6746,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="86"/>
+      <c r="N18" s="97"/>
       <c r="O18" s="14"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="12"/>
@@ -6762,7 +6757,7 @@
       </c>
       <c r="U18" s="12"/>
       <c r="V18" s="22"/>
-      <c r="W18" s="64" t="s">
+      <c r="W18" s="72" t="s">
         <v>25</v>
       </c>
       <c r="Y18" s="18"/>
@@ -6774,7 +6769,7 @@
       </c>
       <c r="AC18" s="12"/>
       <c r="AD18" s="22"/>
-      <c r="AE18" s="87" t="s">
+      <c r="AE18" s="98" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6801,7 +6796,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="22"/>
-      <c r="W19" s="65"/>
+      <c r="W19" s="73"/>
       <c r="Y19" s="18"/>
       <c r="Z19" s="1">
         <f>IF(Z16 = 1, 0, 1)</f>
@@ -6811,7 +6806,7 @@
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
       <c r="AD19" s="22"/>
-      <c r="AE19" s="59"/>
+      <c r="AE19" s="70"/>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G20" s="16"/>
@@ -6846,14 +6841,14 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="22"/>
-      <c r="W20" s="66"/>
+      <c r="W20" s="74"/>
       <c r="Y20" s="18"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
       <c r="AD20" s="22"/>
-      <c r="AE20" s="60"/>
+      <c r="AE20" s="71"/>
     </row>
     <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -6980,7 +6975,7 @@
       </c>
       <c r="L24" s="12"/>
       <c r="M24" s="17"/>
-      <c r="N24" s="71" t="s">
+      <c r="N24" s="85" t="s">
         <v>12</v>
       </c>
       <c r="O24" s="14"/>
@@ -6996,7 +6991,7 @@
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="17"/>
-      <c r="N25" s="59"/>
+      <c r="N25" s="70"/>
       <c r="O25" s="14"/>
       <c r="Q25" s="33"/>
       <c r="R25" s="6">
@@ -7053,7 +7048,7 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="62"/>
+      <c r="N26" s="80"/>
       <c r="O26" s="14"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="1">
@@ -7112,8 +7107,8 @@
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
       <c r="AG27" s="22"/>
-      <c r="AH27" s="58" t="s">
-        <v>63</v>
+      <c r="AH27" s="69" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7142,7 +7137,7 @@
       </c>
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
-      <c r="Y28" s="61" t="s">
+      <c r="Y28" s="103" t="s">
         <v>30</v>
       </c>
       <c r="AA28" s="18"/>
@@ -7158,7 +7153,7 @@
       </c>
       <c r="AF28" s="12"/>
       <c r="AG28" s="22"/>
-      <c r="AH28" s="59"/>
+      <c r="AH28" s="70"/>
     </row>
     <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G29" s="16"/>
@@ -7184,7 +7179,7 @@
       <c r="V29" s="7"/>
       <c r="W29" s="8"/>
       <c r="X29" s="17"/>
-      <c r="Y29" s="59"/>
+      <c r="Y29" s="70"/>
       <c r="AA29" s="18"/>
       <c r="AB29" s="22"/>
       <c r="AC29" s="1">
@@ -7195,7 +7190,7 @@
       <c r="AE29" s="12"/>
       <c r="AF29" s="12"/>
       <c r="AG29" s="22"/>
-      <c r="AH29" s="60"/>
+      <c r="AH29" s="71"/>
     </row>
     <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G30" s="16"/>
@@ -7234,7 +7229,7 @@
       <c r="V30" s="13"/>
       <c r="W30" s="14"/>
       <c r="X30" s="17"/>
-      <c r="Y30" s="62"/>
+      <c r="Y30" s="80"/>
       <c r="AA30" s="18"/>
       <c r="AB30" s="22"/>
       <c r="AC30" s="22"/>
@@ -7260,7 +7255,7 @@
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
-      <c r="W31" s="64" t="s">
+      <c r="W31" s="72" t="s">
         <v>10</v>
       </c>
       <c r="X31" s="17"/>
@@ -7313,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="13"/>
-      <c r="W32" s="65"/>
+      <c r="W32" s="73"/>
       <c r="X32" s="17"/>
       <c r="Y32" s="14"/>
     </row>
@@ -7339,20 +7334,20 @@
       </c>
       <c r="U33" s="12"/>
       <c r="V33" s="13"/>
-      <c r="W33" s="66"/>
+      <c r="W33" s="74"/>
       <c r="X33" s="17"/>
       <c r="Y33" s="14"/>
       <c r="AA33" s="35"/>
-      <c r="AB33" s="88">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="88">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="88">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="88">
+      <c r="AB33" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="57">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="57">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="57">
         <v>0</v>
       </c>
       <c r="AF33" s="47" t="s">
@@ -7437,7 +7432,7 @@
       <c r="AD35" s="22"/>
       <c r="AE35" s="22"/>
       <c r="AF35" s="22"/>
-      <c r="AG35" s="63" t="s">
+      <c r="AG35" s="84" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7452,7 +7447,7 @@
       </c>
       <c r="L36" s="12"/>
       <c r="M36" s="17"/>
-      <c r="N36" s="71" t="s">
+      <c r="N36" s="85" t="s">
         <v>12</v>
       </c>
       <c r="O36" s="14"/>
@@ -7483,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="AF36" s="22"/>
-      <c r="AG36" s="63"/>
+      <c r="AG36" s="84"/>
     </row>
     <row r="37" spans="7:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G37" s="16"/>
@@ -7496,7 +7491,7 @@
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="17"/>
-      <c r="N37" s="59"/>
+      <c r="N37" s="70"/>
       <c r="O37" s="14"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="26"/>
@@ -7523,7 +7518,7 @@
       <c r="AD37" s="22"/>
       <c r="AE37" s="22"/>
       <c r="AF37" s="22"/>
-      <c r="AG37" s="63"/>
+      <c r="AG37" s="84"/>
     </row>
     <row r="38" spans="7:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G38" s="16"/>
@@ -7536,7 +7531,7 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="17"/>
-      <c r="N38" s="62"/>
+      <c r="N38" s="80"/>
       <c r="O38" s="14"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="17"/>
@@ -7632,16 +7627,16 @@
       <c r="X40" s="17"/>
       <c r="Y40" s="14"/>
       <c r="AA40" s="35"/>
-      <c r="AB40" s="88">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="88">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="88">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="88">
+      <c r="AB40" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="57">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="57">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="57">
         <v>0</v>
       </c>
       <c r="AF40" s="47" t="s">
@@ -7665,7 +7660,7 @@
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
-      <c r="W41" s="64" t="s">
+      <c r="W41" s="72" t="s">
         <v>10</v>
       </c>
       <c r="X41" s="17"/>
@@ -7717,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="13"/>
-      <c r="W42" s="65"/>
+      <c r="W42" s="73"/>
       <c r="X42" s="17"/>
       <c r="Y42" s="14"/>
       <c r="AA42" s="18"/>
@@ -7726,7 +7721,7 @@
       <c r="AD42" s="22"/>
       <c r="AE42" s="22"/>
       <c r="AF42" s="22"/>
-      <c r="AG42" s="57" t="s">
+      <c r="AG42" s="102" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7752,7 +7747,7 @@
       </c>
       <c r="U43" s="12"/>
       <c r="V43" s="13"/>
-      <c r="W43" s="66"/>
+      <c r="W43" s="74"/>
       <c r="X43" s="17"/>
       <c r="Y43" s="14"/>
       <c r="AA43" s="18"/>
@@ -7773,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="AF43" s="22"/>
-      <c r="AG43" s="57"/>
+      <c r="AG43" s="102"/>
     </row>
     <row r="44" spans="7:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G44" s="16"/>
@@ -7818,7 +7813,7 @@
       <c r="AD44" s="22"/>
       <c r="AE44" s="22"/>
       <c r="AF44" s="22"/>
-      <c r="AG44" s="57"/>
+      <c r="AG44" s="102"/>
     </row>
     <row r="45" spans="7:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G45" s="16"/>
@@ -7923,16 +7918,16 @@
       <c r="X47" s="17"/>
       <c r="Y47" s="14"/>
       <c r="AA47" s="35"/>
-      <c r="AB47" s="88">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="88">
+      <c r="AB47" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="57">
         <v>1</v>
       </c>
-      <c r="AD47" s="88">
+      <c r="AD47" s="57">
         <v>1</v>
       </c>
-      <c r="AE47" s="88">
+      <c r="AE47" s="57">
         <v>1</v>
       </c>
       <c r="AF47" s="47" t="s">
@@ -7957,7 +7952,7 @@
       </c>
       <c r="L48" s="12"/>
       <c r="M48" s="17"/>
-      <c r="N48" s="71" t="s">
+      <c r="N48" s="85" t="s">
         <v>12</v>
       </c>
       <c r="O48" s="14"/>
@@ -8006,7 +8001,7 @@
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="17"/>
-      <c r="N49" s="59"/>
+      <c r="N49" s="70"/>
       <c r="O49" s="14"/>
       <c r="Q49" s="16"/>
       <c r="R49" s="3"/>
@@ -8044,7 +8039,7 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="17"/>
-      <c r="N50" s="62"/>
+      <c r="N50" s="80"/>
       <c r="O50" s="14"/>
       <c r="Q50" s="16"/>
       <c r="R50" s="15"/>
@@ -8093,7 +8088,7 @@
       <c r="T51" s="13"/>
       <c r="U51" s="13"/>
       <c r="V51" s="13"/>
-      <c r="W51" s="64" t="s">
+      <c r="W51" s="72" t="s">
         <v>10</v>
       </c>
       <c r="X51" s="17"/>
@@ -8136,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="13"/>
-      <c r="W52" s="65"/>
+      <c r="W52" s="73"/>
       <c r="X52" s="17"/>
       <c r="Y52" s="14"/>
       <c r="AA52" s="18"/>
@@ -8174,7 +8169,7 @@
       </c>
       <c r="U53" s="12"/>
       <c r="V53" s="13"/>
-      <c r="W53" s="66"/>
+      <c r="W53" s="74"/>
       <c r="X53" s="17"/>
       <c r="Y53" s="14"/>
       <c r="AA53" s="18"/>
@@ -8315,8 +8310,8 @@
       <c r="AF56" s="22"/>
       <c r="AG56" s="22"/>
       <c r="AH56" s="22"/>
-      <c r="AI56" s="58" t="s">
-        <v>62</v>
+      <c r="AI56" s="69" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="7:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8356,7 +8351,7 @@
       <c r="AF57" s="22"/>
       <c r="AG57" s="22"/>
       <c r="AH57" s="22"/>
-      <c r="AI57" s="59"/>
+      <c r="AI57" s="70"/>
     </row>
     <row r="58" spans="7:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G58" s="16"/>
@@ -8396,7 +8391,7 @@
       <c r="AF58" s="22"/>
       <c r="AG58" s="22"/>
       <c r="AH58" s="22"/>
-      <c r="AI58" s="60"/>
+      <c r="AI58" s="71"/>
     </row>
     <row r="59" spans="7:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G59" s="16"/>
@@ -8456,7 +8451,7 @@
       </c>
       <c r="L60" s="12"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="71" t="s">
+      <c r="N60" s="85" t="s">
         <v>12</v>
       </c>
       <c r="O60" s="14"/>
@@ -8502,7 +8497,7 @@
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
       <c r="M61" s="17"/>
-      <c r="N61" s="59"/>
+      <c r="N61" s="70"/>
       <c r="O61" s="14"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="15"/>
@@ -8510,7 +8505,7 @@
       <c r="T61" s="13"/>
       <c r="U61" s="13"/>
       <c r="V61" s="13"/>
-      <c r="W61" s="64" t="s">
+      <c r="W61" s="72" t="s">
         <v>10</v>
       </c>
       <c r="X61" s="17"/>
@@ -8536,7 +8531,7 @@
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="17"/>
-      <c r="N62" s="62"/>
+      <c r="N62" s="80"/>
       <c r="O62" s="14"/>
       <c r="Q62" s="16"/>
       <c r="R62" s="15"/>
@@ -8547,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="13"/>
-      <c r="W62" s="65"/>
+      <c r="W62" s="73"/>
       <c r="X62" s="17"/>
       <c r="Y62" s="14"/>
       <c r="AA62" s="18"/>
@@ -8585,7 +8580,7 @@
       </c>
       <c r="U63" s="12"/>
       <c r="V63" s="13"/>
-      <c r="W63" s="66"/>
+      <c r="W63" s="74"/>
       <c r="X63" s="17"/>
       <c r="Y63" s="14"/>
       <c r="AA63" s="18"/>
@@ -8824,10 +8819,10 @@
         <f>IF(_xlfn.XOR(T67 = 1, T57 = 1), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="67" t="s">
+      <c r="S71" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="T71" s="68"/>
+      <c r="T71" s="76"/>
       <c r="U71" s="17"/>
       <c r="V71" s="17"/>
       <c r="W71" s="17"/>
@@ -8840,10 +8835,10 @@
         <f>T67</f>
         <v>0</v>
       </c>
-      <c r="S72" s="69" t="s">
+      <c r="S72" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="T72" s="70"/>
+      <c r="T72" s="78"/>
       <c r="U72" s="28">
         <f>U67</f>
         <v>0</v>
@@ -8865,31 +8860,33 @@
       </c>
     </row>
     <row r="79" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>44</v>
-      </c>
+      <c r="D79" s="52"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="52"/>
+      <c r="J79" s="52"/>
+      <c r="K79" s="52"/>
+      <c r="L79" s="52"/>
       <c r="N79" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D80" s="48"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="K80" s="49"/>
-      <c r="L80" s="50" t="s">
-        <v>42</v>
-      </c>
+      <c r="D80" s="52"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="52"/>
+      <c r="K80" s="52"/>
+      <c r="L80" s="52"/>
       <c r="N80" s="48"/>
       <c r="O80" s="49"/>
       <c r="P80" s="49" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="Q80" s="49"/>
       <c r="R80" s="49"/>
@@ -8901,7 +8898,7 @@
       <c r="X80" s="50"/>
     </row>
     <row r="81" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="51"/>
+      <c r="D81" s="52"/>
       <c r="E81" s="52"/>
       <c r="F81" s="52"/>
       <c r="G81" s="52"/>
@@ -8909,7 +8906,7 @@
       <c r="I81" s="52"/>
       <c r="J81" s="52"/>
       <c r="K81" s="52"/>
-      <c r="L81" s="53"/>
+      <c r="L81" s="52"/>
       <c r="N81" s="51"/>
       <c r="O81" s="52"/>
       <c r="P81" s="52">
@@ -8925,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="T81" s="52" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="U81" s="52"/>
       <c r="V81" s="52" cm="1">
@@ -8933,12 +8930,12 @@
         <v>1</v>
       </c>
       <c r="W81" s="52" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="X81" s="53"/>
     </row>
     <row r="82" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D82" s="51"/>
+      <c r="D82" s="52"/>
       <c r="E82" s="52"/>
       <c r="F82" s="52"/>
       <c r="G82" s="52"/>
@@ -8946,7 +8943,7 @@
       <c r="I82" s="52"/>
       <c r="J82" s="52"/>
       <c r="K82" s="52"/>
-      <c r="L82" s="53"/>
+      <c r="L82" s="52"/>
       <c r="N82" s="51"/>
       <c r="O82" s="52"/>
       <c r="P82" s="52"/>
@@ -8960,28 +8957,22 @@
       <c r="X82" s="53"/>
     </row>
     <row r="83" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D83" s="51"/>
+      <c r="D83" s="52"/>
       <c r="E83" s="52"/>
       <c r="F83" s="52"/>
-      <c r="G83" s="52" t="s">
-        <v>45</v>
-      </c>
+      <c r="G83" s="52"/>
       <c r="H83" s="52"/>
-      <c r="I83" s="52" t="s">
-        <v>38</v>
-      </c>
+      <c r="I83" s="52"/>
       <c r="J83" s="52"/>
-      <c r="K83" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="L83" s="53"/>
+      <c r="K83" s="52"/>
+      <c r="L83" s="52"/>
       <c r="N83" s="51"/>
       <c r="O83" s="52"/>
       <c r="P83" s="52">
         <v>1010</v>
       </c>
       <c r="Q83" s="52" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="R83" s="52"/>
       <c r="S83" s="52"/>
@@ -8990,13 +8981,13 @@
         <v>15</v>
       </c>
       <c r="V83" s="52" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="W83" s="52"/>
       <c r="X83" s="53"/>
     </row>
     <row r="84" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D84" s="51"/>
+      <c r="D84" s="52"/>
       <c r="E84" s="52"/>
       <c r="F84" s="52"/>
       <c r="G84" s="52"/>
@@ -9004,7 +8995,7 @@
       <c r="I84" s="52"/>
       <c r="J84" s="52"/>
       <c r="K84" s="52"/>
-      <c r="L84" s="53"/>
+      <c r="L84" s="52"/>
       <c r="N84" s="51"/>
       <c r="O84" s="52"/>
       <c r="P84" s="52"/>
@@ -9016,27 +9007,23 @@
         <v>81</v>
       </c>
       <c r="V84" s="52" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="W84" s="52"/>
       <c r="X84" s="53"/>
     </row>
     <row r="85" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D85" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E85" s="52" t="s">
-        <v>40</v>
-      </c>
+      <c r="D85" s="52"/>
+      <c r="E85" s="52"/>
       <c r="F85" s="52"/>
       <c r="G85" s="52"/>
       <c r="H85" s="52"/>
       <c r="I85" s="52"/>
       <c r="J85" s="52"/>
       <c r="K85" s="52"/>
-      <c r="L85" s="53"/>
+      <c r="L85" s="52"/>
       <c r="N85" s="51" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="O85" s="52"/>
       <c r="P85" s="52" t="str">
@@ -9046,10 +9033,10 @@
       <c r="Q85" s="52"/>
       <c r="R85" s="52">
         <f ca="1">IF(CLOCK = 1, IF(R85 = (LEN(P83) + 1), 1, R85 + 1),  R85)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S85" s="52" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T85" s="52"/>
       <c r="U85" s="52"/>
@@ -9058,19 +9045,15 @@
       <c r="X85" s="53"/>
     </row>
     <row r="86" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D86" s="51"/>
+      <c r="D86" s="52"/>
       <c r="E86" s="52"/>
-      <c r="F86" s="52" t="s">
-        <v>4</v>
-      </c>
+      <c r="F86" s="52"/>
       <c r="G86" s="52"/>
       <c r="H86" s="52"/>
       <c r="I86" s="52"/>
-      <c r="J86" s="52" t="s">
-        <v>43</v>
-      </c>
+      <c r="J86" s="52"/>
       <c r="K86" s="52"/>
-      <c r="L86" s="53"/>
+      <c r="L86" s="52"/>
       <c r="N86" s="51"/>
       <c r="O86" s="52"/>
       <c r="P86" s="52"/>
@@ -9084,24 +9067,22 @@
       <c r="X86" s="53"/>
     </row>
     <row r="87" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D87" s="51"/>
+      <c r="D87" s="52"/>
       <c r="E87" s="52"/>
-      <c r="F87" s="52" t="s">
-        <v>32</v>
-      </c>
+      <c r="F87" s="52"/>
       <c r="G87" s="52"/>
       <c r="H87" s="52"/>
       <c r="I87" s="52"/>
       <c r="J87" s="52"/>
       <c r="K87" s="52"/>
-      <c r="L87" s="53"/>
+      <c r="L87" s="52"/>
       <c r="N87" s="51"/>
       <c r="O87" s="52"/>
       <c r="P87" s="52">
         <v>1</v>
       </c>
       <c r="Q87" s="52" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="R87" s="52"/>
       <c r="S87" s="52"/>
@@ -9112,17 +9093,15 @@
       <c r="X87" s="53"/>
     </row>
     <row r="88" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D88" s="51"/>
+      <c r="D88" s="52"/>
       <c r="E88" s="52"/>
       <c r="F88" s="52"/>
       <c r="G88" s="52"/>
-      <c r="H88" s="52" t="s">
-        <v>43</v>
-      </c>
+      <c r="H88" s="52"/>
       <c r="I88" s="52"/>
       <c r="J88" s="52"/>
       <c r="K88" s="52"/>
-      <c r="L88" s="53"/>
+      <c r="L88" s="52"/>
       <c r="N88" s="51"/>
       <c r="O88" s="52"/>
       <c r="P88" s="52"/>
@@ -9136,7 +9115,7 @@
       <c r="X88" s="53"/>
     </row>
     <row r="89" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D89" s="51"/>
+      <c r="D89" s="52"/>
       <c r="E89" s="52"/>
       <c r="F89" s="52"/>
       <c r="G89" s="52"/>
@@ -9144,7 +9123,7 @@
       <c r="I89" s="52"/>
       <c r="J89" s="52"/>
       <c r="K89" s="52"/>
-      <c r="L89" s="53"/>
+      <c r="L89" s="52"/>
       <c r="N89" s="51"/>
       <c r="O89" s="52"/>
       <c r="P89" s="52">
@@ -9154,7 +9133,7 @@
       <c r="Q89" s="52"/>
       <c r="R89" s="52" t="str">
         <f ca="1">IF(P89 = P87, IF(LEN(R89) = LEN(P83), "", R89 &amp; P85), R89)</f>
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="S89" s="52"/>
       <c r="T89" s="52"/>
@@ -9164,7 +9143,7 @@
       <c r="X89" s="53"/>
     </row>
     <row r="90" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D90" s="51"/>
+      <c r="D90" s="52"/>
       <c r="E90" s="52"/>
       <c r="F90" s="52"/>
       <c r="G90" s="52"/>
@@ -9172,15 +9151,15 @@
       <c r="I90" s="52"/>
       <c r="J90" s="52"/>
       <c r="K90" s="52"/>
-      <c r="L90" s="53"/>
+      <c r="L90" s="52"/>
       <c r="N90" s="54"/>
       <c r="O90" s="55"/>
       <c r="P90" s="55" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="Q90" s="55"/>
       <c r="R90" s="55" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="S90" s="55"/>
       <c r="T90" s="55"/>
@@ -9190,22 +9169,18 @@
       <c r="X90" s="56"/>
     </row>
     <row r="91" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D91" s="51"/>
+      <c r="D91" s="52"/>
       <c r="E91" s="52"/>
       <c r="F91" s="52"/>
       <c r="G91" s="52"/>
-      <c r="H91" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I91" s="52" t="s">
-        <v>46</v>
-      </c>
+      <c r="H91" s="52"/>
+      <c r="I91" s="52"/>
       <c r="J91" s="52"/>
       <c r="K91" s="52"/>
-      <c r="L91" s="53"/>
+      <c r="L91" s="52"/>
     </row>
     <row r="92" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D92" s="51"/>
+      <c r="D92" s="52"/>
       <c r="E92" s="52"/>
       <c r="F92" s="52"/>
       <c r="G92" s="52"/>
@@ -9213,53 +9188,69 @@
       <c r="I92" s="52"/>
       <c r="J92" s="52"/>
       <c r="K92" s="52"/>
-      <c r="L92" s="53"/>
+      <c r="L92" s="52"/>
     </row>
     <row r="93" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D93" s="54"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="H93" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="I93" s="55"/>
-      <c r="J93" s="55"/>
-      <c r="K93" s="55"/>
-      <c r="L93" s="56"/>
-    </row>
-    <row r="97" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H97" s="88">
-        <v>0</v>
-      </c>
-      <c r="I97" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J97" s="88">
-        <v>0</v>
-      </c>
-      <c r="K97" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="L97" s="88">
-        <v>0</v>
-      </c>
-      <c r="M97" s="88">
-        <v>0</v>
-      </c>
-      <c r="N97" s="88">
-        <v>0</v>
-      </c>
-      <c r="O97" s="88">
+      <c r="D93" s="52"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="52"/>
+      <c r="J93" s="52"/>
+      <c r="K93" s="52"/>
+      <c r="L93" s="52"/>
+    </row>
+    <row r="95" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N95" s="110"/>
+    </row>
+    <row r="97" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G97" s="59"/>
+      <c r="H97" s="111">
+        <v>0</v>
+      </c>
+      <c r="I97" s="65"/>
+      <c r="J97" s="57">
+        <v>0</v>
+      </c>
+      <c r="K97" s="108" t="s">
+        <v>55</v>
+      </c>
+      <c r="L97" s="57">
+        <v>0</v>
+      </c>
+      <c r="M97" s="57">
+        <v>0</v>
+      </c>
+      <c r="N97" s="57">
+        <v>0</v>
+      </c>
+      <c r="O97" s="57">
         <v>0</v>
       </c>
       <c r="P97" s="47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q97" s="60"/>
+      <c r="R97" s="60"/>
+      <c r="S97" s="60"/>
+      <c r="T97" s="60"/>
+      <c r="U97" s="60"/>
+      <c r="V97" s="60"/>
+      <c r="W97" s="60"/>
+      <c r="X97" s="60"/>
+      <c r="Y97" s="60"/>
+      <c r="Z97" s="60"/>
+      <c r="AA97" s="68"/>
+    </row>
+    <row r="98" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G98" s="16"/>
+      <c r="H98" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="I98" s="107"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="109"/>
       <c r="L98" s="1">
         <v>0</v>
       </c>
@@ -9275,109 +9266,160 @@
       <c r="P98" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H100" s="90"/>
-      <c r="I100" s="91"/>
-      <c r="J100" s="91"/>
-      <c r="K100" s="91"/>
-      <c r="L100" s="88">
+      <c r="Q98" s="22"/>
+      <c r="R98" s="22"/>
+      <c r="S98" s="22"/>
+      <c r="T98" s="22"/>
+      <c r="U98" s="22"/>
+      <c r="V98" s="22"/>
+      <c r="W98" s="22"/>
+      <c r="X98" s="22"/>
+      <c r="Y98" s="22"/>
+      <c r="Z98" s="22"/>
+      <c r="AA98" s="37"/>
+    </row>
+    <row r="99" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G99" s="16"/>
+      <c r="H99" s="106"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="106"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13"/>
+      <c r="U99" s="13"/>
+      <c r="V99" s="13"/>
+      <c r="W99" s="13"/>
+      <c r="X99" s="13"/>
+      <c r="Y99" s="13"/>
+      <c r="Z99" s="22"/>
+      <c r="AA99" s="37"/>
+    </row>
+    <row r="100" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G100" s="16"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="60"/>
+      <c r="J100" s="60"/>
+      <c r="K100" s="60"/>
+      <c r="L100" s="57">
         <f>IF(_xlfn.XOR(O98 = 1, J97 = 1), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="M100" s="92" t="s">
+      <c r="M100" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="N100" s="91"/>
-      <c r="O100" s="91"/>
-      <c r="P100" s="93" t="s">
+      <c r="N100" s="60"/>
+      <c r="O100" s="60"/>
+      <c r="P100" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="R100" s="96"/>
-      <c r="S100" s="97"/>
-      <c r="T100" s="97"/>
-      <c r="U100" s="97"/>
-      <c r="V100" s="97"/>
-      <c r="W100" s="97"/>
-      <c r="X100" s="100" t="s">
+      <c r="Q100" s="13"/>
+      <c r="R100" s="64"/>
+      <c r="S100" s="65"/>
+      <c r="T100" s="65"/>
+      <c r="U100" s="65"/>
+      <c r="V100" s="65"/>
+      <c r="W100" s="65"/>
+      <c r="X100" s="81" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="101" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y100" s="13"/>
+      <c r="Z100" s="22"/>
+      <c r="AA100" s="37"/>
+    </row>
+    <row r="101" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="16"/>
       <c r="H101" s="16"/>
       <c r="I101" s="3"/>
-      <c r="J101" s="94" t="s">
+      <c r="J101" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="94" t="s">
+      <c r="K101" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="94" t="s">
+      <c r="L101" s="62" t="s">
         <v>6</v>
       </c>
       <c r="M101" s="7"/>
       <c r="N101" s="8"/>
       <c r="O101" s="17"/>
-      <c r="P101" s="60"/>
-      <c r="R101" s="98"/>
-      <c r="S101" s="89">
+      <c r="P101" s="71"/>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="66"/>
+      <c r="S101" s="58">
         <f>IF(AND(L97 = 1, L98 = 1), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="T101" s="89">
+      <c r="T101" s="58">
         <f>IF(AND(M97 = 1, M98 = 1), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="U101" s="89">
+      <c r="U101" s="58">
         <f>IF(AND(N97 = 1, N98 = 1), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="V101" s="89">
+      <c r="V101" s="58">
         <f>IF(AND(O97 = 1, O98 = 1), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="W101" s="99"/>
-      <c r="X101" s="101"/>
-    </row>
-    <row r="102" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W101" s="67"/>
+      <c r="X101" s="82"/>
+      <c r="Y101" s="13"/>
+      <c r="Z101" s="22"/>
+      <c r="AA101" s="37"/>
+    </row>
+    <row r="102" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G102" s="16"/>
       <c r="H102" s="16"/>
       <c r="I102" s="15"/>
-      <c r="J102" s="95">
+      <c r="J102" s="63">
         <f>N97</f>
         <v>0</v>
       </c>
-      <c r="K102" s="95">
+      <c r="K102" s="63">
         <f>O97</f>
         <v>0</v>
       </c>
-      <c r="L102" s="95">
+      <c r="L102" s="63">
         <f>L100</f>
         <v>0</v>
       </c>
       <c r="M102" s="13"/>
       <c r="N102" s="14"/>
       <c r="O102" s="17"/>
-      <c r="P102" s="62"/>
-      <c r="R102" s="98"/>
-      <c r="S102" s="99"/>
-      <c r="T102" s="99"/>
-      <c r="U102" s="99"/>
-      <c r="V102" s="99"/>
-      <c r="W102" s="99"/>
-      <c r="X102" s="101"/>
-    </row>
-    <row r="103" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P102" s="80"/>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="66"/>
+      <c r="S102" s="67"/>
+      <c r="T102" s="67"/>
+      <c r="U102" s="67"/>
+      <c r="V102" s="67"/>
+      <c r="W102" s="67"/>
+      <c r="X102" s="82"/>
+      <c r="Y102" s="13"/>
+      <c r="Z102" s="22"/>
+      <c r="AA102" s="37"/>
+    </row>
+    <row r="103" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G103" s="16"/>
       <c r="H103" s="16"/>
       <c r="I103" s="15"/>
       <c r="J103" s="13"/>
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
-      <c r="N103" s="64" t="s">
+      <c r="N103" s="72" t="s">
         <v>10</v>
       </c>
       <c r="O103" s="17"/>
       <c r="P103" s="14"/>
+      <c r="Q103" s="13"/>
       <c r="R103" s="40"/>
       <c r="S103" s="46">
         <f>S101</f>
@@ -9399,8 +9441,14 @@
         <v>16</v>
       </c>
       <c r="X103" s="41"/>
-    </row>
-    <row r="104" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y103" s="13"/>
+      <c r="Z103" s="22"/>
+      <c r="AA103" s="84" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G104" s="16"/>
       <c r="H104" s="16"/>
       <c r="I104" s="15"/>
       <c r="J104" s="12"/>
@@ -9410,11 +9458,23 @@
         <v>0</v>
       </c>
       <c r="M104" s="13"/>
-      <c r="N104" s="65"/>
+      <c r="N104" s="73"/>
       <c r="O104" s="17"/>
       <c r="P104" s="14"/>
-    </row>
-    <row r="105" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q104" s="13"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="13"/>
+      <c r="U104" s="13"/>
+      <c r="V104" s="13"/>
+      <c r="W104" s="13"/>
+      <c r="X104" s="13"/>
+      <c r="Y104" s="13"/>
+      <c r="Z104" s="22"/>
+      <c r="AA104" s="84"/>
+    </row>
+    <row r="105" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G105" s="16"/>
       <c r="H105" s="16"/>
       <c r="I105" s="15"/>
       <c r="J105" s="1">
@@ -9427,20 +9487,25 @@
       </c>
       <c r="L105" s="12"/>
       <c r="M105" s="13"/>
-      <c r="N105" s="66"/>
+      <c r="N105" s="74"/>
       <c r="O105" s="17"/>
       <c r="P105" s="14"/>
-      <c r="R105" s="96"/>
-      <c r="S105" s="97"/>
-      <c r="T105" s="97"/>
-      <c r="U105" s="97"/>
-      <c r="V105" s="97"/>
-      <c r="W105" s="97"/>
-      <c r="X105" s="102" t="s">
+      <c r="Q105" s="13"/>
+      <c r="R105" s="64"/>
+      <c r="S105" s="65"/>
+      <c r="T105" s="65"/>
+      <c r="U105" s="65"/>
+      <c r="V105" s="65"/>
+      <c r="W105" s="65"/>
+      <c r="X105" s="83" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="106" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y105" s="13"/>
+      <c r="Z105" s="22"/>
+      <c r="AA105" s="84"/>
+    </row>
+    <row r="106" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G106" s="16"/>
       <c r="H106" s="16"/>
       <c r="I106" s="15"/>
       <c r="J106" s="12"/>
@@ -9453,27 +9518,32 @@
       <c r="N106" s="14"/>
       <c r="O106" s="17"/>
       <c r="P106" s="14"/>
-      <c r="R106" s="98"/>
-      <c r="S106" s="89">
+      <c r="Q106" s="13"/>
+      <c r="R106" s="66"/>
+      <c r="S106" s="58">
         <f>IF(OR(L97 = 1, L98 =1), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="T106" s="89">
+      <c r="T106" s="58">
         <f>IF(OR(M97 = 1, M98 =1), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="U106" s="89">
+      <c r="U106" s="58">
         <f>IF(OR(N97 = 1, N98 =1), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="V106" s="89">
+      <c r="V106" s="58">
         <f>IF(OR(O97 = 1, O98 =1), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="W106" s="99"/>
-      <c r="X106" s="63"/>
-    </row>
-    <row r="107" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W106" s="67"/>
+      <c r="X106" s="84"/>
+      <c r="Y106" s="13"/>
+      <c r="Z106" s="22"/>
+      <c r="AA106" s="37"/>
+    </row>
+    <row r="107" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G107" s="16"/>
       <c r="H107" s="16"/>
       <c r="I107" s="15"/>
       <c r="J107" s="12"/>
@@ -9486,15 +9556,20 @@
       <c r="N107" s="14"/>
       <c r="O107" s="17"/>
       <c r="P107" s="14"/>
-      <c r="R107" s="98"/>
-      <c r="S107" s="99"/>
-      <c r="T107" s="99"/>
-      <c r="U107" s="99"/>
-      <c r="V107" s="99"/>
-      <c r="W107" s="99"/>
-      <c r="X107" s="63"/>
-    </row>
-    <row r="108" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q107" s="13"/>
+      <c r="R107" s="66"/>
+      <c r="S107" s="67"/>
+      <c r="T107" s="67"/>
+      <c r="U107" s="67"/>
+      <c r="V107" s="67"/>
+      <c r="W107" s="67"/>
+      <c r="X107" s="84"/>
+      <c r="Y107" s="13"/>
+      <c r="Z107" s="22"/>
+      <c r="AA107" s="37"/>
+    </row>
+    <row r="108" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G108" s="16"/>
       <c r="H108" s="16"/>
       <c r="I108" s="15"/>
       <c r="J108" s="13"/>
@@ -9504,6 +9579,7 @@
       <c r="N108" s="14"/>
       <c r="O108" s="17"/>
       <c r="P108" s="14"/>
+      <c r="Q108" s="13"/>
       <c r="R108" s="40"/>
       <c r="S108" s="46">
         <f>S106</f>
@@ -9525,8 +9601,12 @@
         <v>16</v>
       </c>
       <c r="X108" s="41"/>
-    </row>
-    <row r="109" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y108" s="13"/>
+      <c r="Z108" s="22"/>
+      <c r="AA108" s="37"/>
+    </row>
+    <row r="109" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G109" s="16"/>
       <c r="H109" s="16"/>
       <c r="I109" s="26"/>
       <c r="J109" s="27" t="s">
@@ -9546,8 +9626,20 @@
       <c r="N109" s="29"/>
       <c r="O109" s="17"/>
       <c r="P109" s="14"/>
-    </row>
-    <row r="110" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q109" s="13"/>
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="13"/>
+      <c r="U109" s="13"/>
+      <c r="V109" s="13"/>
+      <c r="W109" s="13"/>
+      <c r="X109" s="13"/>
+      <c r="Y109" s="13"/>
+      <c r="Z109" s="22"/>
+      <c r="AA109" s="37"/>
+    </row>
+    <row r="110" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G110" s="16"/>
       <c r="H110" s="16"/>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
@@ -9562,20 +9654,23 @@
       <c r="N110" s="17"/>
       <c r="O110" s="17"/>
       <c r="P110" s="14"/>
-      <c r="R110" s="96"/>
-      <c r="S110" s="88">
+      <c r="Q110" s="13"/>
+      <c r="R110" s="64"/>
+      <c r="S110" s="57">
         <f>IF(AND(O97 = 1, J97 = 1), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="T110" s="47"/>
       <c r="U110" s="47"/>
       <c r="V110" s="47"/>
-      <c r="W110" s="97"/>
-      <c r="X110" s="97"/>
-      <c r="Y110" s="97"/>
-      <c r="Z110" s="103"/>
-    </row>
-    <row r="111" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W110" s="65"/>
+      <c r="X110" s="65"/>
+      <c r="Y110" s="65"/>
+      <c r="Z110" s="68"/>
+      <c r="AA110" s="37"/>
+    </row>
+    <row r="111" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G111" s="16"/>
       <c r="H111" s="16"/>
       <c r="I111" s="3"/>
       <c r="J111" s="5" t="s">
@@ -9591,6 +9686,7 @@
       <c r="N111" s="8"/>
       <c r="O111" s="17"/>
       <c r="P111" s="14"/>
+      <c r="Q111" s="13"/>
       <c r="R111" s="18"/>
       <c r="S111" s="12"/>
       <c r="T111" s="1">
@@ -9598,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="U111" s="1">
-        <f>IF(X107 = 1, 0, 1)</f>
+        <f>IF(J97 = 1, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="V111" s="12"/>
@@ -9606,8 +9702,10 @@
       <c r="X111" s="22"/>
       <c r="Y111" s="22"/>
       <c r="Z111" s="37"/>
-    </row>
-    <row r="112" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA111" s="37"/>
+    </row>
+    <row r="112" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G112" s="16"/>
       <c r="H112" s="16"/>
       <c r="I112" s="15"/>
       <c r="J112" s="1">
@@ -9626,6 +9724,7 @@
       <c r="N112" s="14"/>
       <c r="O112" s="17"/>
       <c r="P112" s="14"/>
+      <c r="Q112" s="13"/>
       <c r="R112" s="18"/>
       <c r="S112" s="1">
         <f>IF(OR(S110 = 1, T111 =1), 1, 0)</f>
@@ -9638,19 +9737,22 @@
       <c r="X112" s="22"/>
       <c r="Y112" s="22"/>
       <c r="Z112" s="37"/>
-    </row>
-    <row r="113" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA112" s="37"/>
+    </row>
+    <row r="113" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G113" s="16"/>
       <c r="H113" s="16"/>
       <c r="I113" s="15"/>
       <c r="J113" s="13"/>
       <c r="K113" s="13"/>
       <c r="L113" s="13"/>
       <c r="M113" s="13"/>
-      <c r="N113" s="64" t="s">
+      <c r="N113" s="72" t="s">
         <v>10</v>
       </c>
       <c r="O113" s="17"/>
       <c r="P113" s="14"/>
+      <c r="Q113" s="13"/>
       <c r="R113" s="18"/>
       <c r="S113" s="22"/>
       <c r="T113" s="22"/>
@@ -9660,8 +9762,10 @@
       <c r="X113" s="22"/>
       <c r="Y113" s="22"/>
       <c r="Z113" s="37"/>
-    </row>
-    <row r="114" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA113" s="37"/>
+    </row>
+    <row r="114" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G114" s="16"/>
       <c r="H114" s="16"/>
       <c r="I114" s="15"/>
       <c r="J114" s="12"/>
@@ -9671,9 +9775,10 @@
         <v>0</v>
       </c>
       <c r="M114" s="13"/>
-      <c r="N114" s="65"/>
+      <c r="N114" s="73"/>
       <c r="O114" s="17"/>
       <c r="P114" s="14"/>
+      <c r="Q114" s="13"/>
       <c r="R114" s="18"/>
       <c r="S114" s="1">
         <f>IF(AND(N97 = 1, J97 = 1), 1, 0)</f>
@@ -9686,8 +9791,10 @@
       <c r="X114" s="22"/>
       <c r="Y114" s="22"/>
       <c r="Z114" s="37"/>
-    </row>
-    <row r="115" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA114" s="37"/>
+    </row>
+    <row r="115" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G115" s="16"/>
       <c r="H115" s="16"/>
       <c r="I115" s="15"/>
       <c r="J115" s="1">
@@ -9700,9 +9807,10 @@
       </c>
       <c r="L115" s="12"/>
       <c r="M115" s="13"/>
-      <c r="N115" s="66"/>
+      <c r="N115" s="74"/>
       <c r="O115" s="17"/>
       <c r="P115" s="14"/>
+      <c r="Q115" s="13"/>
       <c r="R115" s="18"/>
       <c r="S115" s="12"/>
       <c r="T115" s="1">
@@ -9710,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="U115" s="1">
-        <f>IF(X107 = 1, 0, 1)</f>
+        <f>IF(J97 = 1, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="V115" s="12"/>
@@ -9718,8 +9826,10 @@
       <c r="X115" s="22"/>
       <c r="Y115" s="22"/>
       <c r="Z115" s="37"/>
-    </row>
-    <row r="116" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA115" s="37"/>
+    </row>
+    <row r="116" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G116" s="16"/>
       <c r="H116" s="16"/>
       <c r="I116" s="15"/>
       <c r="J116" s="12"/>
@@ -9732,6 +9842,7 @@
       <c r="N116" s="14"/>
       <c r="O116" s="17"/>
       <c r="P116" s="14"/>
+      <c r="Q116" s="13"/>
       <c r="R116" s="18"/>
       <c r="S116" s="1">
         <f>IF(OR(S114 = 1, T115 =1), 1, 0)</f>
@@ -9743,11 +9854,13 @@
       <c r="W116" s="22"/>
       <c r="X116" s="22"/>
       <c r="Y116" s="22"/>
-      <c r="Z116" s="58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="117" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z116" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA116" s="37"/>
+    </row>
+    <row r="117" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G117" s="16"/>
       <c r="H117" s="16"/>
       <c r="I117" s="15"/>
       <c r="J117" s="12"/>
@@ -9760,6 +9873,7 @@
       <c r="N117" s="14"/>
       <c r="O117" s="17"/>
       <c r="P117" s="14"/>
+      <c r="Q117" s="13"/>
       <c r="R117" s="18"/>
       <c r="S117" s="22"/>
       <c r="T117" s="22"/>
@@ -9768,9 +9882,11 @@
       <c r="W117" s="22"/>
       <c r="X117" s="22"/>
       <c r="Y117" s="22"/>
-      <c r="Z117" s="59"/>
-    </row>
-    <row r="118" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z117" s="70"/>
+      <c r="AA117" s="37"/>
+    </row>
+    <row r="118" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G118" s="16"/>
       <c r="H118" s="16"/>
       <c r="I118" s="15"/>
       <c r="J118" s="13"/>
@@ -9780,6 +9896,7 @@
       <c r="N118" s="14"/>
       <c r="O118" s="17"/>
       <c r="P118" s="14"/>
+      <c r="Q118" s="13"/>
       <c r="R118" s="18"/>
       <c r="S118" s="1">
         <f>IF(AND(M97 = 1, J97 = 1), 1, 0)</f>
@@ -9791,9 +9908,11 @@
       <c r="W118" s="22"/>
       <c r="X118" s="22"/>
       <c r="Y118" s="22"/>
-      <c r="Z118" s="60"/>
-    </row>
-    <row r="119" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z118" s="71"/>
+      <c r="AA118" s="37"/>
+    </row>
+    <row r="119" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G119" s="16"/>
       <c r="H119" s="16"/>
       <c r="I119" s="26"/>
       <c r="J119" s="27" t="s">
@@ -9813,6 +9932,7 @@
       <c r="N119" s="29"/>
       <c r="O119" s="17"/>
       <c r="P119" s="14"/>
+      <c r="Q119" s="13"/>
       <c r="R119" s="18"/>
       <c r="S119" s="12"/>
       <c r="T119" s="1">
@@ -9820,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="U119" s="1">
-        <f>IF(X107 = 1, 0, 1)</f>
+        <f>IF(J97 = 1, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="V119" s="12"/>
@@ -9828,8 +9948,10 @@
       <c r="X119" s="22"/>
       <c r="Y119" s="22"/>
       <c r="Z119" s="37"/>
-    </row>
-    <row r="120" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA119" s="37"/>
+    </row>
+    <row r="120" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G120" s="16"/>
       <c r="H120" s="16"/>
       <c r="I120" s="17"/>
       <c r="J120" s="17"/>
@@ -9844,6 +9966,7 @@
       <c r="N120" s="17"/>
       <c r="O120" s="17"/>
       <c r="P120" s="14"/>
+      <c r="Q120" s="13"/>
       <c r="R120" s="18"/>
       <c r="S120" s="1">
         <f>IF(OR(S118 = 1, T119 =1), 1, 0)</f>
@@ -9856,8 +9979,10 @@
       <c r="X120" s="22"/>
       <c r="Y120" s="22"/>
       <c r="Z120" s="37"/>
-    </row>
-    <row r="121" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA120" s="37"/>
+    </row>
+    <row r="121" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G121" s="16"/>
       <c r="H121" s="16"/>
       <c r="I121" s="3"/>
       <c r="J121" s="5" t="s">
@@ -9873,6 +9998,7 @@
       <c r="N121" s="8"/>
       <c r="O121" s="17"/>
       <c r="P121" s="14"/>
+      <c r="Q121" s="13"/>
       <c r="R121" s="18"/>
       <c r="S121" s="22"/>
       <c r="T121" s="22"/>
@@ -9882,8 +10008,10 @@
       <c r="X121" s="22"/>
       <c r="Y121" s="22"/>
       <c r="Z121" s="37"/>
-    </row>
-    <row r="122" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA121" s="37"/>
+    </row>
+    <row r="122" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G122" s="16"/>
       <c r="H122" s="16"/>
       <c r="I122" s="15"/>
       <c r="J122" s="1">
@@ -9902,6 +10030,7 @@
       <c r="N122" s="14"/>
       <c r="O122" s="17"/>
       <c r="P122" s="14"/>
+      <c r="Q122" s="13"/>
       <c r="R122" s="18"/>
       <c r="S122" s="1">
         <f>IF(AND(L97 = 1, J97 = 1), 1, 0)</f>
@@ -9914,19 +10043,22 @@
       <c r="X122" s="22"/>
       <c r="Y122" s="22"/>
       <c r="Z122" s="37"/>
-    </row>
-    <row r="123" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA122" s="37"/>
+    </row>
+    <row r="123" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G123" s="16"/>
       <c r="H123" s="16"/>
       <c r="I123" s="15"/>
       <c r="J123" s="13"/>
       <c r="K123" s="13"/>
       <c r="L123" s="13"/>
       <c r="M123" s="13"/>
-      <c r="N123" s="64" t="s">
+      <c r="N123" s="72" t="s">
         <v>10</v>
       </c>
       <c r="O123" s="17"/>
       <c r="P123" s="14"/>
+      <c r="Q123" s="13"/>
       <c r="R123" s="18"/>
       <c r="S123" s="12"/>
       <c r="T123" s="1">
@@ -9934,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="U123" s="1">
-        <f>IF(X107 = 1, 0, 1)</f>
+        <f>IF(J97 = 1, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="V123" s="12"/>
@@ -9942,8 +10074,10 @@
       <c r="X123" s="22"/>
       <c r="Y123" s="22"/>
       <c r="Z123" s="37"/>
-    </row>
-    <row r="124" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA123" s="37"/>
+    </row>
+    <row r="124" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G124" s="16"/>
       <c r="H124" s="16"/>
       <c r="I124" s="15"/>
       <c r="J124" s="12"/>
@@ -9953,9 +10087,10 @@
         <v>0</v>
       </c>
       <c r="M124" s="13"/>
-      <c r="N124" s="65"/>
+      <c r="N124" s="73"/>
       <c r="O124" s="17"/>
       <c r="P124" s="14"/>
+      <c r="Q124" s="13"/>
       <c r="R124" s="18"/>
       <c r="S124" s="1">
         <f>IF(OR(S122 = 1, T123 =1), 1, 0)</f>
@@ -9968,8 +10103,10 @@
       <c r="X124" s="22"/>
       <c r="Y124" s="22"/>
       <c r="Z124" s="37"/>
-    </row>
-    <row r="125" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA124" s="37"/>
+    </row>
+    <row r="125" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G125" s="16"/>
       <c r="H125" s="16"/>
       <c r="I125" s="15"/>
       <c r="J125" s="1">
@@ -9982,9 +10119,10 @@
       </c>
       <c r="L125" s="12"/>
       <c r="M125" s="13"/>
-      <c r="N125" s="66"/>
+      <c r="N125" s="74"/>
       <c r="O125" s="17"/>
       <c r="P125" s="14"/>
+      <c r="Q125" s="13"/>
       <c r="R125" s="18"/>
       <c r="S125" s="22"/>
       <c r="T125" s="22"/>
@@ -9994,8 +10132,10 @@
       <c r="X125" s="22"/>
       <c r="Y125" s="22"/>
       <c r="Z125" s="37"/>
-    </row>
-    <row r="126" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA125" s="37"/>
+    </row>
+    <row r="126" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G126" s="16"/>
       <c r="H126" s="16"/>
       <c r="I126" s="15"/>
       <c r="J126" s="12"/>
@@ -10008,6 +10148,7 @@
       <c r="N126" s="14"/>
       <c r="O126" s="17"/>
       <c r="P126" s="14"/>
+      <c r="Q126" s="13"/>
       <c r="R126" s="40"/>
       <c r="S126" s="46">
         <f>S124</f>
@@ -10031,8 +10172,10 @@
       <c r="X126" s="39"/>
       <c r="Y126" s="39"/>
       <c r="Z126" s="41"/>
-    </row>
-    <row r="127" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA126" s="37"/>
+    </row>
+    <row r="127" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G127" s="16"/>
       <c r="H127" s="16"/>
       <c r="I127" s="15"/>
       <c r="J127" s="12"/>
@@ -10045,8 +10188,20 @@
       <c r="N127" s="14"/>
       <c r="O127" s="17"/>
       <c r="P127" s="14"/>
-    </row>
-    <row r="128" spans="8:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q127" s="13"/>
+      <c r="R127" s="22"/>
+      <c r="S127" s="22"/>
+      <c r="T127" s="22"/>
+      <c r="U127" s="22"/>
+      <c r="V127" s="22"/>
+      <c r="W127" s="22"/>
+      <c r="X127" s="22"/>
+      <c r="Y127" s="22"/>
+      <c r="Z127" s="22"/>
+      <c r="AA127" s="37"/>
+    </row>
+    <row r="128" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G128" s="16"/>
       <c r="H128" s="16"/>
       <c r="I128" s="15"/>
       <c r="J128" s="13"/>
@@ -10056,20 +10211,23 @@
       <c r="N128" s="14"/>
       <c r="O128" s="17"/>
       <c r="P128" s="14"/>
-      <c r="R128" s="96"/>
-      <c r="S128" s="88">
+      <c r="Q128" s="13"/>
+      <c r="R128" s="64"/>
+      <c r="S128" s="57">
         <f>IF(AND(V126 = 1, H97 = 1), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="T128" s="47"/>
       <c r="U128" s="47"/>
       <c r="V128" s="47"/>
-      <c r="W128" s="97"/>
-      <c r="X128" s="97"/>
-      <c r="Y128" s="97"/>
-      <c r="Z128" s="103"/>
-    </row>
-    <row r="129" spans="8:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W128" s="65"/>
+      <c r="X128" s="65"/>
+      <c r="Y128" s="65"/>
+      <c r="Z128" s="68"/>
+      <c r="AA128" s="37"/>
+    </row>
+    <row r="129" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G129" s="16"/>
       <c r="H129" s="16"/>
       <c r="I129" s="26"/>
       <c r="J129" s="27" t="s">
@@ -10089,14 +10247,15 @@
       <c r="N129" s="29"/>
       <c r="O129" s="17"/>
       <c r="P129" s="14"/>
+      <c r="Q129" s="13"/>
       <c r="R129" s="18"/>
       <c r="S129" s="12"/>
       <c r="T129" s="1">
-        <f>IF(AND(O98 = 1, U129 = 1), 1, 0)</f>
+        <f>IF(AND(O144 = 1, U129 = 1), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U129" s="1">
-        <f>IF(X125 = 1, 0, 1)</f>
+        <f>IF(H97 = 1, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="V129" s="12"/>
@@ -10104,8 +10263,10 @@
       <c r="X129" s="22"/>
       <c r="Y129" s="22"/>
       <c r="Z129" s="37"/>
-    </row>
-    <row r="130" spans="8:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA129" s="37"/>
+    </row>
+    <row r="130" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G130" s="16"/>
       <c r="H130" s="16"/>
       <c r="I130" s="17"/>
       <c r="J130" s="17"/>
@@ -10120,6 +10281,7 @@
       <c r="N130" s="17"/>
       <c r="O130" s="17"/>
       <c r="P130" s="14"/>
+      <c r="Q130" s="13"/>
       <c r="R130" s="18"/>
       <c r="S130" s="1">
         <f>IF(OR(S128 = 1, T129 =1), 1, 0)</f>
@@ -10132,8 +10294,10 @@
       <c r="X130" s="22"/>
       <c r="Y130" s="22"/>
       <c r="Z130" s="37"/>
-    </row>
-    <row r="131" spans="8:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA130" s="37"/>
+    </row>
+    <row r="131" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G131" s="16"/>
       <c r="H131" s="16"/>
       <c r="I131" s="3"/>
       <c r="J131" s="5" t="s">
@@ -10149,6 +10313,7 @@
       <c r="N131" s="8"/>
       <c r="O131" s="17"/>
       <c r="P131" s="14"/>
+      <c r="Q131" s="13"/>
       <c r="R131" s="18"/>
       <c r="S131" s="22"/>
       <c r="T131" s="22"/>
@@ -10158,8 +10323,10 @@
       <c r="X131" s="22"/>
       <c r="Y131" s="22"/>
       <c r="Z131" s="37"/>
-    </row>
-    <row r="132" spans="8:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA131" s="37"/>
+    </row>
+    <row r="132" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G132" s="16"/>
       <c r="H132" s="16"/>
       <c r="I132" s="15"/>
       <c r="J132" s="1">
@@ -10178,6 +10345,7 @@
       <c r="N132" s="14"/>
       <c r="O132" s="17"/>
       <c r="P132" s="14"/>
+      <c r="Q132" s="13"/>
       <c r="R132" s="18"/>
       <c r="S132" s="1">
         <f>IF(AND(U126 = 1, H97 = 1), 1, 0)</f>
@@ -10190,27 +10358,30 @@
       <c r="X132" s="22"/>
       <c r="Y132" s="22"/>
       <c r="Z132" s="37"/>
-    </row>
-    <row r="133" spans="8:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA132" s="37"/>
+    </row>
+    <row r="133" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G133" s="16"/>
       <c r="H133" s="16"/>
       <c r="I133" s="15"/>
       <c r="J133" s="13"/>
       <c r="K133" s="13"/>
       <c r="L133" s="13"/>
       <c r="M133" s="13"/>
-      <c r="N133" s="64" t="s">
+      <c r="N133" s="72" t="s">
         <v>10</v>
       </c>
       <c r="O133" s="17"/>
       <c r="P133" s="14"/>
+      <c r="Q133" s="13"/>
       <c r="R133" s="18"/>
       <c r="S133" s="12"/>
       <c r="T133" s="1">
-        <f>IF(AND(N98 = 1, U133 = 1), 1, 0)</f>
+        <f>IF(AND(N144 = 1, U133 = 1), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U133" s="1">
-        <f>IF(X125 = 1, 0, 1)</f>
+        <f>IF(H97 = 1, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="V133" s="12"/>
@@ -10218,8 +10389,10 @@
       <c r="X133" s="22"/>
       <c r="Y133" s="22"/>
       <c r="Z133" s="37"/>
-    </row>
-    <row r="134" spans="8:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA133" s="37"/>
+    </row>
+    <row r="134" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G134" s="16"/>
       <c r="H134" s="16"/>
       <c r="I134" s="15"/>
       <c r="J134" s="12"/>
@@ -10229,9 +10402,10 @@
         <v>0</v>
       </c>
       <c r="M134" s="13"/>
-      <c r="N134" s="65"/>
+      <c r="N134" s="73"/>
       <c r="O134" s="17"/>
       <c r="P134" s="14"/>
+      <c r="Q134" s="13"/>
       <c r="R134" s="18"/>
       <c r="S134" s="1">
         <f>IF(OR(S132 = 1, T133 =1), 1, 0)</f>
@@ -10243,11 +10417,13 @@
       <c r="W134" s="22"/>
       <c r="X134" s="22"/>
       <c r="Y134" s="22"/>
-      <c r="Z134" s="58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="135" spans="8:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z134" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA134" s="37"/>
+    </row>
+    <row r="135" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G135" s="16"/>
       <c r="H135" s="16"/>
       <c r="I135" s="15"/>
       <c r="J135" s="1">
@@ -10260,9 +10436,10 @@
       </c>
       <c r="L135" s="12"/>
       <c r="M135" s="13"/>
-      <c r="N135" s="66"/>
+      <c r="N135" s="74"/>
       <c r="O135" s="17"/>
       <c r="P135" s="14"/>
+      <c r="Q135" s="13"/>
       <c r="R135" s="18"/>
       <c r="S135" s="22"/>
       <c r="T135" s="22"/>
@@ -10271,15 +10448,11 @@
       <c r="W135" s="22"/>
       <c r="X135" s="22"/>
       <c r="Y135" s="22"/>
-      <c r="Z135" s="59"/>
-      <c r="AA135" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB135" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="136" spans="8:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z135" s="70"/>
+      <c r="AA135" s="37"/>
+    </row>
+    <row r="136" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G136" s="16"/>
       <c r="H136" s="16"/>
       <c r="I136" s="15"/>
       <c r="J136" s="12"/>
@@ -10292,6 +10465,7 @@
       <c r="N136" s="14"/>
       <c r="O136" s="17"/>
       <c r="P136" s="14"/>
+      <c r="Q136" s="13"/>
       <c r="R136" s="18"/>
       <c r="S136" s="1">
         <f>IF(AND(T126 = 1, H97 = 1), 1, 0)</f>
@@ -10303,9 +10477,11 @@
       <c r="W136" s="22"/>
       <c r="X136" s="22"/>
       <c r="Y136" s="22"/>
-      <c r="Z136" s="60"/>
-    </row>
-    <row r="137" spans="8:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z136" s="71"/>
+      <c r="AA136" s="37"/>
+    </row>
+    <row r="137" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G137" s="16"/>
       <c r="H137" s="16"/>
       <c r="I137" s="15"/>
       <c r="J137" s="12"/>
@@ -10318,14 +10494,15 @@
       <c r="N137" s="14"/>
       <c r="O137" s="17"/>
       <c r="P137" s="14"/>
+      <c r="Q137" s="13"/>
       <c r="R137" s="18"/>
       <c r="S137" s="12"/>
       <c r="T137" s="1">
-        <f>IF(AND(M98 = 1, U137 = 1), 1, 0)</f>
+        <f>IF(AND(M144 = 1, U137 = 1), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U137" s="1">
-        <f>IF(X125 = 1, 0, 1)</f>
+        <f>IF(H97 = 1, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="V137" s="12"/>
@@ -10333,8 +10510,10 @@
       <c r="X137" s="22"/>
       <c r="Y137" s="22"/>
       <c r="Z137" s="37"/>
-    </row>
-    <row r="138" spans="8:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA137" s="37"/>
+    </row>
+    <row r="138" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G138" s="16"/>
       <c r="H138" s="16"/>
       <c r="I138" s="15"/>
       <c r="J138" s="13"/>
@@ -10344,6 +10523,7 @@
       <c r="N138" s="14"/>
       <c r="O138" s="17"/>
       <c r="P138" s="14"/>
+      <c r="Q138" s="13"/>
       <c r="R138" s="18"/>
       <c r="S138" s="1">
         <f>IF(OR(S136 = 1, T137 =1), 1, 0)</f>
@@ -10356,8 +10536,10 @@
       <c r="X138" s="22"/>
       <c r="Y138" s="22"/>
       <c r="Z138" s="37"/>
-    </row>
-    <row r="139" spans="8:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA138" s="37"/>
+    </row>
+    <row r="139" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G139" s="16"/>
       <c r="H139" s="16"/>
       <c r="I139" s="26"/>
       <c r="J139" s="27" t="s">
@@ -10377,6 +10559,7 @@
       <c r="N139" s="29"/>
       <c r="O139" s="17"/>
       <c r="P139" s="14"/>
+      <c r="Q139" s="13"/>
       <c r="R139" s="18"/>
       <c r="S139" s="22"/>
       <c r="T139" s="22"/>
@@ -10386,8 +10569,10 @@
       <c r="X139" s="22"/>
       <c r="Y139" s="22"/>
       <c r="Z139" s="37"/>
-    </row>
-    <row r="140" spans="8:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA139" s="37"/>
+    </row>
+    <row r="140" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G140" s="16"/>
       <c r="H140" s="16"/>
       <c r="I140" s="17"/>
       <c r="J140" s="17"/>
@@ -10397,6 +10582,7 @@
       <c r="N140" s="17"/>
       <c r="O140" s="17"/>
       <c r="P140" s="14"/>
+      <c r="Q140" s="13"/>
       <c r="R140" s="18"/>
       <c r="S140" s="1">
         <f>IF(AND(S126 = 1, H97 = 1), 1, 0)</f>
@@ -10409,8 +10595,10 @@
       <c r="X140" s="22"/>
       <c r="Y140" s="22"/>
       <c r="Z140" s="37"/>
-    </row>
-    <row r="141" spans="8:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA140" s="37"/>
+    </row>
+    <row r="141" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G141" s="16"/>
       <c r="H141" s="16"/>
       <c r="I141" s="17"/>
       <c r="J141" s="17"/>
@@ -10420,14 +10608,15 @@
       <c r="N141" s="17"/>
       <c r="O141" s="17"/>
       <c r="P141" s="14"/>
+      <c r="Q141" s="13"/>
       <c r="R141" s="18"/>
       <c r="S141" s="12"/>
       <c r="T141" s="1">
-        <f>IF(AND(L98 = 1, U141 = 1), 1, 0)</f>
+        <f>IF(AND(L144 = 1, U141 = 1), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U141" s="1">
-        <f>IF(X125 = 1, 0, 1)</f>
+        <f>IF(H97 = 1, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="V141" s="12"/>
@@ -10435,8 +10624,10 @@
       <c r="X141" s="22"/>
       <c r="Y141" s="22"/>
       <c r="Z141" s="37"/>
-    </row>
-    <row r="142" spans="8:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA141" s="37"/>
+    </row>
+    <row r="142" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G142" s="16"/>
       <c r="H142" s="16"/>
       <c r="I142" s="17"/>
       <c r="J142" s="17"/>
@@ -10446,6 +10637,7 @@
       <c r="N142" s="17"/>
       <c r="O142" s="17"/>
       <c r="P142" s="14"/>
+      <c r="Q142" s="13"/>
       <c r="R142" s="18"/>
       <c r="S142" s="1">
         <f>IF(OR(S140 = 1, T141 =1), 1, 0)</f>
@@ -10458,22 +10650,25 @@
       <c r="X142" s="22"/>
       <c r="Y142" s="22"/>
       <c r="Z142" s="37"/>
-    </row>
-    <row r="143" spans="8:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA142" s="37"/>
+    </row>
+    <row r="143" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G143" s="16"/>
       <c r="H143" s="16"/>
       <c r="I143" s="1">
         <f>IF(_xlfn.XOR(K139 = 1, K129 = 1), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="J143" s="67" t="s">
+      <c r="J143" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="K143" s="68"/>
+      <c r="K143" s="76"/>
       <c r="L143" s="17"/>
       <c r="M143" s="17"/>
       <c r="N143" s="17"/>
       <c r="O143" s="17"/>
       <c r="P143" s="14"/>
+      <c r="Q143" s="13"/>
       <c r="R143" s="18"/>
       <c r="S143" s="22"/>
       <c r="T143" s="22"/>
@@ -10483,17 +10678,19 @@
       <c r="X143" s="22"/>
       <c r="Y143" s="22"/>
       <c r="Z143" s="37"/>
-    </row>
-    <row r="144" spans="8:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA143" s="37"/>
+    </row>
+    <row r="144" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G144" s="16"/>
       <c r="H144" s="31"/>
       <c r="I144" s="28">
         <f>K139</f>
         <v>0</v>
       </c>
-      <c r="J144" s="69" t="s">
+      <c r="J144" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="K144" s="70"/>
+      <c r="K144" s="78"/>
       <c r="L144" s="28">
         <f>L139</f>
         <v>0</v>
@@ -10513,6 +10710,7 @@
       <c r="P144" s="45" t="s">
         <v>31</v>
       </c>
+      <c r="Q144" s="13"/>
       <c r="R144" s="40"/>
       <c r="S144" s="46">
         <f>S142</f>
@@ -10536,9 +10734,245 @@
       <c r="X144" s="39"/>
       <c r="Y144" s="39"/>
       <c r="Z144" s="41"/>
+      <c r="AA144" s="37"/>
+    </row>
+    <row r="145" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G145" s="16"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="13"/>
+      <c r="L145" s="13"/>
+      <c r="M145" s="13"/>
+      <c r="N145" s="13"/>
+      <c r="O145" s="13"/>
+      <c r="P145" s="13"/>
+      <c r="Q145" s="13"/>
+      <c r="R145" s="13"/>
+      <c r="S145" s="13"/>
+      <c r="T145" s="13"/>
+      <c r="U145" s="13"/>
+      <c r="V145" s="13"/>
+      <c r="W145" s="13"/>
+      <c r="X145" s="13"/>
+      <c r="Y145" s="13"/>
+      <c r="Z145" s="13"/>
+      <c r="AA145" s="37"/>
+    </row>
+    <row r="146" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G146" s="16"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="13"/>
+      <c r="K146" s="13"/>
+      <c r="L146" s="13"/>
+      <c r="M146" s="13"/>
+      <c r="N146" s="13"/>
+      <c r="O146" s="13"/>
+      <c r="P146" s="13"/>
+      <c r="Q146" s="13"/>
+      <c r="R146" s="13"/>
+      <c r="S146" s="1">
+        <f>IF(OR(U144 = 1, V144 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T146" s="13"/>
+      <c r="U146" s="13"/>
+      <c r="V146" s="13"/>
+      <c r="W146" s="13"/>
+      <c r="X146" s="13"/>
+      <c r="Y146" s="13"/>
+      <c r="Z146" s="13"/>
+      <c r="AA146" s="37"/>
+    </row>
+    <row r="147" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G147" s="16"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="13"/>
+      <c r="K147" s="13"/>
+      <c r="L147" s="13"/>
+      <c r="M147" s="13"/>
+      <c r="N147" s="13"/>
+      <c r="O147" s="13"/>
+      <c r="P147" s="13"/>
+      <c r="Q147" s="13"/>
+      <c r="R147" s="13"/>
+      <c r="S147" s="1">
+        <f>IF(OR(S146 = 1, T144 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T147" s="13"/>
+      <c r="U147" s="13"/>
+      <c r="V147" s="13"/>
+      <c r="W147" s="13"/>
+      <c r="X147" s="13"/>
+      <c r="Y147" s="13"/>
+      <c r="Z147" s="13"/>
+      <c r="AA147" s="37"/>
+    </row>
+    <row r="148" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G148" s="16"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="13"/>
+      <c r="K148" s="13"/>
+      <c r="L148" s="13"/>
+      <c r="M148" s="13"/>
+      <c r="N148" s="13"/>
+      <c r="O148" s="13"/>
+      <c r="P148" s="13"/>
+      <c r="Q148" s="13"/>
+      <c r="R148" s="13"/>
+      <c r="S148" s="1">
+        <f>IF(OR(S147 = 1, S144 =1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T148" s="13"/>
+      <c r="U148" s="13"/>
+      <c r="V148" s="13"/>
+      <c r="W148" s="13"/>
+      <c r="X148" s="13"/>
+      <c r="Y148" s="13"/>
+      <c r="Z148" s="13"/>
+      <c r="AA148" s="37"/>
+    </row>
+    <row r="149" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G149" s="16"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
+      <c r="J149" s="13"/>
+      <c r="K149" s="13"/>
+      <c r="L149" s="13"/>
+      <c r="M149" s="13"/>
+      <c r="N149" s="13"/>
+      <c r="O149" s="13"/>
+      <c r="P149" s="13"/>
+      <c r="Q149" s="13"/>
+      <c r="R149" s="13"/>
+      <c r="S149" s="1">
+        <f>IF(S148 = 1, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="T149" s="13"/>
+      <c r="U149" s="13"/>
+      <c r="V149" s="13"/>
+      <c r="W149" s="13"/>
+      <c r="X149" s="13"/>
+      <c r="Y149" s="13"/>
+      <c r="Z149" s="13"/>
+      <c r="AA149" s="37"/>
+    </row>
+    <row r="150" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G150" s="16"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
+      <c r="L150" s="13"/>
+      <c r="M150" s="13"/>
+      <c r="N150" s="13"/>
+      <c r="O150" s="13"/>
+      <c r="P150" s="13"/>
+      <c r="Q150" s="13"/>
+      <c r="R150" s="13"/>
+      <c r="S150" s="13"/>
+      <c r="T150" s="13"/>
+      <c r="U150" s="13"/>
+      <c r="V150" s="13"/>
+      <c r="W150" s="13"/>
+      <c r="X150" s="13"/>
+      <c r="Y150" s="13"/>
+      <c r="Z150" s="13"/>
+      <c r="AA150" s="37"/>
+    </row>
+    <row r="151" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G151" s="40"/>
+      <c r="H151" s="39"/>
+      <c r="I151" s="39"/>
+      <c r="J151" s="46">
+        <f>S144</f>
+        <v>0</v>
+      </c>
+      <c r="K151" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="L151" s="105"/>
+      <c r="M151" s="28">
+        <f>I144</f>
+        <v>0</v>
+      </c>
+      <c r="N151" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="O151" s="78"/>
+      <c r="P151" s="28">
+        <f>I143</f>
+        <v>0</v>
+      </c>
+      <c r="Q151" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="R151" s="78"/>
+      <c r="S151" s="46">
+        <f>S149</f>
+        <v>1</v>
+      </c>
+      <c r="T151" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="U151" s="46">
+        <f>S144</f>
+        <v>0</v>
+      </c>
+      <c r="V151" s="46">
+        <f>T144</f>
+        <v>0</v>
+      </c>
+      <c r="W151" s="46">
+        <f>U144</f>
+        <v>0</v>
+      </c>
+      <c r="X151" s="46">
+        <f>V144</f>
+        <v>0</v>
+      </c>
+      <c r="Y151" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z151" s="39"/>
+      <c r="AA151" s="41"/>
+    </row>
+    <row r="153" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P153" s="110" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="39">
+    <mergeCell ref="Q151:R151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="AA103:AA105"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="W51:W53"/>
+    <mergeCell ref="AG42:AG44"/>
+    <mergeCell ref="AH27:AH29"/>
+    <mergeCell ref="Y28:Y30"/>
+    <mergeCell ref="AG35:AG37"/>
+    <mergeCell ref="W31:W33"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N36:N38"/>
+    <mergeCell ref="W41:W43"/>
+    <mergeCell ref="N48:N50"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="O12:Q14"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="AE18:AE20"/>
+    <mergeCell ref="W18:W20"/>
     <mergeCell ref="Z134:Z136"/>
     <mergeCell ref="N133:N135"/>
     <mergeCell ref="J143:K143"/>
@@ -10551,1797 +10985,1868 @@
     <mergeCell ref="X100:X102"/>
     <mergeCell ref="X105:X107"/>
     <mergeCell ref="Z116:Z118"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="AF8:AF10"/>
-    <mergeCell ref="O12:Q14"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="AE18:AE20"/>
-    <mergeCell ref="W18:W20"/>
     <mergeCell ref="W61:W63"/>
     <mergeCell ref="S71:T71"/>
     <mergeCell ref="S72:T72"/>
     <mergeCell ref="N60:N62"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N36:N38"/>
-    <mergeCell ref="W41:W43"/>
-    <mergeCell ref="N48:N50"/>
-    <mergeCell ref="N24:N26"/>
-    <mergeCell ref="W51:W53"/>
-    <mergeCell ref="AG42:AG44"/>
-    <mergeCell ref="AH27:AH29"/>
-    <mergeCell ref="Y28:Y30"/>
-    <mergeCell ref="AG35:AG37"/>
-    <mergeCell ref="W31:W33"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 U12:V12">
-    <cfRule type="cellIs" dxfId="483" priority="339" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="361" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="480" priority="362" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="481" priority="341" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="363" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="478" priority="364" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="479" priority="343" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="365" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="476" priority="366" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="477" priority="345" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="367" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="474" priority="368" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="475" priority="347" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="369" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="472" priority="370" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11 R71:R72">
-    <cfRule type="cellIs" dxfId="473" priority="349" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="371" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="470" priority="372" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="471" priority="351" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="373" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="468" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="469" priority="353" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="375" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="466" priority="376" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="467" priority="355" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="377" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="464" priority="378" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="465" priority="357" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="379" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="462" priority="380" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="463" priority="359" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="381" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="382" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="461" priority="361" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="383" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="458" priority="384" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="459" priority="363" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="385" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="456" priority="386" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="457" priority="365" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="387" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="454" priority="388" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="455" priority="367" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="389" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="452" priority="390" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="453" priority="369" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="391" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="450" priority="392" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="451" priority="429" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="451" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="448" priority="452" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="449" priority="453" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="475" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="446" priority="476" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="447" priority="477" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="499" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="444" priority="500" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="445" priority="501" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="523" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="524" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="443" priority="517" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="539" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="440" priority="540" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97">
+    <cfRule type="cellIs" dxfId="439" priority="149" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="438" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:K17">
-    <cfRule type="cellIs" dxfId="441" priority="515" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="537" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="538" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="439" priority="375" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="397" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="434" priority="398" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="437" priority="377" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="399" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="432" priority="400" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="435" priority="419" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="441" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="430" priority="442" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="433" priority="427" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="449" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="428" priority="450" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="431" priority="435" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="457" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="426" priority="458" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="429" priority="441" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="463" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="464" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="427" priority="443" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="465" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="422" priority="466" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="425" priority="451" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="473" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="420" priority="474" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="423" priority="459" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="481" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="482" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="421" priority="465" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="487" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="416" priority="488" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="419" priority="467" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="489" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="414" priority="490" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="417" priority="475" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="497" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="498" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="415" priority="483" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="505" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="410" priority="506" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="413" priority="489" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="511" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="408" priority="512" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="411" priority="491" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="513" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="514" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="409" priority="499" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="500" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="521" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="404" priority="522" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="407" priority="507" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="529" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="402" priority="530" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="405" priority="513" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="535" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="536" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I143:I144">
+    <cfRule type="cellIs" dxfId="399" priority="87" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="398" priority="88" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J5">
-    <cfRule type="cellIs" dxfId="403" priority="383" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="405" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="396" priority="406" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="401" priority="385" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="407" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="408" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="399" priority="387" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="409" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="392" priority="410" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="397" priority="431" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="453" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="390" priority="454" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="395" priority="425" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="447" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="448" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="393" priority="455" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="477" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="386" priority="478" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="391" priority="449" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="471" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="384" priority="472" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="389" priority="479" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="501" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="502" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="387" priority="473" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="495" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="380" priority="496" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56">
-    <cfRule type="cellIs" dxfId="385" priority="503" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="504" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="525" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="378" priority="526" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62">
-    <cfRule type="cellIs" dxfId="383" priority="497" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="519" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="520" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J97">
+    <cfRule type="cellIs" dxfId="375" priority="147" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="374" priority="148" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J105:K105">
+    <cfRule type="cellIs" dxfId="373" priority="91" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="372" priority="92" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J115:K115">
+    <cfRule type="cellIs" dxfId="371" priority="105" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="106" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J125:K125">
+    <cfRule type="cellIs" dxfId="369" priority="119" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="368" priority="120" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J135:K135">
+    <cfRule type="cellIs" dxfId="367" priority="133" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="366" priority="134" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J102:L102">
+    <cfRule type="cellIs" dxfId="365" priority="93" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="94" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J112:L112">
+    <cfRule type="cellIs" dxfId="363" priority="107" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="362" priority="108" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J122:L122">
+    <cfRule type="cellIs" dxfId="361" priority="121" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="360" priority="122" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J132:L132">
+    <cfRule type="cellIs" dxfId="359" priority="135" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="136" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:M68">
-    <cfRule type="cellIs" dxfId="381" priority="519" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="541" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="356" priority="542" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="379" priority="393" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="415" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="416" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="377" priority="395" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="417" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="418" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="375" priority="397" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="419" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="350" priority="420" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="373" priority="399" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="421" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="422" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="cellIs" dxfId="371" priority="421" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="443" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="444" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="cellIs" dxfId="369" priority="423" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="445" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="344" priority="446" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="367" priority="439" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="461" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="462" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="365" priority="445" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="467" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="468" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="cellIs" dxfId="363" priority="447" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="469" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="470" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="361" priority="463" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="485" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="486" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="cellIs" dxfId="359" priority="469" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="491" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="492" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48">
-    <cfRule type="cellIs" dxfId="357" priority="471" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="493" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="494" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="cellIs" dxfId="355" priority="487" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="509" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="510" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="cellIs" dxfId="353" priority="493" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="515" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="516" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
-    <cfRule type="cellIs" dxfId="351" priority="495" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="517" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="518" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66">
-    <cfRule type="cellIs" dxfId="349" priority="511" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="533" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="534" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K107">
+    <cfRule type="cellIs" dxfId="323" priority="95" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="96" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K109">
+    <cfRule type="cellIs" dxfId="321" priority="97" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K117">
+    <cfRule type="cellIs" dxfId="319" priority="109" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="110" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K119">
+    <cfRule type="cellIs" dxfId="317" priority="111" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="112" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K127">
+    <cfRule type="cellIs" dxfId="315" priority="123" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="124" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K129">
+    <cfRule type="cellIs" dxfId="313" priority="125" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="126" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K137">
+    <cfRule type="cellIs" dxfId="311" priority="137" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="138" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K139:L139">
+    <cfRule type="cellIs" dxfId="309" priority="131" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="132" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="347" priority="433" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="455" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="456" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="345" priority="437" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="459" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="460" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="343" priority="457" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="479" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="480" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="cellIs" dxfId="341" priority="461" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="483" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="484" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44">
-    <cfRule type="cellIs" dxfId="339" priority="481" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="503" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="504" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47">
-    <cfRule type="cellIs" dxfId="337" priority="485" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="507" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="508" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56">
-    <cfRule type="cellIs" dxfId="335" priority="505" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="506" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="527" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="528" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59">
-    <cfRule type="cellIs" dxfId="333" priority="509" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="531" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="532" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L100">
+    <cfRule type="cellIs" dxfId="291" priority="145" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="146" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L104">
+    <cfRule type="cellIs" dxfId="289" priority="99" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="100" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L106">
+    <cfRule type="cellIs" dxfId="287" priority="101" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="102" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L109:L110">
+    <cfRule type="cellIs" dxfId="285" priority="89" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L114">
+    <cfRule type="cellIs" dxfId="283" priority="113" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="114" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L116">
+    <cfRule type="cellIs" dxfId="281" priority="115" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="116" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L119:L120">
+    <cfRule type="cellIs" dxfId="279" priority="103" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="104" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L124">
+    <cfRule type="cellIs" dxfId="277" priority="127" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="128" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L126">
+    <cfRule type="cellIs" dxfId="275" priority="129" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="130" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L129:L130">
+    <cfRule type="cellIs" dxfId="273" priority="117" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="118" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L134">
+    <cfRule type="cellIs" dxfId="271" priority="139" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="140" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L136">
+    <cfRule type="cellIs" dxfId="269" priority="141" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L97:O98">
+    <cfRule type="cellIs" dxfId="267" priority="151" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="152" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L144:O144">
+    <cfRule type="cellIs" dxfId="265" priority="143" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="144" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="331" priority="401" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="423" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="424" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="329" priority="403" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="425" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="426" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="327" priority="321" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="343" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="344" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="325" priority="617" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="618" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="639" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="640" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:U26">
-    <cfRule type="cellIs" dxfId="323" priority="577" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="599" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="600" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="cellIs" dxfId="321" priority="621" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="622" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="643" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="644" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S110">
+    <cfRule type="cellIs" dxfId="251" priority="71" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="72" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S112">
+    <cfRule type="cellIs" dxfId="249" priority="67" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="68" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S114">
+    <cfRule type="cellIs" dxfId="247" priority="65" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S116">
+    <cfRule type="cellIs" dxfId="245" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S118">
+    <cfRule type="cellIs" dxfId="243" priority="59" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="60" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S120">
+    <cfRule type="cellIs" dxfId="241" priority="55" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="56" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S122">
+    <cfRule type="cellIs" dxfId="239" priority="53" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="54" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S124">
+    <cfRule type="cellIs" dxfId="237" priority="49" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S128">
+    <cfRule type="cellIs" dxfId="235" priority="45" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S130">
+    <cfRule type="cellIs" dxfId="233" priority="41" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S132">
+    <cfRule type="cellIs" dxfId="231" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S134">
+    <cfRule type="cellIs" dxfId="229" priority="35" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S136">
+    <cfRule type="cellIs" dxfId="227" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S138">
+    <cfRule type="cellIs" dxfId="225" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S140">
+    <cfRule type="cellIs" dxfId="223" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S142">
+    <cfRule type="cellIs" dxfId="221" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:T33">
-    <cfRule type="cellIs" dxfId="319" priority="523" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="545" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="546" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:T43">
-    <cfRule type="cellIs" dxfId="317" priority="537" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="559" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="560" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S53:T53">
-    <cfRule type="cellIs" dxfId="315" priority="551" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="573" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="574" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S63:T63">
-    <cfRule type="cellIs" dxfId="313" priority="565" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="587" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="588" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:U30">
-    <cfRule type="cellIs" dxfId="311" priority="525" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="547" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="548" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40:U40">
-    <cfRule type="cellIs" dxfId="309" priority="539" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="561" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="562" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S50:U50">
-    <cfRule type="cellIs" dxfId="307" priority="553" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="575" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="576" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S60:U60">
-    <cfRule type="cellIs" dxfId="305" priority="567" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="589" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="590" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S101:V101">
+    <cfRule type="cellIs" dxfId="203" priority="81" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="82" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S103:V103">
+    <cfRule type="cellIs" dxfId="201" priority="83" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="84" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S106:V106">
+    <cfRule type="cellIs" dxfId="199" priority="75" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="76" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S108:V108">
+    <cfRule type="cellIs" dxfId="197" priority="77" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="78" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S126:V126">
+    <cfRule type="cellIs" dxfId="195" priority="73" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="74" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S144:V144">
+    <cfRule type="cellIs" dxfId="193" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="cellIs" dxfId="303" priority="319" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="341" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="342" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="301" priority="623" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="624" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="645" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="646" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="299" priority="619" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="641" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="642" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35">
-    <cfRule type="cellIs" dxfId="297" priority="527" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="549" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="550" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T37">
-    <cfRule type="cellIs" dxfId="295" priority="529" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="551" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="552" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T45">
-    <cfRule type="cellIs" dxfId="293" priority="541" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="563" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="564" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T47">
-    <cfRule type="cellIs" dxfId="291" priority="543" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="565" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="566" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="cellIs" dxfId="289" priority="555" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="577" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="578" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T57">
-    <cfRule type="cellIs" dxfId="287" priority="557" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="579" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="580" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T65">
-    <cfRule type="cellIs" dxfId="285" priority="569" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="591" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="592" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:U8">
-    <cfRule type="cellIs" dxfId="283" priority="371" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="393" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="394" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T67:U67">
-    <cfRule type="cellIs" dxfId="281" priority="563" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="585" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="586" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T111:U111">
+    <cfRule type="cellIs" dxfId="167" priority="69" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="70" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T115:U115">
+    <cfRule type="cellIs" dxfId="165" priority="63" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="64" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T119:U119">
+    <cfRule type="cellIs" dxfId="163" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T123:U123">
+    <cfRule type="cellIs" dxfId="161" priority="51" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="52" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T129:U129">
+    <cfRule type="cellIs" dxfId="159" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T133:U133">
+    <cfRule type="cellIs" dxfId="157" priority="37" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T137:U137">
+    <cfRule type="cellIs" dxfId="155" priority="31" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T141:U141">
+    <cfRule type="cellIs" dxfId="153" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="cellIs" dxfId="279" priority="373" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="395" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="396" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="277" priority="379" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="401" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="402" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="275" priority="585" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="607" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="608" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32">
-    <cfRule type="cellIs" dxfId="273" priority="531" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="553" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="554" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34">
-    <cfRule type="cellIs" dxfId="271" priority="533" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="555" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="556" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U37:U38">
-    <cfRule type="cellIs" dxfId="269" priority="521" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="543" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="544" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42">
-    <cfRule type="cellIs" dxfId="267" priority="545" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="567" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="568" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U44">
-    <cfRule type="cellIs" dxfId="265" priority="547" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="569" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="570" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47:U48">
-    <cfRule type="cellIs" dxfId="263" priority="535" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="557" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="558" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U52">
-    <cfRule type="cellIs" dxfId="261" priority="559" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="581" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="582" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54">
-    <cfRule type="cellIs" dxfId="259" priority="561" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="583" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="584" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U57:U58">
-    <cfRule type="cellIs" dxfId="257" priority="549" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="571" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="572" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U62">
-    <cfRule type="cellIs" dxfId="255" priority="573" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="595" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="596" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U64">
-    <cfRule type="cellIs" dxfId="253" priority="575" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="597" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="598" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U72:X72">
-    <cfRule type="cellIs" dxfId="251" priority="583" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="584" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="605" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="606" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" dxfId="249" priority="389" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="411" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="412" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" dxfId="247" priority="391" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="413" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="414" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="cellIs" dxfId="245" priority="579" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="601" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="602" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
-    <cfRule type="cellIs" dxfId="243" priority="603" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="604" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="625" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="626" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z16">
-    <cfRule type="cellIs" dxfId="241" priority="405" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="427" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="428" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z19">
-    <cfRule type="cellIs" dxfId="239" priority="409" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="431" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="432" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z21">
-    <cfRule type="cellIs" dxfId="237" priority="411" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="433" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="434" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="cellIs" dxfId="235" priority="413" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="435" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="436" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7">
-    <cfRule type="cellIs" dxfId="233" priority="593" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="594" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="615" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="616" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9">
-    <cfRule type="cellIs" dxfId="231" priority="601" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="623" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="624" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12">
-    <cfRule type="cellIs" dxfId="229" priority="609" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="610" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="631" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="632" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14">
-    <cfRule type="cellIs" dxfId="227" priority="615" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="637" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="638" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4">
-    <cfRule type="cellIs" dxfId="225" priority="605" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="606" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="627" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="628" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="cellIs" dxfId="223" priority="599" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="621" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="622" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16">
-    <cfRule type="cellIs" dxfId="221" priority="407" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="429" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="430" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18">
-    <cfRule type="cellIs" dxfId="219" priority="415" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="437" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="438" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB23">
-    <cfRule type="cellIs" dxfId="217" priority="417" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="439" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="440" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB25">
-    <cfRule type="cellIs" dxfId="215" priority="337" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="359" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="360" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB50">
+    <cfRule type="cellIs" dxfId="85" priority="193" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="194" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB52">
+    <cfRule type="cellIs" dxfId="83" priority="189" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="190" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB54">
+    <cfRule type="cellIs" dxfId="81" priority="169" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="170" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB56">
+    <cfRule type="cellIs" dxfId="79" priority="165" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="166" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB58">
+    <cfRule type="cellIs" dxfId="77" priority="163" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="164" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB60">
+    <cfRule type="cellIs" dxfId="75" priority="159" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="160" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB62">
+    <cfRule type="cellIs" dxfId="73" priority="157" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="158" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB64">
+    <cfRule type="cellIs" dxfId="71" priority="153" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB33:AE34">
-    <cfRule type="cellIs" dxfId="213" priority="249" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="271" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="272" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB36:AE36">
-    <cfRule type="cellIs" dxfId="211" priority="179" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="201" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB38:AE38">
-    <cfRule type="cellIs" dxfId="209" priority="193" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="215" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="216" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB40:AE41">
-    <cfRule type="cellIs" dxfId="207" priority="233" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="255" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="256" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB43:AE43">
-    <cfRule type="cellIs" dxfId="205" priority="199" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="221" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="222" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB45:AE45">
-    <cfRule type="cellIs" dxfId="203" priority="211" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="233" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="234" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB47:AE48">
+    <cfRule type="cellIs" dxfId="57" priority="199" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="200" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB66:AE66">
+    <cfRule type="cellIs" dxfId="55" priority="195" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="196" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6">
-    <cfRule type="cellIs" dxfId="201" priority="595" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="617" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="618" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8">
-    <cfRule type="cellIs" dxfId="199" priority="597" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="598" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="619" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="620" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC14">
-    <cfRule type="cellIs" dxfId="197" priority="613" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="635" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="636" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC27">
-    <cfRule type="cellIs" dxfId="195" priority="331" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="353" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="354" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC29">
-    <cfRule type="cellIs" dxfId="193" priority="325" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="347" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="348" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC31">
-    <cfRule type="cellIs" dxfId="191" priority="323" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="345" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="346" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC51:AD51">
+    <cfRule type="cellIs" dxfId="41" priority="191" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="192" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC55:AD55">
+    <cfRule type="cellIs" dxfId="39" priority="167" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="168" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC59:AD59">
+    <cfRule type="cellIs" dxfId="37" priority="161" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="162" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC63:AD63">
+    <cfRule type="cellIs" dxfId="35" priority="155" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="156" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4">
-    <cfRule type="cellIs" dxfId="189" priority="607" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="608" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="629" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="630" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7">
-    <cfRule type="cellIs" dxfId="187" priority="611" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="633" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="634" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25">
-    <cfRule type="cellIs" dxfId="185" priority="335" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="357" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="358" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD28:AE28">
-    <cfRule type="cellIs" dxfId="183" priority="327" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="349" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="350" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF25">
-    <cfRule type="cellIs" dxfId="181" priority="333" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="334" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB47:AE48">
-    <cfRule type="cellIs" dxfId="179" priority="177" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="355" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="356" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG47">
-    <cfRule type="cellIs" dxfId="177" priority="175" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="176" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB66:AE66">
-    <cfRule type="cellIs" dxfId="175" priority="173" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="174" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB50">
-    <cfRule type="cellIs" dxfId="173" priority="171" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="172" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB52">
-    <cfRule type="cellIs" dxfId="171" priority="167" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="168" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC51:AD51">
-    <cfRule type="cellIs" dxfId="169" priority="169" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="170" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB54">
-    <cfRule type="cellIs" dxfId="149" priority="147" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="148" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB56">
-    <cfRule type="cellIs" dxfId="147" priority="143" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="144" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC55:AD55">
-    <cfRule type="cellIs" dxfId="145" priority="145" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="146" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB58">
-    <cfRule type="cellIs" dxfId="143" priority="141" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="142" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB60">
-    <cfRule type="cellIs" dxfId="141" priority="137" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="138" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC59:AD59">
-    <cfRule type="cellIs" dxfId="139" priority="139" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="140" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB62">
-    <cfRule type="cellIs" dxfId="137" priority="135" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="136" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB64">
-    <cfRule type="cellIs" dxfId="135" priority="131" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="132" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC63:AD63">
-    <cfRule type="cellIs" dxfId="133" priority="133" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="134" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L97:O98">
-    <cfRule type="cellIs" dxfId="131" priority="129" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="130" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="127" priority="127" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="128" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J97">
-    <cfRule type="cellIs" dxfId="125" priority="125" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="126" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I143:I144">
-    <cfRule type="cellIs" dxfId="123" priority="65" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="66" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J105:K105">
-    <cfRule type="cellIs" dxfId="121" priority="69" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="70" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J115:K115">
-    <cfRule type="cellIs" dxfId="119" priority="83" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="84" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J125:K125">
-    <cfRule type="cellIs" dxfId="117" priority="97" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="98" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J135:K135">
-    <cfRule type="cellIs" dxfId="115" priority="111" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="112" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J102:L102">
-    <cfRule type="cellIs" dxfId="113" priority="71" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="72" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J112:L112">
-    <cfRule type="cellIs" dxfId="111" priority="85" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="86" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J122:L122">
-    <cfRule type="cellIs" dxfId="109" priority="99" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="100" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J132:L132">
-    <cfRule type="cellIs" dxfId="107" priority="113" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="114" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K107">
-    <cfRule type="cellIs" dxfId="105" priority="73" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="74" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K109">
-    <cfRule type="cellIs" dxfId="103" priority="75" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="76" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K117">
-    <cfRule type="cellIs" dxfId="101" priority="87" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="88" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K119">
-    <cfRule type="cellIs" dxfId="99" priority="89" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="90" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K127">
-    <cfRule type="cellIs" dxfId="97" priority="101" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="102" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K129">
-    <cfRule type="cellIs" dxfId="95" priority="103" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="104" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K137">
-    <cfRule type="cellIs" dxfId="93" priority="115" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="116" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K139:L139">
-    <cfRule type="cellIs" dxfId="91" priority="109" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="110" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L100">
-    <cfRule type="cellIs" dxfId="89" priority="123" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="124" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L104">
-    <cfRule type="cellIs" dxfId="87" priority="77" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="78" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L106">
-    <cfRule type="cellIs" dxfId="85" priority="79" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="80" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L109:L110">
-    <cfRule type="cellIs" dxfId="83" priority="67" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="68" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L114">
-    <cfRule type="cellIs" dxfId="81" priority="91" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="92" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L116">
-    <cfRule type="cellIs" dxfId="79" priority="93" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="94" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L119:L120">
-    <cfRule type="cellIs" dxfId="77" priority="81" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="82" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L124">
-    <cfRule type="cellIs" dxfId="75" priority="105" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="106" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L126">
-    <cfRule type="cellIs" dxfId="73" priority="107" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="108" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L129:L130">
-    <cfRule type="cellIs" dxfId="71" priority="95" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="96" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L134">
-    <cfRule type="cellIs" dxfId="69" priority="117" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="118" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L136">
-    <cfRule type="cellIs" dxfId="67" priority="119" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="120" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L144:O144">
-    <cfRule type="cellIs" dxfId="65" priority="121" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="122" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S101:V101">
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S103:V103">
-    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S106:V106">
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S108:V108">
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S126:V126">
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S110">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S112">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T111:U111">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S114">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S116">
-    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T115:U115">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S118">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S120">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T119:U119">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S122">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S124">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T123:U123">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S144:V144">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S128">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S130">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T129:U129">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S132">
+    <cfRule type="cellIs" dxfId="23" priority="197" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="198" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S146">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S147">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S148">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -12349,23 +12854,15 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S134">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T133:U133">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S136">
+  <conditionalFormatting sqref="S149">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S151">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -12373,23 +12870,15 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S138">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T137:U137">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S140">
+  <conditionalFormatting sqref="U151:X151">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P151">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -12397,19 +12886,19 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S142">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T141:U141">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+  <conditionalFormatting sqref="M151">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J151">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
